--- a/LM5060 Design_Calculator_REV_C.xlsx
+++ b/LM5060 Design_Calculator_REV_C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="12975" tabRatio="685" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="12980" tabRatio="685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="16" r:id="rId1"/>
@@ -1426,7 +1426,7 @@
     <t>LM5060 Design Tool- Rev. C</t>
   </si>
   <si>
-    <t>AOD66923</t>
+    <t>IRFR7440</t>
   </si>
 </sst>
 </file>
@@ -3108,6 +3108,27 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3145,27 +3166,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5321,8 +5321,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1820219</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7841,9 +7841,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="135"/>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -7861,7 +7861,7 @@
       <c r="O1" s="136"/>
       <c r="P1" s="137"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="138"/>
       <c r="B2" s="139"/>
       <c r="C2" s="139"/>
@@ -7879,7 +7879,7 @@
       <c r="O2" s="139"/>
       <c r="P2" s="140"/>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.6">
       <c r="A3" s="138"/>
       <c r="B3" s="139"/>
       <c r="C3" s="139"/>
@@ -7897,7 +7897,7 @@
       <c r="O3" s="139"/>
       <c r="P3" s="140"/>
     </row>
-    <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="23" x14ac:dyDescent="0.5">
       <c r="A4" s="138"/>
       <c r="B4" s="139"/>
       <c r="C4" s="139"/>
@@ -7915,7 +7915,7 @@
       <c r="O4" s="139"/>
       <c r="P4" s="140"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="138"/>
       <c r="B5" s="139"/>
       <c r="C5" s="139"/>
@@ -7933,7 +7933,7 @@
       <c r="O5" s="139"/>
       <c r="P5" s="140"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="138"/>
       <c r="B6" s="139"/>
       <c r="C6" s="139"/>
@@ -7951,7 +7951,7 @@
       <c r="O6" s="139"/>
       <c r="P6" s="140"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="138"/>
       <c r="B7" s="139"/>
       <c r="C7" s="139"/>
@@ -7971,7 +7971,7 @@
       <c r="O7" s="139"/>
       <c r="P7" s="140"/>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.6">
       <c r="A8" s="138"/>
       <c r="B8" s="141" t="s">
         <v>226</v>
@@ -7991,7 +7991,7 @@
       <c r="O8" s="139"/>
       <c r="P8" s="140"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="138"/>
       <c r="B9" s="139"/>
       <c r="C9" s="139"/>
@@ -8009,7 +8009,7 @@
       <c r="O9" s="139"/>
       <c r="P9" s="140"/>
     </row>
-    <row r="10" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="20" x14ac:dyDescent="0.4">
       <c r="A10" s="138"/>
       <c r="B10" s="144" t="s">
         <v>51</v>
@@ -8029,7 +8029,7 @@
       <c r="O10" s="139"/>
       <c r="P10" s="140"/>
     </row>
-    <row r="11" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="14" x14ac:dyDescent="0.3">
       <c r="A11" s="138"/>
       <c r="B11" s="146" t="s">
         <v>52</v>
@@ -8049,7 +8049,7 @@
       <c r="O11" s="139"/>
       <c r="P11" s="140"/>
     </row>
-    <row r="12" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" s="138"/>
       <c r="B12" s="146" t="s">
         <v>53</v>
@@ -8069,7 +8069,7 @@
       <c r="O12" s="139"/>
       <c r="P12" s="140"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="138"/>
       <c r="B13" s="145"/>
       <c r="C13" s="145"/>
@@ -8087,7 +8087,7 @@
       <c r="O13" s="139"/>
       <c r="P13" s="140"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="138"/>
       <c r="B14" s="277" t="s">
         <v>69</v>
@@ -8107,7 +8107,7 @@
       <c r="O14" s="139"/>
       <c r="P14" s="140"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="138"/>
       <c r="B15" s="145"/>
       <c r="C15" s="145"/>
@@ -8125,7 +8125,7 @@
       <c r="O15" s="139"/>
       <c r="P15" s="140"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="138"/>
       <c r="B16" s="148" t="s">
         <v>54</v>
@@ -8145,7 +8145,7 @@
       <c r="O16" s="139"/>
       <c r="P16" s="140"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="138"/>
       <c r="B17" s="149" t="s">
         <v>62</v>
@@ -8165,7 +8165,7 @@
       <c r="O17" s="139"/>
       <c r="P17" s="140"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="138"/>
       <c r="B18" s="149" t="s">
         <v>175</v>
@@ -8185,7 +8185,7 @@
       <c r="O18" s="139"/>
       <c r="P18" s="140"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="138"/>
       <c r="B19" s="149" t="s">
         <v>176</v>
@@ -8205,7 +8205,7 @@
       <c r="O19" s="139"/>
       <c r="P19" s="140"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="138"/>
       <c r="B20" s="149" t="s">
         <v>177</v>
@@ -8225,7 +8225,7 @@
       <c r="O20" s="139"/>
       <c r="P20" s="140"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="138"/>
       <c r="B21" s="149"/>
       <c r="C21" s="145"/>
@@ -8243,7 +8243,7 @@
       <c r="O21" s="139"/>
       <c r="P21" s="140"/>
     </row>
-    <row r="22" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="20" x14ac:dyDescent="0.4">
       <c r="A22" s="138"/>
       <c r="B22" s="144" t="s">
         <v>55</v>
@@ -8263,7 +8263,7 @@
       <c r="O22" s="139"/>
       <c r="P22" s="140"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="138"/>
       <c r="B23" s="153" t="s">
         <v>61</v>
@@ -8283,7 +8283,7 @@
       <c r="O23" s="139"/>
       <c r="P23" s="140"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="138"/>
       <c r="B24" s="139" t="s">
         <v>56</v>
@@ -8303,7 +8303,7 @@
       <c r="O24" s="139"/>
       <c r="P24" s="140"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="138"/>
       <c r="B25" s="139"/>
       <c r="C25" s="139"/>
@@ -8321,7 +8321,7 @@
       <c r="O25" s="139"/>
       <c r="P25" s="140"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="138"/>
       <c r="B26" s="153" t="s">
         <v>60</v>
@@ -8341,7 +8341,7 @@
       <c r="O26" s="139"/>
       <c r="P26" s="140"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="138"/>
       <c r="B27" s="139"/>
       <c r="C27" s="139"/>
@@ -8359,7 +8359,7 @@
       <c r="O27" s="139"/>
       <c r="P27" s="140"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="138"/>
       <c r="B28" s="139" t="s">
         <v>57</v>
@@ -8379,7 +8379,7 @@
       <c r="O28" s="139"/>
       <c r="P28" s="140"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="138"/>
       <c r="B29" s="153"/>
       <c r="C29" s="139"/>
@@ -8397,7 +8397,7 @@
       <c r="O29" s="139"/>
       <c r="P29" s="140"/>
     </row>
-    <row r="30" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="138"/>
       <c r="B30" s="139"/>
       <c r="C30" s="139"/>
@@ -8415,7 +8415,7 @@
       <c r="O30" s="139"/>
       <c r="P30" s="140"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="138"/>
       <c r="B31" s="278" t="s">
         <v>67</v>
@@ -8435,7 +8435,7 @@
       <c r="O31" s="139"/>
       <c r="P31" s="140"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="138"/>
       <c r="B32" s="281"/>
       <c r="C32" s="282"/>
@@ -8453,7 +8453,7 @@
       <c r="O32" s="139"/>
       <c r="P32" s="140"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="138"/>
       <c r="B33" s="281"/>
       <c r="C33" s="282"/>
@@ -8471,7 +8471,7 @@
       <c r="O33" s="139"/>
       <c r="P33" s="140"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="138"/>
       <c r="B34" s="281"/>
       <c r="C34" s="282"/>
@@ -8489,7 +8489,7 @@
       <c r="O34" s="139"/>
       <c r="P34" s="140"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="138"/>
       <c r="B35" s="281"/>
       <c r="C35" s="282"/>
@@ -8507,7 +8507,7 @@
       <c r="O35" s="139"/>
       <c r="P35" s="140"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="138"/>
       <c r="B36" s="281"/>
       <c r="C36" s="282"/>
@@ -8525,7 +8525,7 @@
       <c r="O36" s="139"/>
       <c r="P36" s="140"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="138"/>
       <c r="B37" s="281"/>
       <c r="C37" s="282"/>
@@ -8543,7 +8543,7 @@
       <c r="O37" s="139"/>
       <c r="P37" s="140"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="138"/>
       <c r="B38" s="281"/>
       <c r="C38" s="282"/>
@@ -8561,7 +8561,7 @@
       <c r="O38" s="139"/>
       <c r="P38" s="140"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="138"/>
       <c r="B39" s="281"/>
       <c r="C39" s="282"/>
@@ -8579,7 +8579,7 @@
       <c r="O39" s="139"/>
       <c r="P39" s="140"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="138"/>
       <c r="B40" s="281"/>
       <c r="C40" s="282"/>
@@ -8597,7 +8597,7 @@
       <c r="O40" s="139"/>
       <c r="P40" s="140"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="138"/>
       <c r="B41" s="281"/>
       <c r="C41" s="282"/>
@@ -8615,7 +8615,7 @@
       <c r="O41" s="139"/>
       <c r="P41" s="140"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="138"/>
       <c r="B42" s="281"/>
       <c r="C42" s="282"/>
@@ -8633,7 +8633,7 @@
       <c r="O42" s="139"/>
       <c r="P42" s="140"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="138"/>
       <c r="B43" s="281"/>
       <c r="C43" s="282"/>
@@ -8651,7 +8651,7 @@
       <c r="O43" s="139"/>
       <c r="P43" s="140"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="138"/>
       <c r="B44" s="281"/>
       <c r="C44" s="282"/>
@@ -8669,7 +8669,7 @@
       <c r="O44" s="139"/>
       <c r="P44" s="140"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="138"/>
       <c r="B45" s="281"/>
       <c r="C45" s="282"/>
@@ -8687,7 +8687,7 @@
       <c r="O45" s="139"/>
       <c r="P45" s="140"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="138"/>
       <c r="B46" s="281"/>
       <c r="C46" s="282"/>
@@ -8705,7 +8705,7 @@
       <c r="O46" s="139"/>
       <c r="P46" s="140"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="138"/>
       <c r="B47" s="281"/>
       <c r="C47" s="282"/>
@@ -8723,7 +8723,7 @@
       <c r="O47" s="139"/>
       <c r="P47" s="140"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="138"/>
       <c r="B48" s="281"/>
       <c r="C48" s="282"/>
@@ -8741,7 +8741,7 @@
       <c r="O48" s="139"/>
       <c r="P48" s="140"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="138"/>
       <c r="B49" s="281"/>
       <c r="C49" s="282"/>
@@ -8759,7 +8759,7 @@
       <c r="O49" s="139"/>
       <c r="P49" s="140"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="138"/>
       <c r="B50" s="281"/>
       <c r="C50" s="282"/>
@@ -8777,7 +8777,7 @@
       <c r="O50" s="139"/>
       <c r="P50" s="140"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="138"/>
       <c r="B51" s="281"/>
       <c r="C51" s="282"/>
@@ -8795,7 +8795,7 @@
       <c r="O51" s="139"/>
       <c r="P51" s="140"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="138"/>
       <c r="B52" s="281"/>
       <c r="C52" s="282"/>
@@ -8813,7 +8813,7 @@
       <c r="O52" s="139"/>
       <c r="P52" s="140"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="138"/>
       <c r="B53" s="281"/>
       <c r="C53" s="282"/>
@@ -8831,7 +8831,7 @@
       <c r="O53" s="139"/>
       <c r="P53" s="140"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="138"/>
       <c r="B54" s="281"/>
       <c r="C54" s="282"/>
@@ -8849,7 +8849,7 @@
       <c r="O54" s="139"/>
       <c r="P54" s="140"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="138"/>
       <c r="B55" s="281"/>
       <c r="C55" s="282"/>
@@ -8867,7 +8867,7 @@
       <c r="O55" s="139"/>
       <c r="P55" s="140"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="138"/>
       <c r="B56" s="281"/>
       <c r="C56" s="282"/>
@@ -8885,7 +8885,7 @@
       <c r="O56" s="139"/>
       <c r="P56" s="140"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="138"/>
       <c r="B57" s="281"/>
       <c r="C57" s="282"/>
@@ -8903,7 +8903,7 @@
       <c r="O57" s="139"/>
       <c r="P57" s="140"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="138"/>
       <c r="B58" s="281"/>
       <c r="C58" s="282"/>
@@ -8921,7 +8921,7 @@
       <c r="O58" s="139"/>
       <c r="P58" s="140"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="138"/>
       <c r="B59" s="281"/>
       <c r="C59" s="282"/>
@@ -8939,7 +8939,7 @@
       <c r="O59" s="139"/>
       <c r="P59" s="140"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="138"/>
       <c r="B60" s="281"/>
       <c r="C60" s="282"/>
@@ -8957,7 +8957,7 @@
       <c r="O60" s="139"/>
       <c r="P60" s="140"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="138"/>
       <c r="B61" s="281"/>
       <c r="C61" s="282"/>
@@ -8975,7 +8975,7 @@
       <c r="O61" s="139"/>
       <c r="P61" s="140"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="138"/>
       <c r="B62" s="281"/>
       <c r="C62" s="282"/>
@@ -8993,7 +8993,7 @@
       <c r="O62" s="139"/>
       <c r="P62" s="140"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="138"/>
       <c r="B63" s="281"/>
       <c r="C63" s="282"/>
@@ -9011,7 +9011,7 @@
       <c r="O63" s="139"/>
       <c r="P63" s="140"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="138"/>
       <c r="B64" s="281"/>
       <c r="C64" s="282"/>
@@ -9029,7 +9029,7 @@
       <c r="O64" s="139"/>
       <c r="P64" s="140"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="138"/>
       <c r="B65" s="281"/>
       <c r="C65" s="282"/>
@@ -9047,7 +9047,7 @@
       <c r="O65" s="139"/>
       <c r="P65" s="140"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="138"/>
       <c r="B66" s="281"/>
       <c r="C66" s="282"/>
@@ -9065,7 +9065,7 @@
       <c r="O66" s="139"/>
       <c r="P66" s="140"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="138"/>
       <c r="B67" s="281"/>
       <c r="C67" s="282"/>
@@ -9083,7 +9083,7 @@
       <c r="O67" s="139"/>
       <c r="P67" s="140"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="138"/>
       <c r="B68" s="281"/>
       <c r="C68" s="282"/>
@@ -9101,7 +9101,7 @@
       <c r="O68" s="139"/>
       <c r="P68" s="140"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="138"/>
       <c r="B69" s="281"/>
       <c r="C69" s="282"/>
@@ -9119,7 +9119,7 @@
       <c r="O69" s="139"/>
       <c r="P69" s="140"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="138"/>
       <c r="B70" s="281"/>
       <c r="C70" s="282"/>
@@ -9137,7 +9137,7 @@
       <c r="O70" s="139"/>
       <c r="P70" s="140"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="138"/>
       <c r="B71" s="281"/>
       <c r="C71" s="282"/>
@@ -9155,7 +9155,7 @@
       <c r="O71" s="139"/>
       <c r="P71" s="140"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="138"/>
       <c r="B72" s="281"/>
       <c r="C72" s="282"/>
@@ -9173,7 +9173,7 @@
       <c r="O72" s="139"/>
       <c r="P72" s="140"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="138"/>
       <c r="B73" s="281"/>
       <c r="C73" s="282"/>
@@ -9191,7 +9191,7 @@
       <c r="O73" s="139"/>
       <c r="P73" s="140"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="138"/>
       <c r="B74" s="281"/>
       <c r="C74" s="282"/>
@@ -9209,7 +9209,7 @@
       <c r="O74" s="139"/>
       <c r="P74" s="140"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="138"/>
       <c r="B75" s="281"/>
       <c r="C75" s="282"/>
@@ -9227,7 +9227,7 @@
       <c r="O75" s="139"/>
       <c r="P75" s="140"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="138"/>
       <c r="B76" s="281"/>
       <c r="C76" s="282"/>
@@ -9245,7 +9245,7 @@
       <c r="O76" s="139"/>
       <c r="P76" s="140"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="138"/>
       <c r="B77" s="281"/>
       <c r="C77" s="282"/>
@@ -9263,7 +9263,7 @@
       <c r="O77" s="139"/>
       <c r="P77" s="140"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="138"/>
       <c r="B78" s="281"/>
       <c r="C78" s="282"/>
@@ -9281,7 +9281,7 @@
       <c r="O78" s="139"/>
       <c r="P78" s="140"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="138"/>
       <c r="B79" s="281"/>
       <c r="C79" s="282"/>
@@ -9299,7 +9299,7 @@
       <c r="O79" s="139"/>
       <c r="P79" s="140"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="138"/>
       <c r="B80" s="281"/>
       <c r="C80" s="282"/>
@@ -9317,7 +9317,7 @@
       <c r="O80" s="139"/>
       <c r="P80" s="140"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="138"/>
       <c r="B81" s="281"/>
       <c r="C81" s="282"/>
@@ -9335,7 +9335,7 @@
       <c r="O81" s="139"/>
       <c r="P81" s="140"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="138"/>
       <c r="B82" s="281"/>
       <c r="C82" s="282"/>
@@ -9353,7 +9353,7 @@
       <c r="O82" s="139"/>
       <c r="P82" s="140"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="138"/>
       <c r="B83" s="281"/>
       <c r="C83" s="282"/>
@@ -9371,7 +9371,7 @@
       <c r="O83" s="139"/>
       <c r="P83" s="140"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="138"/>
       <c r="B84" s="281"/>
       <c r="C84" s="282"/>
@@ -9389,7 +9389,7 @@
       <c r="O84" s="139"/>
       <c r="P84" s="140"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="138"/>
       <c r="B85" s="281"/>
       <c r="C85" s="282"/>
@@ -9407,7 +9407,7 @@
       <c r="O85" s="139"/>
       <c r="P85" s="140"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="138"/>
       <c r="B86" s="281"/>
       <c r="C86" s="282"/>
@@ -9425,7 +9425,7 @@
       <c r="O86" s="139"/>
       <c r="P86" s="140"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="138"/>
       <c r="B87" s="281"/>
       <c r="C87" s="282"/>
@@ -9443,7 +9443,7 @@
       <c r="O87" s="139"/>
       <c r="P87" s="140"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="138"/>
       <c r="B88" s="281"/>
       <c r="C88" s="282"/>
@@ -9461,7 +9461,7 @@
       <c r="O88" s="139"/>
       <c r="P88" s="140"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="138"/>
       <c r="B89" s="281"/>
       <c r="C89" s="282"/>
@@ -9479,7 +9479,7 @@
       <c r="O89" s="139"/>
       <c r="P89" s="140"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="138"/>
       <c r="B90" s="281"/>
       <c r="C90" s="282"/>
@@ -9497,7 +9497,7 @@
       <c r="O90" s="139"/>
       <c r="P90" s="140"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="138"/>
       <c r="B91" s="281"/>
       <c r="C91" s="282"/>
@@ -9515,7 +9515,7 @@
       <c r="O91" s="139"/>
       <c r="P91" s="140"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="138"/>
       <c r="B92" s="281"/>
       <c r="C92" s="282"/>
@@ -9533,7 +9533,7 @@
       <c r="O92" s="139"/>
       <c r="P92" s="140"/>
     </row>
-    <row r="93" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="138"/>
       <c r="B93" s="284"/>
       <c r="C93" s="285"/>
@@ -9551,7 +9551,7 @@
       <c r="O93" s="139"/>
       <c r="P93" s="140"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="138"/>
       <c r="B94" s="139"/>
       <c r="C94" s="139"/>
@@ -9569,7 +9569,7 @@
       <c r="O94" s="139"/>
       <c r="P94" s="140"/>
     </row>
-    <row r="95" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="150"/>
       <c r="B95" s="151"/>
       <c r="C95" s="151"/>
@@ -9587,7 +9587,7 @@
       <c r="O95" s="151"/>
       <c r="P95" s="152"/>
     </row>
-    <row r="96" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B14:I14"/>
@@ -9606,79 +9606,79 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.42578125" customWidth="1"/>
+    <col min="1" max="1" width="0.453125" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="95" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="5.54296875" style="95" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" customWidth="1"/>
     <col min="14" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="2.5703125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="2.54296875" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="3" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="1.140625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="1.1796875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="3.54296875" hidden="1" customWidth="1"/>
     <col min="24" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5703125" customWidth="1"/>
-    <col min="40" max="40" width="7.42578125" style="221" customWidth="1"/>
-    <col min="41" max="41" width="9.42578125" customWidth="1"/>
-    <col min="42" max="42" width="12.42578125" customWidth="1"/>
+    <col min="39" max="39" width="11.54296875" customWidth="1"/>
+    <col min="40" max="40" width="7.453125" style="221" customWidth="1"/>
+    <col min="41" max="41" width="9.453125" customWidth="1"/>
+    <col min="42" max="42" width="12.453125" customWidth="1"/>
     <col min="43" max="43" width="12" customWidth="1"/>
-    <col min="44" max="44" width="13.42578125" customWidth="1"/>
-    <col min="45" max="46" width="14.5703125" customWidth="1"/>
-    <col min="47" max="47" width="11.42578125" customWidth="1"/>
+    <col min="44" max="44" width="13.453125" customWidth="1"/>
+    <col min="45" max="46" width="14.54296875" customWidth="1"/>
+    <col min="47" max="47" width="11.453125" customWidth="1"/>
     <col min="48" max="48" width="13" customWidth="1"/>
-    <col min="49" max="49" width="13.42578125" customWidth="1"/>
-    <col min="50" max="50" width="14.5703125" customWidth="1"/>
-    <col min="51" max="51" width="14.140625" customWidth="1"/>
-    <col min="52" max="52" width="12.85546875" customWidth="1"/>
-    <col min="53" max="53" width="12.5703125" customWidth="1"/>
-    <col min="54" max="54" width="9.85546875" customWidth="1"/>
-    <col min="55" max="55" width="12.5703125" customWidth="1"/>
-    <col min="56" max="56" width="13.5703125" customWidth="1"/>
-    <col min="57" max="57" width="13.85546875" customWidth="1"/>
-    <col min="58" max="59" width="14.42578125" customWidth="1"/>
-    <col min="60" max="61" width="15.42578125" customWidth="1"/>
-    <col min="62" max="62" width="15.5703125" customWidth="1"/>
-    <col min="63" max="63" width="12.5703125" customWidth="1"/>
-    <col min="64" max="64" width="16.85546875" customWidth="1"/>
-    <col min="65" max="65" width="15.42578125" customWidth="1"/>
-    <col min="66" max="66" width="14.5703125" customWidth="1"/>
+    <col min="49" max="49" width="13.453125" customWidth="1"/>
+    <col min="50" max="50" width="14.54296875" customWidth="1"/>
+    <col min="51" max="51" width="14.1796875" customWidth="1"/>
+    <col min="52" max="52" width="12.81640625" customWidth="1"/>
+    <col min="53" max="53" width="12.54296875" customWidth="1"/>
+    <col min="54" max="54" width="9.81640625" customWidth="1"/>
+    <col min="55" max="55" width="12.54296875" customWidth="1"/>
+    <col min="56" max="56" width="13.54296875" customWidth="1"/>
+    <col min="57" max="57" width="13.81640625" customWidth="1"/>
+    <col min="58" max="59" width="14.453125" customWidth="1"/>
+    <col min="60" max="61" width="15.453125" customWidth="1"/>
+    <col min="62" max="62" width="15.54296875" customWidth="1"/>
+    <col min="63" max="63" width="12.54296875" customWidth="1"/>
+    <col min="64" max="64" width="16.81640625" customWidth="1"/>
+    <col min="65" max="65" width="15.453125" customWidth="1"/>
+    <col min="66" max="66" width="14.54296875" customWidth="1"/>
     <col min="67" max="67" width="10" customWidth="1"/>
-    <col min="68" max="68" width="6.140625" customWidth="1"/>
-    <col min="69" max="69" width="7.140625" customWidth="1"/>
-    <col min="70" max="70" width="8.42578125" customWidth="1"/>
-    <col min="71" max="71" width="4.5703125" customWidth="1"/>
+    <col min="68" max="68" width="6.1796875" customWidth="1"/>
+    <col min="69" max="69" width="7.1796875" customWidth="1"/>
+    <col min="70" max="70" width="8.453125" customWidth="1"/>
+    <col min="71" max="71" width="4.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="83" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="287" t="s">
+    <row r="1" spans="1:40" s="83" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="294" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
@@ -9707,7 +9707,7 @@
       <c r="AM1" s="39"/>
       <c r="AN1" s="223"/>
     </row>
-    <row r="2" spans="1:40" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="38" t="s">
         <v>22</v>
@@ -9721,8 +9721,8 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="302"/>
-      <c r="M2" s="302"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="289"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -9750,7 +9750,7 @@
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -9791,7 +9791,7 @@
       <c r="AL3" s="19"/>
       <c r="AM3" s="19"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -9832,7 +9832,7 @@
       <c r="AL4" s="19"/>
       <c r="AM4" s="19"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -9872,7 +9872,7 @@
       <c r="AL5" s="19"/>
       <c r="AM5" s="19"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -9913,7 +9913,7 @@
       <c r="AL6" s="19"/>
       <c r="AM6" s="19"/>
     </row>
-    <row r="7" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -9954,7 +9954,7 @@
       <c r="AL7" s="19"/>
       <c r="AM7" s="19"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -9995,7 +9995,7 @@
       <c r="AL8" s="19"/>
       <c r="AM8" s="19"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="24"/>
       <c r="C9" s="115"/>
@@ -10038,7 +10038,7 @@
       <c r="AL9" s="239"/>
       <c r="AM9" s="239"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="25"/>
       <c r="C10" s="21"/>
@@ -10081,14 +10081,14 @@
       <c r="AL10" s="239"/>
       <c r="AM10" s="239"/>
     </row>
-    <row r="11" spans="1:40" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="25"/>
       <c r="C11" s="119"/>
-      <c r="D11" s="289" t="s">
+      <c r="D11" s="296" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="290"/>
+      <c r="E11" s="297"/>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
@@ -10124,12 +10124,12 @@
       <c r="AL11" s="239"/>
       <c r="AM11" s="239"/>
     </row>
-    <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="25"/>
       <c r="C12" s="118"/>
-      <c r="D12" s="289"/>
-      <c r="E12" s="290"/>
+      <c r="D12" s="296"/>
+      <c r="E12" s="297"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="19"/>
@@ -10165,7 +10165,7 @@
       <c r="AL12" s="239"/>
       <c r="AM12" s="239"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -10206,18 +10206,18 @@
       <c r="AL13" s="19"/>
       <c r="AM13" s="19"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="235" t="s">
         <v>217</v>
       </c>
       <c r="C14" s="263"/>
-      <c r="D14" s="294" t="s">
+      <c r="D14" s="301" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="294"/>
-      <c r="F14" s="294"/>
-      <c r="G14" s="294"/>
+      <c r="E14" s="301"/>
+      <c r="F14" s="301"/>
+      <c r="G14" s="301"/>
       <c r="H14" s="260"/>
       <c r="I14" s="228"/>
       <c r="J14" s="228"/>
@@ -10251,14 +10251,14 @@
       <c r="AL14" s="228"/>
       <c r="AM14" s="234"/>
     </row>
-    <row r="15" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="239"/>
       <c r="B15" s="189"/>
       <c r="C15" s="262"/>
-      <c r="D15" s="295"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="295"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
       <c r="H15" s="261"/>
       <c r="I15" s="240"/>
       <c r="J15" s="240"/>
@@ -10293,18 +10293,18 @@
       <c r="AM15" s="241"/>
       <c r="AN15" s="243"/>
     </row>
-    <row r="16" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="239"/>
-      <c r="B16" s="292"/>
+      <c r="B16" s="299"/>
       <c r="C16" s="244"/>
-      <c r="D16" s="303" t="s">
+      <c r="D16" s="290" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="303"/>
-      <c r="F16" s="303"/>
-      <c r="G16" s="303"/>
-      <c r="H16" s="303"/>
-      <c r="I16" s="303"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
       <c r="J16" s="247"/>
       <c r="K16" s="242"/>
       <c r="L16" s="240"/>
@@ -10337,18 +10337,18 @@
       <c r="AM16" s="241"/>
       <c r="AN16" s="243"/>
     </row>
-    <row r="17" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="239"/>
-      <c r="B17" s="292"/>
+      <c r="B17" s="299"/>
       <c r="C17" s="244"/>
-      <c r="D17" s="303" t="s">
+      <c r="D17" s="290" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="303"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="303"/>
-      <c r="I17" s="303"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="290"/>
       <c r="J17" s="240"/>
       <c r="K17" s="240"/>
       <c r="L17" s="240"/>
@@ -10381,18 +10381,18 @@
       <c r="AM17" s="241"/>
       <c r="AN17" s="243"/>
     </row>
-    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
-      <c r="B18" s="292"/>
+      <c r="B18" s="299"/>
       <c r="C18" s="236"/>
-      <c r="D18" s="303" t="s">
+      <c r="D18" s="290" t="s">
         <v>220</v>
       </c>
-      <c r="E18" s="303"/>
-      <c r="F18" s="303"/>
-      <c r="G18" s="303"/>
-      <c r="H18" s="303"/>
-      <c r="I18" s="303"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="290"/>
       <c r="J18" s="240"/>
       <c r="K18" s="226"/>
       <c r="L18" s="226"/>
@@ -10424,18 +10424,18 @@
       <c r="AL18" s="226"/>
       <c r="AM18" s="232"/>
     </row>
-    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
-      <c r="B19" s="292"/>
+      <c r="B19" s="299"/>
       <c r="C19" s="236"/>
-      <c r="D19" s="303" t="s">
+      <c r="D19" s="290" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="303"/>
-      <c r="F19" s="303"/>
-      <c r="G19" s="303"/>
-      <c r="H19" s="303"/>
-      <c r="I19" s="303"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="290"/>
+      <c r="I19" s="290"/>
       <c r="J19" s="240"/>
       <c r="K19" s="226"/>
       <c r="L19" s="226"/>
@@ -10467,7 +10467,7 @@
       <c r="AL19" s="226"/>
       <c r="AM19" s="232"/>
     </row>
-    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="251"/>
       <c r="C20" s="236"/>
@@ -10510,7 +10510,7 @@
       <c r="AL20" s="226"/>
       <c r="AM20" s="232"/>
     </row>
-    <row r="21" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="229"/>
       <c r="C21" s="226"/>
@@ -10551,15 +10551,15 @@
       <c r="AL21" s="226"/>
       <c r="AM21" s="232"/>
     </row>
-    <row r="22" spans="1:40" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="229"/>
       <c r="C22" s="226"/>
-      <c r="D22" s="296" t="s">
+      <c r="D22" s="303" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="297"/>
-      <c r="F22" s="298"/>
+      <c r="E22" s="304"/>
+      <c r="F22" s="305"/>
       <c r="G22" s="273" t="s">
         <v>214</v>
       </c>
@@ -10599,15 +10599,15 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="238" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" s="238" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="239"/>
       <c r="B23" s="229"/>
       <c r="C23" s="240"/>
-      <c r="D23" s="304" t="s">
+      <c r="D23" s="291" t="s">
         <v>224</v>
       </c>
-      <c r="E23" s="305"/>
-      <c r="F23" s="306"/>
+      <c r="E23" s="292"/>
+      <c r="F23" s="293"/>
       <c r="G23" s="274" t="s">
         <v>214</v>
       </c>
@@ -10645,15 +10645,15 @@
       <c r="AM23" s="241"/>
       <c r="AN23" s="243"/>
     </row>
-    <row r="24" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="229"/>
       <c r="C24" s="226"/>
-      <c r="D24" s="299" t="s">
+      <c r="D24" s="306" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
+      <c r="E24" s="306"/>
+      <c r="F24" s="306"/>
       <c r="G24" s="240"/>
       <c r="H24" s="240"/>
       <c r="I24" s="240"/>
@@ -10691,13 +10691,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="229"/>
       <c r="C25" s="240"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
+      <c r="D25" s="306"/>
+      <c r="E25" s="306"/>
+      <c r="F25" s="306"/>
       <c r="G25" s="253"/>
       <c r="H25" s="240"/>
       <c r="I25" s="240"/>
@@ -10732,7 +10732,7 @@
       <c r="AL25" s="240"/>
       <c r="AM25" s="241"/>
     </row>
-    <row r="26" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="239"/>
       <c r="B26" s="230"/>
       <c r="C26" s="231"/>
@@ -10774,7 +10774,7 @@
       <c r="AM26" s="233"/>
       <c r="AN26" s="243"/>
     </row>
-    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="91" t="s">
         <v>31</v>
@@ -10823,7 +10823,7 @@
       <c r="AL27" s="64"/>
       <c r="AM27" s="84"/>
     </row>
-    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="264"/>
       <c r="B28" s="265"/>
       <c r="C28" s="23"/>
@@ -10870,7 +10870,7 @@
       <c r="AL28" s="23"/>
       <c r="AM28" s="71"/>
     </row>
-    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="264"/>
       <c r="B29" s="266"/>
       <c r="C29" s="23"/>
@@ -10917,7 +10917,7 @@
       <c r="AL29" s="23"/>
       <c r="AM29" s="71"/>
     </row>
-    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="264"/>
       <c r="B30" s="266"/>
       <c r="C30" s="23"/>
@@ -10962,7 +10962,7 @@
       <c r="AL30" s="23"/>
       <c r="AM30" s="71"/>
     </row>
-    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="264"/>
       <c r="B31" s="266"/>
       <c r="C31" s="23"/>
@@ -10971,7 +10971,7 @@
         <v>29</v>
       </c>
       <c r="F31" s="169">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31" s="101" t="s">
         <v>7</v>
@@ -11009,7 +11009,7 @@
       <c r="AL31" s="23"/>
       <c r="AM31" s="71"/>
     </row>
-    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="264"/>
       <c r="B32" s="266"/>
       <c r="C32" s="23"/>
@@ -11018,7 +11018,7 @@
         <v>209</v>
       </c>
       <c r="F32" s="112">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="102" t="s">
         <v>15</v>
@@ -11056,9 +11056,9 @@
       <c r="AL32" s="23"/>
       <c r="AM32" s="71"/>
     </row>
-    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="264"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="300" t="s">
         <v>210</v>
       </c>
       <c r="C33" s="240"/>
@@ -11105,9 +11105,9 @@
       <c r="AL33" s="240"/>
       <c r="AM33" s="241"/>
     </row>
-    <row r="34" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="264"/>
-      <c r="B34" s="293"/>
+      <c r="B34" s="300"/>
       <c r="C34" s="240"/>
       <c r="D34" s="240"/>
       <c r="E34" s="78"/>
@@ -11147,7 +11147,7 @@
       <c r="AM34" s="241"/>
       <c r="AN34" s="243"/>
     </row>
-    <row r="35" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="239"/>
       <c r="B35" s="254"/>
       <c r="C35" s="240"/>
@@ -11189,7 +11189,7 @@
       <c r="AM35" s="241"/>
       <c r="AN35" s="243"/>
     </row>
-    <row r="36" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="239"/>
       <c r="B36" s="255"/>
       <c r="C36" s="240"/>
@@ -11231,7 +11231,7 @@
       <c r="AM36" s="241"/>
       <c r="AN36" s="243"/>
     </row>
-    <row r="37" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" ht="14" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
       <c r="B37" s="203" t="s">
         <v>70</v>
@@ -11281,7 +11281,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="267"/>
       <c r="C38" s="79"/>
@@ -11329,7 +11329,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="267"/>
       <c r="C39" s="79"/>
@@ -11374,7 +11374,7 @@
       <c r="AL39" s="23"/>
       <c r="AM39" s="71"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="267"/>
       <c r="C40" s="79"/>
@@ -11419,7 +11419,7 @@
       <c r="AL40" s="23"/>
       <c r="AM40" s="71"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="267"/>
       <c r="C41" s="79"/>
@@ -11467,7 +11467,7 @@
       <c r="AL41" s="23"/>
       <c r="AM41" s="71"/>
     </row>
-    <row r="42" spans="1:40" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="268"/>
       <c r="C42" s="79"/>
@@ -11514,7 +11514,7 @@
       <c r="AL42" s="23"/>
       <c r="AM42" s="71"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="266"/>
       <c r="C43" s="79"/>
@@ -11523,7 +11523,7 @@
         <v>72</v>
       </c>
       <c r="F43" s="173">
-        <v>11</v>
+        <v>1.9</v>
       </c>
       <c r="G43" s="171" t="s">
         <v>179</v>
@@ -11561,9 +11561,9 @@
       <c r="AL43" s="23"/>
       <c r="AM43" s="71"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
-      <c r="B44" s="291" t="s">
+      <c r="B44" s="298" t="s">
         <v>210</v>
       </c>
       <c r="C44" s="79"/>
@@ -11572,7 +11572,7 @@
         <v>73</v>
       </c>
       <c r="F44" s="112">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="G44" s="171" t="s">
         <v>179</v>
@@ -11611,9 +11611,9 @@
       <c r="AM44" s="71"/>
       <c r="AN44" s="224"/>
     </row>
-    <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
-      <c r="B45" s="291"/>
+      <c r="B45" s="298"/>
       <c r="C45" s="79"/>
       <c r="D45" s="23"/>
       <c r="E45" s="37" t="s">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F45" s="5">
         <f>(RDSTYP/RDSMAX)*RDSTYP</f>
-        <v>10.083333333333332</v>
+        <v>1.5041666666666664</v>
       </c>
       <c r="G45" s="171" t="s">
         <v>179</v>
@@ -11659,16 +11659,16 @@
       <c r="AL45" s="23"/>
       <c r="AM45" s="71"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
-      <c r="B46" s="291"/>
+      <c r="B46" s="298"/>
       <c r="C46" s="79"/>
       <c r="D46" s="23"/>
       <c r="E46" s="37" t="s">
         <v>75</v>
       </c>
       <c r="F46" s="211">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G46" s="171"/>
       <c r="H46" s="23"/>
@@ -11704,7 +11704,7 @@
       <c r="AL46" s="23"/>
       <c r="AM46" s="71"/>
     </row>
-    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="269"/>
       <c r="C47" s="79"/>
@@ -11713,7 +11713,7 @@
         <v>71</v>
       </c>
       <c r="F47" s="211">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G47" s="171"/>
       <c r="H47" s="23"/>
@@ -11749,7 +11749,7 @@
       <c r="AL47" s="23"/>
       <c r="AM47" s="71"/>
     </row>
-    <row r="48" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="269"/>
       <c r="C48" s="79"/>
@@ -11759,7 +11759,7 @@
       </c>
       <c r="F48" s="220">
         <f>IF(REVPOL="no",IF(BBFET="no",((RDSMAX/1000)*TRDSMAX/NUMFETS*IOUTMAX+VOFFSETMAX)/ISNSMIN/1000,(((RDSMAX/1000)*TRDSMAX/NUMFETS+(RDSMAX/1000)*TRDSMAX)*IOUTMAX+VOFFSETMAX)/ISNSMIN/1000),IF(BBFET="no",((RDSMAX/1000)*TRDSMAX*IOUTMAX/NUMFETS+VOFFSETMAX)/ISNSMIN/1000+((RO*1000)/IRATIOMIN)/1000,(((RDSMAX/1000)*TRDSMAX/NUMFETS+(RDSMAX/1000)*TRDSMAX)*IOUTMAX+VOFFSETMAX)/ISNSMIN/1000+((RO*1000)/IRATIOMIN)/1000))</f>
-        <v>13.750000000000002</v>
+        <v>2.2088235294117644</v>
       </c>
       <c r="G48" s="171" t="s">
         <v>180</v>
@@ -11797,7 +11797,7 @@
       <c r="AL48" s="23"/>
       <c r="AM48" s="71"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="269"/>
       <c r="C49" s="79"/>
@@ -11806,7 +11806,7 @@
         <v>77</v>
       </c>
       <c r="F49" s="211">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="G49" s="171" t="s">
         <v>180</v>
@@ -11844,7 +11844,7 @@
       <c r="AL49" s="23"/>
       <c r="AM49" s="71"/>
     </row>
-    <row r="50" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="269"/>
       <c r="C50" s="79"/>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="F50" s="28">
         <f>IF(REVPOL="no", ((RS*1000)*ISNSMIN-VOFFSETMAX)/((RDSMAX/1000)*TRDSMAX*(1/NUMFETS+IF(BBFET="YES",1,0))),(((RS*1000)-(RO*1000)/IRATIOMIN)*ISNSMIN-VOFFSETMAX)/((RDSMAX/1000)*TRDSMAX*(1/NUMFETS+IF(BBFET="YES",1,0))))</f>
-        <v>8.6777777777777771</v>
+        <v>3.236111111111112</v>
       </c>
       <c r="G50" s="171" t="s">
         <v>7</v>
@@ -11892,7 +11892,7 @@
       <c r="AL50" s="23"/>
       <c r="AM50" s="71"/>
     </row>
-    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="269"/>
       <c r="C51" s="79"/>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="F51" s="28">
         <f>IF(REVPOL="no",((RS*1000)*ISNSTYP-VOFFSETTYP)/((RDSTYP/1000)*(1/NUMFETS+IF(BBFET="YES",1,0))),(((RS*1000)-(RO*1000)/IRATIOTYP)*ISNSTYP)/((RDSTYP/1000)*(1/NUMFETS+IF(BBFET="YES",1,0))*1))</f>
-        <v>17.454545454545457</v>
+        <v>10.105263157894736</v>
       </c>
       <c r="G51" s="171" t="s">
         <v>7</v>
@@ -11940,7 +11940,7 @@
       <c r="AL51" s="23"/>
       <c r="AM51" s="71"/>
     </row>
-    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="276" t="s">
         <v>211</v>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="F52" s="28">
         <f>IF(REVPOL="no",((RS*1000)*ISNSMAX-VOFFSETMIN)/((RDSMIN/1000)*TRDSMIN*(1/NUMFETS+IF(BBFET="YES",1,0))),(((RS*1000)-(RO*1000)/IRATIOMAX)*ISNSMAX-VOFFSETMIN)/((RDSMIN/1000)*TRDSMIN*(1/NUMFETS+IF(BBFET="YES",1,0))))</f>
-        <v>27.644628099173563</v>
+        <v>21.126500461680518</v>
       </c>
       <c r="G52" s="171" t="s">
         <v>7</v>
@@ -11990,7 +11990,7 @@
       <c r="AL52" s="23"/>
       <c r="AM52" s="71"/>
     </row>
-    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="229"/>
       <c r="C53" s="240"/>
@@ -12031,7 +12031,7 @@
       <c r="AL53" s="240"/>
       <c r="AM53" s="241"/>
     </row>
-    <row r="54" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="239"/>
       <c r="B54" s="229"/>
       <c r="C54" s="240"/>
@@ -12073,7 +12073,7 @@
       <c r="AM54" s="241"/>
       <c r="AN54" s="243"/>
     </row>
-    <row r="55" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="203" t="s">
         <v>81</v>
@@ -12085,7 +12085,7 @@
         <v>Gate Charge at Mosfet Vgs= 6.5 Volts</v>
       </c>
       <c r="F55" s="259">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G55" s="100" t="s">
         <v>173</v>
@@ -12126,7 +12126,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="267"/>
       <c r="C56" s="270"/>
@@ -12174,7 +12174,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="267"/>
       <c r="C57" s="270"/>
@@ -12184,7 +12184,7 @@
       </c>
       <c r="F57" s="212">
         <f>F55*F56</f>
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G57" s="101" t="s">
         <v>173</v>
@@ -12222,7 +12222,7 @@
       <c r="AL57" s="23"/>
       <c r="AM57" s="71"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="267"/>
       <c r="C58" s="79"/>
@@ -12231,7 +12231,7 @@
         <v>204</v>
       </c>
       <c r="F58" s="175" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58" s="102"/>
       <c r="H58" s="23"/>
@@ -12267,7 +12267,7 @@
       <c r="AL58" s="23"/>
       <c r="AM58" s="71"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="267"/>
       <c r="C59" s="79"/>
@@ -12276,7 +12276,7 @@
         <v>197</v>
       </c>
       <c r="F59" s="173">
-        <v>220</v>
+        <v>2000</v>
       </c>
       <c r="G59" s="101" t="s">
         <v>192</v>
@@ -12314,7 +12314,7 @@
       <c r="AL59" s="23"/>
       <c r="AM59" s="71"/>
     </row>
-    <row r="60" spans="1:40" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:40" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A60" s="19"/>
       <c r="B60" s="267"/>
       <c r="C60" s="79"/>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="F60" s="208">
         <f>IGATEMAX/(DINRUSH/1000)*(COUTMAX/1000000)*1000000000</f>
-        <v>140.90909090909093</v>
+        <v>31</v>
       </c>
       <c r="G60" s="101" t="s">
         <v>26</v>
@@ -12362,7 +12362,7 @@
       <c r="AL60" s="23"/>
       <c r="AM60" s="71"/>
     </row>
-    <row r="61" spans="1:40" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A61" s="19"/>
       <c r="B61" s="267"/>
       <c r="C61" s="79"/>
@@ -12371,7 +12371,7 @@
         <v>196</v>
       </c>
       <c r="F61" s="209">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G61" s="101" t="s">
         <v>26</v>
@@ -12409,7 +12409,7 @@
       <c r="AL61" s="23"/>
       <c r="AM61" s="71"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="271"/>
       <c r="C62" s="79"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="F62" s="210">
         <f>IGATEMAX/(CONE/1000000000)*(COUTMAX/1000000)*1000</f>
-        <v>1000</v>
+        <v>1878.7878787878792</v>
       </c>
       <c r="G62" s="101" t="s">
         <v>192</v>
@@ -12457,7 +12457,7 @@
       <c r="AL62" s="23"/>
       <c r="AM62" s="71"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="276" t="s">
         <v>212</v>
@@ -12469,7 +12469,7 @@
       </c>
       <c r="F63" s="5">
         <f>IGATEMAX/(CONE/1000000)</f>
-        <v>1</v>
+        <v>0.93939393939393934</v>
       </c>
       <c r="G63" s="101" t="s">
         <v>162</v>
@@ -12507,7 +12507,7 @@
       <c r="AL63" s="23"/>
       <c r="AM63" s="71"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="194"/>
       <c r="C64" s="23"/>
@@ -12517,7 +12517,7 @@
       </c>
       <c r="F64" s="28">
         <f>IF(INRUSH="YES",(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMIN*1000+(CONE/1000000000)*(VINMAX+VGATEMAX)/IGATEMAX*1000,(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMIN*1000)</f>
-        <v>2.4705882352941178</v>
+        <v>37.608159392789368</v>
       </c>
       <c r="G64" s="101" t="s">
         <v>0</v>
@@ -12555,7 +12555,7 @@
       <c r="AL64" s="23"/>
       <c r="AM64" s="71"/>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="194"/>
       <c r="C65" s="23"/>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="F65" s="28">
         <f>IF(INRUSH="YES",(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATETYP*1000+(CONE/1000000000)*(VINNOM+VGATETYP)/IGATETYP*1000,(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATETYP*1000)</f>
-        <v>1.7499999999999998</v>
+        <v>40.499999999999993</v>
       </c>
       <c r="G65" s="101" t="s">
         <v>0</v>
@@ -12603,7 +12603,7 @@
       <c r="AL65" s="23"/>
       <c r="AM65" s="71"/>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="194"/>
       <c r="C66" s="23"/>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="F66" s="28">
         <f>IF(INRUSH="YES",(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMAX*1000+(CONE/1000000000)*(VINMIN+VGATEMIN)/IGATEMIN*1000,(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMAX*1000)</f>
-        <v>1.3548387096774193</v>
+        <v>24.748576850094874</v>
       </c>
       <c r="G66" s="101" t="s">
         <v>0</v>
@@ -12651,7 +12651,7 @@
       <c r="AL66" s="23"/>
       <c r="AM66" s="71"/>
     </row>
-    <row r="67" spans="1:40" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="66"/>
       <c r="C67" s="23"/>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="F67" s="215">
         <f>VDSFLTTMEMIN/1000*(ITMRLMAX)/VTMRHMIN*1000000000</f>
-        <v>8.647058823529413</v>
+        <v>131.62855787476278</v>
       </c>
       <c r="G67" s="101" t="s">
         <v>26</v>
@@ -12699,7 +12699,7 @@
       <c r="AL67" s="23"/>
       <c r="AM67" s="71"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="66"/>
       <c r="C68" s="23"/>
@@ -12708,7 +12708,7 @@
         <v>99</v>
       </c>
       <c r="F68" s="211">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="G68" s="101" t="s">
         <v>26</v>
@@ -12746,7 +12746,7 @@
       <c r="AL68" s="23"/>
       <c r="AM68" s="71"/>
     </row>
-    <row r="69" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" ht="13.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="69"/>
       <c r="C69" s="23"/>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="F69" s="216">
         <f>VTMRHMIN*CTMR/1000000/ITMRLMAX</f>
-        <v>28.571428571428573</v>
+        <v>6.2857142857142856</v>
       </c>
       <c r="G69" s="101" t="s">
         <v>0</v>
@@ -12794,7 +12794,7 @@
       <c r="AL69" s="23"/>
       <c r="AM69" s="71"/>
     </row>
-    <row r="70" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="66"/>
       <c r="C70" s="23"/>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="F70" s="216">
         <f>VTMRHTYP*CTMR/1000000/ITMRLTYP</f>
-        <v>33.333333333333336</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="G70" s="101" t="s">
         <v>0</v>
@@ -12842,7 +12842,7 @@
       <c r="AL70" s="23"/>
       <c r="AM70" s="71"/>
     </row>
-    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="66"/>
       <c r="C71" s="23"/>
@@ -12852,7 +12852,7 @@
       </c>
       <c r="F71" s="216">
         <f>VTMRHMAX*CTMR/1000000/ITMRLMIN</f>
-        <v>50.000000000000007</v>
+        <v>11</v>
       </c>
       <c r="G71" s="101" t="s">
         <v>0</v>
@@ -12890,7 +12890,7 @@
       <c r="AL71" s="23"/>
       <c r="AM71" s="71"/>
     </row>
-    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="66"/>
       <c r="C72" s="23"/>
@@ -12900,7 +12900,7 @@
       </c>
       <c r="F72" s="216">
         <f>VTMRHMIN*CTMR/1000000/ITMRHMAX</f>
-        <v>15.384615384615387</v>
+        <v>3.3846153846153846</v>
       </c>
       <c r="G72" s="101" t="s">
         <v>0</v>
@@ -12938,7 +12938,7 @@
       <c r="AL72" s="23"/>
       <c r="AM72" s="71"/>
     </row>
-    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="66"/>
       <c r="C73" s="23"/>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="F73" s="216">
         <f>VTMRHTYP*CTMR/1000000/ITMRHTYP</f>
-        <v>18.181818181818183</v>
+        <v>4</v>
       </c>
       <c r="G73" s="101" t="s">
         <v>0</v>
@@ -12986,7 +12986,7 @@
       <c r="AL73" s="23"/>
       <c r="AM73" s="71"/>
     </row>
-    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="66"/>
       <c r="C74" s="23"/>
@@ -12996,7 +12996,7 @@
       </c>
       <c r="F74" s="216">
         <f>VTMRHMAX*CTMR/1000000/ITMRHMIN</f>
-        <v>23.529411764705884</v>
+        <v>5.1764705882352944</v>
       </c>
       <c r="G74" s="101" t="s">
         <v>0</v>
@@ -13034,7 +13034,7 @@
       <c r="AL74" s="23"/>
       <c r="AM74" s="71"/>
     </row>
-    <row r="75" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="66"/>
       <c r="C75" s="23"/>
@@ -13075,7 +13075,7 @@
       <c r="AL75" s="23"/>
       <c r="AM75" s="71"/>
     </row>
-    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="91" t="s">
         <v>167</v>
@@ -13125,14 +13125,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="194"/>
       <c r="C77" s="192"/>
       <c r="D77" s="23"/>
       <c r="E77" s="59"/>
       <c r="F77" s="191" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G77" s="188"/>
       <c r="H77" s="23"/>
@@ -13171,7 +13171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
       <c r="B78" s="189"/>
       <c r="C78" s="79"/>
@@ -13220,7 +13220,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
       <c r="B79" s="189"/>
       <c r="C79" s="79"/>
@@ -13270,7 +13270,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="66"/>
       <c r="C80" s="23"/>
@@ -13318,7 +13318,7 @@
       <c r="AL80" s="23"/>
       <c r="AM80" s="71"/>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="66"/>
       <c r="C81" s="23"/>
@@ -13329,7 +13329,7 @@
       </c>
       <c r="F81" s="54">
         <f>IF(F76="Option A",IF(F77="No Hysteresis",RRTWO, RRTWOHYS),IF(F77="No Hysteresis",RRTEN, RRTENHYS))</f>
-        <v>25.874013044210347</v>
+        <v>22.545029872312721</v>
       </c>
       <c r="G81" s="105" t="s">
         <v>16</v>
@@ -13367,7 +13367,7 @@
       <c r="AL81" s="23"/>
       <c r="AM81" s="71"/>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="66"/>
       <c r="C82" s="23"/>
@@ -13414,7 +13414,7 @@
       <c r="AL82" s="23"/>
       <c r="AM82" s="71"/>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
       <c r="B83" s="276" t="s">
         <v>213</v>
@@ -13464,7 +13464,7 @@
       <c r="AL83" s="23"/>
       <c r="AM83" s="71"/>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
       <c r="B84" s="66"/>
       <c r="C84" s="23"/>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="F84" s="54">
         <f>IF(F76="Option A",IF(F77="No Hysteresis",RRTHREE,RRTHREEHYS),IF(F77="No Hysteresis",RREIGHT, RREIGHTHYS))</f>
-        <v>17.375659204367135</v>
+        <v>14.927426552762137</v>
       </c>
       <c r="G84" s="105" t="s">
         <v>16</v>
@@ -13513,7 +13513,7 @@
       <c r="AL84" s="23"/>
       <c r="AM84" s="71"/>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="66"/>
       <c r="C85" s="23"/>
@@ -13523,7 +13523,7 @@
         <v>Enter the Resistance for R3</v>
       </c>
       <c r="F85" s="114">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G85" s="105" t="s">
         <v>16</v>
@@ -13560,7 +13560,7 @@
       <c r="AL85" s="23"/>
       <c r="AM85" s="71"/>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="B86" s="194"/>
       <c r="C86" s="192"/>
       <c r="D86" s="192"/>
@@ -13602,7 +13602,7 @@
       <c r="AL86" s="192"/>
       <c r="AM86" s="200"/>
     </row>
-    <row r="87" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="19"/>
       <c r="B87" s="66"/>
       <c r="C87" s="72" t="s">
@@ -13651,7 +13651,7 @@
       <c r="AL87" s="23"/>
       <c r="AM87" s="71"/>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="66"/>
       <c r="C88" s="37" t="s">
@@ -13659,15 +13659,15 @@
       </c>
       <c r="D88" s="50">
         <f>IF($F$76="Option A",Equations!F23,Equations!J23)</f>
-        <v>26.348888888888887</v>
+        <v>23.977999999999998</v>
       </c>
       <c r="E88" s="51">
         <f>IF($F$76="Option A",Equations!F24,Equations!J24)</f>
-        <v>28.322222222222223</v>
+        <v>25.8</v>
       </c>
       <c r="F88" s="52">
         <f>IF($F$76="Option A",Equations!F25,Equations!J25)</f>
-        <v>30.295555555555559</v>
+        <v>27.622000000000003</v>
       </c>
       <c r="G88" s="104" t="s">
         <v>17</v>
@@ -13704,7 +13704,7 @@
       <c r="AL88" s="23"/>
       <c r="AM88" s="71"/>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19"/>
       <c r="B89" s="66"/>
       <c r="C89" s="37" t="s">
@@ -13712,15 +13712,15 @@
       </c>
       <c r="D89" s="53">
         <f>IF($F$76="Option A",Equations!F20,Equations!J20)</f>
-        <v>23.082222222222221</v>
+        <v>21.013999999999996</v>
       </c>
       <c r="E89" s="54">
         <f>IF($F$76="Option A",Equations!F21,Equations!J21)</f>
-        <v>25.055555555555561</v>
+        <v>22.836000000000002</v>
       </c>
       <c r="F89" s="55">
         <f>IF($F$76="Option A",Equations!F22,Equations!J22)</f>
-        <v>27.02888888888889</v>
+        <v>24.657999999999998</v>
       </c>
       <c r="G89" s="104" t="s">
         <v>17</v>
@@ -13758,7 +13758,7 @@
       <c r="AL89" s="23"/>
       <c r="AM89" s="71"/>
     </row>
-    <row r="90" spans="1:39" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="66"/>
       <c r="C90" s="37" t="s">
@@ -13812,7 +13812,7 @@
       <c r="AL90" s="23"/>
       <c r="AM90" s="71"/>
     </row>
-    <row r="91" spans="1:39" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="66"/>
       <c r="C91" s="37" t="s">
@@ -13866,7 +13866,7 @@
       <c r="AL91" s="23"/>
       <c r="AM91" s="71"/>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="66"/>
       <c r="C92" s="37" t="s">
@@ -13874,15 +13874,15 @@
       </c>
       <c r="D92" s="50">
         <f>IF($F$76="Option A",Equations!F29,Equations!J29)</f>
-        <v>8.6544444444444437</v>
+        <v>8.380212765957447</v>
       </c>
       <c r="E92" s="51">
         <f>IF($F$76="Option A",Equations!F30,Equations!J30)</f>
-        <v>9.81111111111111</v>
+        <v>9.5085106382978726</v>
       </c>
       <c r="F92" s="52">
         <f>IF($F$76="Option A",Equations!F31,Equations!J31)</f>
-        <v>10.967777777777778</v>
+        <v>10.636808510638296</v>
       </c>
       <c r="G92" s="104" t="s">
         <v>17</v>
@@ -13920,7 +13920,7 @@
       <c r="AL92" s="23"/>
       <c r="AM92" s="71"/>
     </row>
-    <row r="93" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
       <c r="B93" s="66"/>
       <c r="C93" s="37" t="s">
@@ -13928,15 +13928,15 @@
       </c>
       <c r="D93" s="195">
         <f>IF($F$76="Option A",Equations!F26,Equations!J26)</f>
-        <v>7.6322222222222225</v>
+        <v>7.4014893617021285</v>
       </c>
       <c r="E93" s="196">
         <f>IF($F$76="Option A",Equations!F27,Equations!J27)</f>
-        <v>9.0111111111111111</v>
+        <v>8.7425531914893622</v>
       </c>
       <c r="F93" s="197">
         <f>IF($F$76="Option A",Equations!F28,Equations!J28)</f>
-        <v>10.434444444444443</v>
+        <v>10.126170212765958</v>
       </c>
       <c r="G93" s="104" t="s">
         <v>17</v>
@@ -13974,16 +13974,16 @@
       <c r="AL93" s="23"/>
       <c r="AM93" s="71"/>
     </row>
-    <row r="94" spans="1:39" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="66"/>
-      <c r="C94" s="300" t="s">
+      <c r="C94" s="287" t="s">
         <v>49</v>
       </c>
-      <c r="D94" s="300"/>
-      <c r="E94" s="300"/>
-      <c r="F94" s="300"/>
-      <c r="G94" s="301"/>
+      <c r="D94" s="287"/>
+      <c r="E94" s="287"/>
+      <c r="F94" s="287"/>
+      <c r="G94" s="288"/>
       <c r="H94" s="79"/>
       <c r="I94" s="79"/>
       <c r="J94" s="23"/>
@@ -14017,14 +14017,14 @@
       <c r="AL94" s="23"/>
       <c r="AM94" s="71"/>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="66"/>
-      <c r="C95" s="300"/>
-      <c r="D95" s="300"/>
-      <c r="E95" s="300"/>
-      <c r="F95" s="300"/>
-      <c r="G95" s="301"/>
+      <c r="C95" s="287"/>
+      <c r="D95" s="287"/>
+      <c r="E95" s="287"/>
+      <c r="F95" s="287"/>
+      <c r="G95" s="288"/>
       <c r="H95" s="79"/>
       <c r="I95" s="79"/>
       <c r="J95" s="23"/>
@@ -14058,14 +14058,14 @@
       <c r="AL95" s="23"/>
       <c r="AM95" s="71"/>
     </row>
-    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="66"/>
-      <c r="C96" s="300"/>
-      <c r="D96" s="300"/>
-      <c r="E96" s="300"/>
-      <c r="F96" s="300"/>
-      <c r="G96" s="301"/>
+      <c r="C96" s="287"/>
+      <c r="D96" s="287"/>
+      <c r="E96" s="287"/>
+      <c r="F96" s="287"/>
+      <c r="G96" s="288"/>
       <c r="H96" s="79"/>
       <c r="I96" s="79"/>
       <c r="J96" s="23"/>
@@ -14099,7 +14099,7 @@
       <c r="AL96" s="23"/>
       <c r="AM96" s="71"/>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19"/>
       <c r="B97" s="66"/>
       <c r="C97" s="68"/>
@@ -14140,7 +14140,7 @@
       <c r="AL97" s="68"/>
       <c r="AM97" s="75"/>
     </row>
-    <row r="98" spans="1:39" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:39" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="19"/>
       <c r="B98" s="91" t="s">
         <v>39</v>
@@ -14190,7 +14190,7 @@
       <c r="AL98" s="64"/>
       <c r="AM98" s="84"/>
     </row>
-    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19"/>
       <c r="B99" s="66"/>
       <c r="C99" s="23"/>
@@ -14242,7 +14242,7 @@
       <c r="AL99" s="23"/>
       <c r="AM99" s="76"/>
     </row>
-    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="66"/>
       <c r="C100" s="23"/>
@@ -14252,7 +14252,7 @@
       </c>
       <c r="F100" s="45">
         <f>F85</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G100" s="202" t="s">
         <v>16</v>
@@ -14264,7 +14264,7 @@
       </c>
       <c r="K100" s="89">
         <f>OCTYP</f>
-        <v>17.454545454545457</v>
+        <v>10.105263157894736</v>
       </c>
       <c r="L100" s="163" t="str">
         <f>G51</f>
@@ -14298,7 +14298,7 @@
       <c r="AL100" s="23"/>
       <c r="AM100" s="76"/>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="66"/>
       <c r="C101" s="23"/>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="F101" s="48">
         <f>RS</f>
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="G101" s="202" t="s">
         <v>16</v>
@@ -14320,7 +14320,7 @@
       </c>
       <c r="K101" s="89">
         <f>F70</f>
-        <v>33.333333333333336</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="L101" s="163" t="str">
         <f>G70</f>
@@ -14354,7 +14354,7 @@
       <c r="AL101" s="23"/>
       <c r="AM101" s="76"/>
     </row>
-    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="66"/>
       <c r="C102" s="23"/>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="K102" s="89">
         <f>F73</f>
-        <v>18.181818181818183</v>
+        <v>4</v>
       </c>
       <c r="L102" s="163" t="str">
         <f>G73</f>
@@ -14410,7 +14410,7 @@
       <c r="AL102" s="23"/>
       <c r="AM102" s="76"/>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="66"/>
       <c r="C103" s="23"/>
@@ -14420,7 +14420,7 @@
       </c>
       <c r="F103" s="46">
         <f>F85</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G103" s="202" t="s">
         <v>16</v>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="K103" s="89">
         <f>E88</f>
-        <v>28.322222222222223</v>
+        <v>25.8</v>
       </c>
       <c r="L103" s="163" t="s">
         <v>17</v>
@@ -14465,7 +14465,7 @@
       <c r="AL103" s="23"/>
       <c r="AM103" s="76"/>
     </row>
-    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="66"/>
       <c r="C104" s="23"/>
@@ -14487,7 +14487,7 @@
       </c>
       <c r="K104" s="89">
         <f>E89</f>
-        <v>25.055555555555561</v>
+        <v>22.836000000000002</v>
       </c>
       <c r="L104" s="163" t="s">
         <v>17</v>
@@ -14520,7 +14520,7 @@
       <c r="AL104" s="23"/>
       <c r="AM104" s="76"/>
     </row>
-    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="66"/>
       <c r="C105" s="23"/>
@@ -14542,7 +14542,7 @@
       </c>
       <c r="K105" s="89">
         <f>E92</f>
-        <v>9.81111111111111</v>
+        <v>9.5085106382978726</v>
       </c>
       <c r="L105" s="163" t="s">
         <v>17</v>
@@ -14575,7 +14575,7 @@
       <c r="AL105" s="23"/>
       <c r="AM105" s="76"/>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19"/>
       <c r="B106" s="66"/>
       <c r="C106" s="23"/>
@@ -14585,7 +14585,7 @@
       </c>
       <c r="F106" s="49">
         <f>F85</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G106" s="202" t="s">
         <v>16</v>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="K106" s="217">
         <f>E93</f>
-        <v>9.0111111111111111</v>
+        <v>8.7425531914893622</v>
       </c>
       <c r="L106" s="166" t="s">
         <v>17</v>
@@ -14630,7 +14630,7 @@
       <c r="AL106" s="23"/>
       <c r="AM106" s="76"/>
     </row>
-    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19"/>
       <c r="B107" s="66"/>
       <c r="C107" s="23"/>
@@ -14640,7 +14640,7 @@
       </c>
       <c r="F107" s="48">
         <f>CTMR</f>
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="G107" s="101" t="s">
         <v>26</v>
@@ -14680,7 +14680,7 @@
       <c r="AL107" s="23"/>
       <c r="AM107" s="76"/>
     </row>
-    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="66"/>
       <c r="C108" s="23"/>
@@ -14727,7 +14727,7 @@
       <c r="AL108" s="23"/>
       <c r="AM108" s="76"/>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="66"/>
       <c r="C109" s="23"/>
@@ -14737,7 +14737,7 @@
       </c>
       <c r="F109" s="49">
         <f>CONE</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G109" s="101" t="s">
         <v>26</v>
@@ -14774,7 +14774,7 @@
       <c r="AL109" s="23"/>
       <c r="AM109" s="76"/>
     </row>
-    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="66"/>
       <c r="C110" s="23"/>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="F110" s="49">
         <f>COUTMAX</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G110" s="202" t="s">
         <v>15</v>
@@ -14822,7 +14822,7 @@
       <c r="AL110" s="23"/>
       <c r="AM110" s="76"/>
     </row>
-    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="66"/>
       <c r="C111" s="23"/>
@@ -14867,7 +14867,7 @@
       <c r="AL111" s="23"/>
       <c r="AM111" s="76"/>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="66"/>
       <c r="C112" s="23"/>
@@ -14877,7 +14877,7 @@
       </c>
       <c r="F112" s="82" t="str">
         <f>MOSFET</f>
-        <v>AOD66923</v>
+        <v>IRFR7440</v>
       </c>
       <c r="G112" s="202"/>
       <c r="H112" s="23"/>
@@ -14913,7 +14913,7 @@
       <c r="AL112" s="23"/>
       <c r="AM112" s="76"/>
     </row>
-    <row r="113" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="66"/>
       <c r="C113" s="23"/>
@@ -14954,7 +14954,7 @@
       <c r="AL113" s="23"/>
       <c r="AM113" s="76"/>
     </row>
-    <row r="114" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="66"/>
       <c r="C114" s="23"/>
@@ -14995,7 +14995,7 @@
       <c r="AL114" s="23"/>
       <c r="AM114" s="76"/>
     </row>
-    <row r="115" spans="1:41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="66"/>
       <c r="C115" s="23"/>
@@ -15040,7 +15040,7 @@
       <c r="AL115" s="23"/>
       <c r="AM115" s="76"/>
     </row>
-    <row r="116" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="66"/>
       <c r="C116" s="23"/>
@@ -15081,7 +15081,7 @@
       <c r="AL116" s="23"/>
       <c r="AM116" s="76"/>
     </row>
-    <row r="117" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:41" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A117" s="19"/>
       <c r="B117" s="154" t="s">
         <v>4</v>
@@ -15126,7 +15126,7 @@
       <c r="AL117" s="23"/>
       <c r="AM117" s="71"/>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
       <c r="B118" s="66"/>
       <c r="C118" s="35" t="s">
@@ -15169,7 +15169,7 @@
       <c r="AL118" s="23"/>
       <c r="AM118" s="71"/>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
       <c r="B119" s="66"/>
       <c r="C119" s="35" t="s">
@@ -15212,7 +15212,7 @@
       <c r="AL119" s="23"/>
       <c r="AM119" s="71"/>
     </row>
-    <row r="120" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:41" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="19"/>
       <c r="B120" s="67"/>
       <c r="C120" s="68"/>
@@ -15253,7 +15253,7 @@
       <c r="AL120" s="68"/>
       <c r="AM120" s="75"/>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
@@ -15291,7 +15291,7 @@
       <c r="AM121" s="23"/>
       <c r="AN121" s="225"/>
     </row>
-    <row r="122" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:41" ht="14" x14ac:dyDescent="0.3">
       <c r="A122" s="19"/>
       <c r="B122" s="43"/>
       <c r="C122" s="19"/>
@@ -15330,7 +15330,7 @@
       <c r="AN122" s="225"/>
       <c r="AO122" s="9"/>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -15369,7 +15369,7 @@
       <c r="AN123" s="225"/>
       <c r="AO123" s="9"/>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
@@ -15408,7 +15408,7 @@
       <c r="AN124" s="225"/>
       <c r="AO124" s="9"/>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -15447,7 +15447,7 @@
       <c r="AN125" s="225"/>
       <c r="AO125" s="9"/>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -15486,7 +15486,7 @@
       <c r="AN126" s="225"/>
       <c r="AO126" s="9"/>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
@@ -15525,7 +15525,7 @@
       <c r="AN127" s="225"/>
       <c r="AO127" s="9"/>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -15564,7 +15564,7 @@
       <c r="AN128" s="225"/>
       <c r="AO128" s="9"/>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
@@ -15603,7 +15603,7 @@
       <c r="AN129" s="225"/>
       <c r="AO129" s="9"/>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
@@ -15642,7 +15642,7 @@
       <c r="AN130" s="225"/>
       <c r="AO130" s="9"/>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -15680,7 +15680,7 @@
       <c r="AM131" s="23"/>
       <c r="AN131" s="225"/>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -15717,7 +15717,7 @@
       <c r="AM132" s="23"/>
       <c r="AN132" s="225"/>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A133" s="19"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -15754,7 +15754,7 @@
       <c r="AL133" s="19"/>
       <c r="AM133" s="19"/>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A134" s="19"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -15791,7 +15791,7 @@
       <c r="AL134" s="19"/>
       <c r="AM134" s="19"/>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A135" s="19"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -15828,7 +15828,7 @@
       <c r="AL135" s="19"/>
       <c r="AM135" s="19"/>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
@@ -15865,7 +15865,7 @@
       <c r="AL136" s="19"/>
       <c r="AM136" s="19"/>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
@@ -15902,7 +15902,7 @@
       <c r="AL137" s="19"/>
       <c r="AM137" s="19"/>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A138" s="19"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
@@ -15939,7 +15939,7 @@
       <c r="AL138" s="19"/>
       <c r="AM138" s="19"/>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A139" s="19"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
@@ -15976,7 +15976,7 @@
       <c r="AL139" s="19"/>
       <c r="AM139" s="19"/>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
@@ -16013,7 +16013,7 @@
       <c r="AL140" s="19"/>
       <c r="AM140" s="19"/>
     </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A141" s="19"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
@@ -16050,7 +16050,7 @@
       <c r="AL141" s="19"/>
       <c r="AM141" s="19"/>
     </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A142" s="19"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -16090,7 +16090,7 @@
       <c r="AL142" s="19"/>
       <c r="AM142" s="19"/>
     </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A143" s="19"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -16130,7 +16130,7 @@
       <c r="AL143" s="19"/>
       <c r="AM143" s="19"/>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
@@ -16170,7 +16170,7 @@
       <c r="AL144" s="19"/>
       <c r="AM144" s="19"/>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A145" s="19"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -16210,7 +16210,7 @@
       <c r="AL145" s="19"/>
       <c r="AM145" s="19"/>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A146" s="19"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -16251,7 +16251,7 @@
       <c r="AL146" s="19"/>
       <c r="AM146" s="19"/>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A147" s="19"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -16292,7 +16292,7 @@
       <c r="AL147" s="19"/>
       <c r="AM147" s="19"/>
     </row>
-    <row r="148" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:39" ht="14" x14ac:dyDescent="0.3">
       <c r="A148" s="19"/>
       <c r="B148" s="44"/>
       <c r="C148" s="19"/>
@@ -16333,7 +16333,7 @@
       <c r="AL148" s="19"/>
       <c r="AM148" s="19"/>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A149" s="19"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -16374,7 +16374,7 @@
       <c r="AL149" s="19"/>
       <c r="AM149" s="19"/>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A150" s="19"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -16415,7 +16415,7 @@
       <c r="AL150" s="19"/>
       <c r="AM150" s="19"/>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A151" s="19"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -16456,7 +16456,7 @@
       <c r="AL151" s="19"/>
       <c r="AM151" s="19"/>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A152" s="19"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
@@ -16497,7 +16497,7 @@
       <c r="AL152" s="19"/>
       <c r="AM152" s="19"/>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A153" s="19"/>
       <c r="B153" s="19"/>
       <c r="D153" s="19"/>
@@ -16537,7 +16537,7 @@
       <c r="AL153" s="19"/>
       <c r="AM153" s="19"/>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A154" s="19"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
@@ -16578,7 +16578,7 @@
       <c r="AL154" s="19"/>
       <c r="AM154" s="19"/>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A155" s="19"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
@@ -16619,7 +16619,7 @@
       <c r="AL155" s="19"/>
       <c r="AM155" s="19"/>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A156" s="19"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
@@ -16660,7 +16660,7 @@
       <c r="AL156" s="19"/>
       <c r="AM156" s="19"/>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A157" s="19"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
@@ -16701,7 +16701,7 @@
       <c r="AL157" s="19"/>
       <c r="AM157" s="19"/>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A158" s="19"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
@@ -16742,7 +16742,7 @@
       <c r="AL158" s="19"/>
       <c r="AM158" s="19"/>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A159" s="19"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -16783,7 +16783,7 @@
       <c r="AL159" s="19"/>
       <c r="AM159" s="19"/>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A160" s="19"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
@@ -16824,7 +16824,7 @@
       <c r="AL160" s="19"/>
       <c r="AM160" s="19"/>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A161" s="19"/>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
@@ -16865,7 +16865,7 @@
       <c r="AL161" s="19"/>
       <c r="AM161" s="19"/>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A162" s="19"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
@@ -16906,7 +16906,7 @@
       <c r="AL162" s="19"/>
       <c r="AM162" s="19"/>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A163" s="19"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
@@ -16947,7 +16947,7 @@
       <c r="AL163" s="19"/>
       <c r="AM163" s="19"/>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
@@ -16988,7 +16988,7 @@
       <c r="AL164" s="19"/>
       <c r="AM164" s="19"/>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A165" s="19"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
@@ -17029,7 +17029,7 @@
       <c r="AL165" s="19"/>
       <c r="AM165" s="19"/>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A166" s="19"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
@@ -17070,7 +17070,7 @@
       <c r="AL166" s="19"/>
       <c r="AM166" s="19"/>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A167" s="19"/>
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
@@ -17111,7 +17111,7 @@
       <c r="AL167" s="19"/>
       <c r="AM167" s="19"/>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A168" s="19"/>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
@@ -17152,7 +17152,7 @@
       <c r="AL168" s="19"/>
       <c r="AM168" s="19"/>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A169" s="19"/>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
@@ -17193,7 +17193,7 @@
       <c r="AL169" s="19"/>
       <c r="AM169" s="19"/>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A170" s="19"/>
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
@@ -17234,7 +17234,7 @@
       <c r="AL170" s="19"/>
       <c r="AM170" s="19"/>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A171" s="19"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
@@ -17275,7 +17275,7 @@
       <c r="AL171" s="19"/>
       <c r="AM171" s="19"/>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A172" s="19"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -17316,7 +17316,7 @@
       <c r="AL172" s="19"/>
       <c r="AM172" s="19"/>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A173" s="19"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
@@ -17357,7 +17357,7 @@
       <c r="AL173" s="19"/>
       <c r="AM173" s="19"/>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A174" s="19"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -17398,7 +17398,7 @@
       <c r="AL174" s="19"/>
       <c r="AM174" s="19"/>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A175" s="19"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
@@ -17439,7 +17439,7 @@
       <c r="AL175" s="19"/>
       <c r="AM175" s="19"/>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A176" s="19"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
@@ -17480,7 +17480,7 @@
       <c r="AL176" s="19"/>
       <c r="AM176" s="19"/>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A177" s="19"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
@@ -17521,7 +17521,7 @@
       <c r="AL177" s="19"/>
       <c r="AM177" s="19"/>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A178" s="19"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
@@ -17562,7 +17562,7 @@
       <c r="AL178" s="19"/>
       <c r="AM178" s="19"/>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A179" s="19"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -17603,7 +17603,7 @@
       <c r="AL179" s="19"/>
       <c r="AM179" s="19"/>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A180" s="19"/>
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
@@ -17644,7 +17644,7 @@
       <c r="AL180" s="19"/>
       <c r="AM180" s="19"/>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A181" s="19"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
@@ -17685,7 +17685,7 @@
       <c r="AL181" s="19"/>
       <c r="AM181" s="19"/>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A182" s="19"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
@@ -17726,7 +17726,7 @@
       <c r="AL182" s="19"/>
       <c r="AM182" s="19"/>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A183" s="19"/>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
@@ -17767,7 +17767,7 @@
       <c r="AL183" s="19"/>
       <c r="AM183" s="19"/>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A184" s="19"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
@@ -17808,7 +17808,7 @@
       <c r="AL184" s="19"/>
       <c r="AM184" s="19"/>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A185" s="19"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
@@ -17849,7 +17849,7 @@
       <c r="AL185" s="19"/>
       <c r="AM185" s="19"/>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A186" s="19"/>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
@@ -17890,7 +17890,7 @@
       <c r="AL186" s="19"/>
       <c r="AM186" s="19"/>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A187" s="19"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -17931,7 +17931,7 @@
       <c r="AL187" s="19"/>
       <c r="AM187" s="19"/>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A188" s="19"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -17972,7 +17972,7 @@
       <c r="AL188" s="19"/>
       <c r="AM188" s="19"/>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A189" s="19"/>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
@@ -18009,7 +18009,7 @@
       <c r="AL189" s="19"/>
       <c r="AM189" s="19"/>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A190" s="19"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
@@ -18046,7 +18046,7 @@
       <c r="AL190" s="19"/>
       <c r="AM190" s="19"/>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A191" s="19"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -18083,7 +18083,7 @@
       <c r="AL191" s="19"/>
       <c r="AM191" s="19"/>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A192" s="19"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
@@ -18123,13 +18123,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="C94:G96"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D23:F23"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="B44:B46"/>
@@ -18138,6 +18131,13 @@
     <mergeCell ref="D14:G15"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D24:F25"/>
+    <mergeCell ref="C94:G96"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D23:F23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G83">
@@ -18382,16 +18382,16 @@
       <selection activeCell="D32" activeCellId="1" sqref="F36 D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1"/>
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="155"/>
       <c r="D2" s="33" t="s">
@@ -18407,7 +18407,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
@@ -18416,7 +18416,7 @@
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="33" t="s">
@@ -18430,7 +18430,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="34" t="s">
         <v>33</v>
       </c>
@@ -18446,12 +18446,12 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>110</v>
       </c>
@@ -18460,7 +18460,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="155" t="s">
         <v>111</v>
       </c>
@@ -18480,7 +18480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="155" t="s">
         <v>113</v>
       </c>
@@ -18496,7 +18496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="155" t="s">
         <v>117</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="155" t="s">
         <v>115</v>
       </c>
@@ -18530,12 +18530,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="167"/>
       <c r="E12" s="167"/>
       <c r="F12" s="167"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>100</v>
       </c>
@@ -18544,7 +18544,7 @@
       <c r="E13" s="167"/>
       <c r="F13" s="167"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="155" t="s">
         <v>119</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="155" t="s">
         <v>120</v>
       </c>
@@ -18584,7 +18584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="155" t="s">
         <v>121</v>
       </c>
@@ -18604,13 +18604,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>37</v>
       </c>
@@ -18620,7 +18620,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="155" t="s">
         <v>126</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="155" t="s">
         <v>127</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="155" t="s">
         <v>128</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="155" t="s">
         <v>129</v>
       </c>
@@ -18692,7 +18692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="155" t="s">
         <v>130</v>
       </c>
@@ -18709,20 +18709,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="155" t="s">
         <v>131</v>
       </c>
@@ -18742,7 +18742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="155" t="s">
         <v>132</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="155" t="s">
         <v>133</v>
       </c>
@@ -18773,7 +18773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="155" t="s">
         <v>134</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="155" t="s">
         <v>135</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="155" t="s">
         <v>136</v>
       </c>
@@ -18827,16 +18827,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="34"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="27"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="27"/>
       <c r="B34" s="155" t="s">
         <v>137</v>
@@ -18857,7 +18857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="27"/>
       <c r="B35" s="155" t="s">
         <v>138</v>
@@ -18878,7 +18878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="27"/>
       <c r="B36" s="155" t="s">
         <v>139</v>
@@ -18899,7 +18899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G40" s="33"/>
       <c r="I40" s="33"/>
     </row>
@@ -18918,40 +18918,40 @@
       <selection activeCell="D32" activeCellId="1" sqref="F36 D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="155"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="155"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="155"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" s="177" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="D13" s="90"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="121" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="155" t="s">
         <v>161</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="62" t="s">
         <v>107</v>
       </c>
@@ -19003,10 +19003,10 @@
       </c>
       <c r="J16">
         <f>'Design Calculator'!F85</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C17" s="121" t="s">
         <v>108</v>
       </c>
@@ -19038,7 +19038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" s="121" t="s">
         <v>109</v>
       </c>
@@ -19052,7 +19052,7 @@
       </c>
       <c r="F18" s="4">
         <f>'Design Calculator'!F85</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G18" s="155" t="s">
         <v>124</v>
@@ -19070,7 +19070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="C19" s="121"/>
       <c r="G19" s="155" t="s">
@@ -19089,7 +19089,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="131"/>
@@ -19098,14 +19098,14 @@
       </c>
       <c r="F20">
         <f>RONE*((OVPTHMIN-OVPHYSTYP)/RTHREE+UVLOBIASMIN*1000)+RTWO*(OVPTHMIN-OVPHYSTYP)/RTHREE+(OVPTHMIN-OVPHYSTYP)</f>
-        <v>23.082222222222221</v>
+        <v>21.013999999999996</v>
       </c>
       <c r="J20">
         <f>(OVPTHMIN)+(REIGHT*(OVPTHMIN-OVPHYSTYP)/RNINE)</f>
-        <v>3.8479999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4.0666666666666664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="9"/>
       <c r="D21" s="132"/>
@@ -19114,14 +19114,14 @@
       </c>
       <c r="F21">
         <f>RONE*((OVPTHTYP-OVPHYSTYP)/RTHREE+UVLOBIASTYP*1000)+RTWO*(OVPTHTYP-OVPHYSTYP)/RTHREE+(OVPTHTYP-OVPHYSTYP)</f>
-        <v>25.055555555555561</v>
+        <v>22.836000000000002</v>
       </c>
       <c r="J21">
         <f>(OVPTHTYP-OVPHYSTYP)+(REIGHT*(OVPTHTYP-OVPHYSTYP)/RNINE)</f>
-        <v>3.8719999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4.1066666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="133"/>
@@ -19130,63 +19130,63 @@
       </c>
       <c r="F22">
         <f>RONE*((OVPTHMAX-OVPHYSTYP)/RTHREE+UVLOBIASMAX*1000)+RTWO*(OVPTHMAX-OVPHYSTYP)/RTHREE+(OVPTHMAX-OVPHYSTYP)</f>
-        <v>27.02888888888889</v>
+        <v>24.657999999999998</v>
       </c>
       <c r="J22">
         <f>(OVPTHMAX-OVPHYSTYP)+(REIGHT*(OVPTHMAX-OVPHYSTYP)/RNINE)</f>
-        <v>4.1360000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4.3866666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D23" s="90"/>
       <c r="E23" s="182" t="s">
         <v>146</v>
       </c>
       <c r="F23">
         <f>RONE*((OVPTHMIN)/RTHREE+UVLOBIASMIN*1000)+RTWO*(OVPTHMIN)/RTHREE+(OVPTHMIN)</f>
-        <v>26.348888888888887</v>
+        <v>23.977999999999998</v>
       </c>
       <c r="J23">
         <f>(OVPTHMIN)+(REIGHT*(OVPTHMIN)/RNINE)</f>
-        <v>4.1359999999999992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4.3866666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D24" s="90"/>
       <c r="E24" s="183" t="s">
         <v>147</v>
       </c>
       <c r="F24">
         <f>RONE*((OVPTHTYP)/RTHREE+UVLOBIASTYP*1000)+RTWO*(OVPTHTYP)/RTHREE+(OVPTHTYP)</f>
-        <v>28.322222222222223</v>
+        <v>25.8</v>
       </c>
       <c r="J24">
         <f>(OVPTHTYP)+(REIGHT*(OVPTHTYP)/RNINE)</f>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4.6666666666666661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D25" s="90"/>
       <c r="E25" s="184" t="s">
         <v>154</v>
       </c>
       <c r="F25">
         <f>RONE*((OVPTHMAX)/RTHREE+UVLOBIASMAX*1000)+RTWO*(OVPTHMAX)/RTHREE+(OVPTHMAX)</f>
-        <v>30.295555555555559</v>
+        <v>27.622000000000003</v>
       </c>
       <c r="J25">
         <f>(OVPTHMAX)+(REIGHT*(OVPTHMAX)/RNINE)</f>
-        <v>4.6639999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4.9466666666666672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="E26" s="110" t="s">
         <v>148</v>
       </c>
       <c r="F26">
         <f>((UVLOTHMIN-UVLOHYSMAX)/(RTWO+RTHREE)+UVLOBIASMIN*1000)*RONE+UVLOTHMIN</f>
-        <v>7.6322222222222225</v>
+        <v>7.4014893617021285</v>
       </c>
       <c r="J26" s="155">
         <f>(UVLOTHMIN-UVLOHYSMAX)+(RTEN*(UVLOBIASMIN*1000+(UVLOTHMIN-UVLOHYSMAX)/RELEVEN))</f>
@@ -19194,14 +19194,14 @@
       </c>
       <c r="K26" s="155"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="E27" s="110" t="s">
         <v>149</v>
       </c>
       <c r="F27" s="4">
         <f>((UVLOTHTYP-UVLOHYSTYP)/(RTWO+RTHREE)+UVLOBIASTYP*1000)*RONE+UVLOTHTYP</f>
-        <v>9.0111111111111111</v>
+        <v>8.7425531914893622</v>
       </c>
       <c r="G27" s="4"/>
       <c r="I27" s="4"/>
@@ -19210,28 +19210,28 @@
         <v>1.7602000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
       <c r="E28" s="110" t="s">
         <v>150</v>
       </c>
       <c r="F28">
         <f>((UVLOTHMAX-UVLOHYSMIN)/(RTWO+RTHREE)+UVLOBIASMAX*1000)*RONE+UVLOTHMAX</f>
-        <v>10.434444444444443</v>
+        <v>10.126170212765958</v>
       </c>
       <c r="J28">
         <f>(UVLOTHMAX-UVLOHYSMIN)+(RTEN*(UVLOBIASMAX*1000+(UVLOTHMAX-UVLOHYSMIN)/RELEVEN))</f>
         <v>2.0444499999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="E29" s="110" t="s">
         <v>151</v>
       </c>
       <c r="F29">
         <f>((UVLOTHMIN)/(RTWO+RTHREE)+UVLOBIASMIN*1000)*RONE+UVLOTHMIN</f>
-        <v>8.6544444444444437</v>
+        <v>8.380212765957447</v>
       </c>
       <c r="J29" s="155">
         <f>(UVLOTHMIN)+(RTEN*(UVLOBIASMIN*1000+(UVLOTHMIN-UVLOHYSMAX)/RELEVEN))</f>
@@ -19239,14 +19239,14 @@
       </c>
       <c r="K29" s="155"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="E30" s="110" t="s">
         <v>152</v>
       </c>
       <c r="F30" s="4">
         <f>((UVLOTHTYP)/(RTWO+RTHREE)+UVLOBIASTYP*1000)*RONE+UVLOTHTYP</f>
-        <v>9.81111111111111</v>
+        <v>9.5085106382978726</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30" s="4"/>
@@ -19255,36 +19255,36 @@
         <v>1.9645000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="E31" s="110" t="s">
         <v>153</v>
       </c>
       <c r="F31">
         <f>((UVLOTHMAX)/(RTWO+RTHREE)+UVLOBIASMAX*1000)*RONE+UVLOTHMAX</f>
-        <v>10.967777777777778</v>
+        <v>10.636808510638296</v>
       </c>
       <c r="J31">
         <f>(UVLOTHMAX)+(RTEN*(UVLOBIASMAX*1000+(UVLOTHMAX)/RELEVEN))</f>
         <v>2.18065</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
       <c r="I33" s="90"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
       <c r="I34" s="90"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="33"/>
       <c r="I35" s="90"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="33"/>
       <c r="D36" s="90"/>
       <c r="E36" s="62"/>
@@ -19293,7 +19293,7 @@
       <c r="H36" s="61"/>
       <c r="I36" s="90"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
       <c r="D37" s="90"/>
       <c r="E37" s="62"/>
@@ -19302,7 +19302,7 @@
       <c r="H37" s="61"/>
       <c r="I37" s="90"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
       <c r="D38" s="90"/>
       <c r="E38" s="62"/>
@@ -19311,7 +19311,7 @@
       <c r="H38" s="61"/>
       <c r="I38" s="90"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="D39" s="90"/>
       <c r="E39" s="62"/>
@@ -19320,7 +19320,7 @@
       <c r="H39" s="61"/>
       <c r="I39" s="90"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D40" s="90"/>
       <c r="E40" s="121"/>
       <c r="F40" s="122"/>
@@ -19328,7 +19328,7 @@
       <c r="H40" s="90"/>
       <c r="I40" s="90"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D41" s="90"/>
       <c r="E41" s="121"/>
       <c r="F41" s="122"/>
@@ -19336,7 +19336,7 @@
       <c r="H41" s="90"/>
       <c r="I41" s="90"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D42" s="90"/>
       <c r="E42" s="121"/>
       <c r="F42" s="122"/>
@@ -19344,7 +19344,7 @@
       <c r="H42" s="90"/>
       <c r="I42" s="90"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D43" s="90"/>
       <c r="E43" s="121"/>
       <c r="F43" s="123"/>
@@ -19356,7 +19356,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D44" s="90"/>
       <c r="E44" s="121"/>
       <c r="F44" s="123"/>
@@ -19368,7 +19368,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="27"/>
       <c r="D45" s="90"/>
       <c r="E45" s="90"/>
@@ -19377,7 +19377,7 @@
       <c r="H45" s="90"/>
       <c r="I45" s="90"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
       <c r="D46" s="307"/>
       <c r="E46" s="308"/>
@@ -19386,7 +19386,7 @@
       <c r="H46" s="308"/>
       <c r="I46" s="90"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="27"/>
       <c r="D47" s="90"/>
       <c r="E47" s="62"/>
@@ -19395,7 +19395,7 @@
       <c r="H47" s="124"/>
       <c r="I47" s="90"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="27"/>
       <c r="D48" s="90"/>
       <c r="E48" s="62"/>
@@ -19404,7 +19404,7 @@
       <c r="H48" s="90"/>
       <c r="I48" s="90"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A49" s="27"/>
       <c r="D49" s="90"/>
       <c r="E49" s="62"/>
@@ -19413,7 +19413,7 @@
       <c r="H49" s="124"/>
       <c r="I49" s="90"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="27"/>
       <c r="D50" s="90"/>
       <c r="E50" s="62"/>
@@ -19422,7 +19422,7 @@
       <c r="H50" s="124"/>
       <c r="I50" s="90"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="27"/>
       <c r="D51" s="90"/>
       <c r="E51" s="62"/>
@@ -19431,7 +19431,7 @@
       <c r="H51" s="124"/>
       <c r="I51" s="90"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="27"/>
       <c r="D52" s="90"/>
       <c r="E52" s="62"/>
@@ -19440,7 +19440,7 @@
       <c r="H52" s="124"/>
       <c r="I52" s="90"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="27"/>
       <c r="D53" s="90"/>
       <c r="E53" s="62"/>
@@ -19449,7 +19449,7 @@
       <c r="H53" s="124"/>
       <c r="I53" s="90"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A54" s="27"/>
       <c r="D54" s="307"/>
       <c r="E54" s="308"/>
@@ -19458,7 +19458,7 @@
       <c r="H54" s="308"/>
       <c r="I54" s="90"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="C55" s="33"/>
       <c r="D55" s="125"/>
@@ -19468,7 +19468,7 @@
       <c r="H55" s="126"/>
       <c r="I55" s="90"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
       <c r="C56" s="33"/>
       <c r="D56" s="125"/>
@@ -19478,7 +19478,7 @@
       <c r="H56" s="124"/>
       <c r="I56" s="90"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="C57" s="33"/>
       <c r="D57" s="125"/>
@@ -19488,7 +19488,7 @@
       <c r="H57" s="124"/>
       <c r="I57" s="90"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A58" s="27"/>
       <c r="C58" s="33"/>
       <c r="D58" s="125"/>
@@ -19498,7 +19498,7 @@
       <c r="H58" s="124"/>
       <c r="I58" s="90"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="C59" s="33"/>
       <c r="D59" s="125"/>
@@ -19508,7 +19508,7 @@
       <c r="H59" s="126"/>
       <c r="I59" s="90"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A60" s="27"/>
       <c r="C60" s="33"/>
       <c r="D60" s="125"/>
@@ -19518,7 +19518,7 @@
       <c r="H60" s="126"/>
       <c r="I60" s="90"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="27"/>
       <c r="C61" s="33"/>
       <c r="D61" s="125"/>
@@ -19528,7 +19528,7 @@
       <c r="H61" s="126"/>
       <c r="I61" s="90"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="27"/>
       <c r="C62" s="33"/>
       <c r="D62" s="125"/>
@@ -19538,7 +19538,7 @@
       <c r="H62" s="126"/>
       <c r="I62" s="90"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="27"/>
       <c r="D63" s="127"/>
       <c r="E63" s="62"/>
@@ -19547,7 +19547,7 @@
       <c r="H63" s="126"/>
       <c r="I63" s="90"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="27"/>
       <c r="D64" s="90"/>
       <c r="E64" s="62"/>
@@ -19556,7 +19556,7 @@
       <c r="H64" s="126"/>
       <c r="I64" s="90"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="27"/>
       <c r="D65" s="90"/>
       <c r="E65" s="62"/>
@@ -19565,7 +19565,7 @@
       <c r="H65" s="124"/>
       <c r="I65" s="90"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="27"/>
       <c r="D66" s="90"/>
       <c r="E66" s="62"/>
@@ -19574,7 +19574,7 @@
       <c r="H66" s="124"/>
       <c r="I66" s="90"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A67" s="27"/>
       <c r="D67" s="90"/>
       <c r="E67" s="62"/>
@@ -19583,7 +19583,7 @@
       <c r="H67" s="126"/>
       <c r="I67" s="90"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A68" s="27"/>
       <c r="D68" s="309"/>
       <c r="E68" s="309"/>
@@ -19592,7 +19592,7 @@
       <c r="H68" s="309"/>
       <c r="I68" s="309"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A69" s="27"/>
       <c r="D69" s="90"/>
       <c r="E69" s="62"/>
@@ -19601,7 +19601,7 @@
       <c r="H69" s="124"/>
       <c r="I69" s="90"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A70" s="27"/>
       <c r="D70" s="90"/>
       <c r="E70" s="62"/>
@@ -19610,7 +19610,7 @@
       <c r="H70" s="124"/>
       <c r="I70" s="90"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="27"/>
       <c r="D71" s="90"/>
       <c r="E71" s="110"/>
@@ -19619,7 +19619,7 @@
       <c r="H71" s="124"/>
       <c r="I71" s="90"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A72" s="27"/>
       <c r="D72" s="90"/>
       <c r="E72" s="62"/>
@@ -19628,7 +19628,7 @@
       <c r="H72" s="124"/>
       <c r="I72" s="90"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
       <c r="D73" s="90"/>
       <c r="E73" s="110"/>
@@ -19637,7 +19637,7 @@
       <c r="H73" s="124"/>
       <c r="I73" s="90"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A74" s="27"/>
       <c r="D74" s="90"/>
       <c r="E74" s="62"/>
@@ -19646,7 +19646,7 @@
       <c r="H74" s="124"/>
       <c r="I74" s="90"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A75" s="27"/>
       <c r="D75" s="90"/>
       <c r="E75" s="62"/>
@@ -19655,7 +19655,7 @@
       <c r="H75" s="124"/>
       <c r="I75" s="90"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A76" s="27"/>
       <c r="D76" s="90"/>
       <c r="E76" s="62"/>
@@ -19664,7 +19664,7 @@
       <c r="H76" s="124"/>
       <c r="I76" s="90"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A77" s="27"/>
       <c r="D77" s="90"/>
       <c r="E77" s="62"/>
@@ -19673,7 +19673,7 @@
       <c r="H77" s="124"/>
       <c r="I77" s="90"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A78" s="27"/>
       <c r="D78" s="90"/>
       <c r="E78" s="62"/>
@@ -19682,7 +19682,7 @@
       <c r="H78" s="124"/>
       <c r="I78" s="90"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
       <c r="D79" s="90"/>
       <c r="E79" s="62"/>
@@ -19691,7 +19691,7 @@
       <c r="H79" s="124"/>
       <c r="I79" s="90"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
       <c r="D80" s="90"/>
       <c r="E80" s="62"/>
@@ -19700,7 +19700,7 @@
       <c r="H80" s="124"/>
       <c r="I80" s="90"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A81" s="27"/>
       <c r="D81" s="90"/>
       <c r="E81" s="62"/>
@@ -19709,7 +19709,7 @@
       <c r="H81" s="124"/>
       <c r="I81" s="90"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A82" s="27"/>
       <c r="D82" s="90"/>
       <c r="E82" s="62"/>
@@ -19718,7 +19718,7 @@
       <c r="H82" s="124"/>
       <c r="I82" s="90"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A83" s="27"/>
       <c r="D83" s="90"/>
       <c r="E83" s="90"/>
@@ -19727,7 +19727,7 @@
       <c r="H83" s="90"/>
       <c r="I83" s="90"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="33"/>
       <c r="D84" s="90"/>
       <c r="E84" s="62"/>
@@ -19736,7 +19736,7 @@
       <c r="H84" s="90"/>
       <c r="I84" s="90"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="33"/>
       <c r="D85" s="90"/>
       <c r="E85" s="62"/>
@@ -19745,7 +19745,7 @@
       <c r="H85" s="90"/>
       <c r="I85" s="90"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D86" s="124"/>
       <c r="E86" s="62"/>
       <c r="F86" s="124"/>
@@ -19753,7 +19753,7 @@
       <c r="H86" s="90"/>
       <c r="I86" s="90"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D87" s="124"/>
       <c r="E87" s="62"/>
       <c r="F87" s="124"/>
@@ -19761,7 +19761,7 @@
       <c r="H87" s="90"/>
       <c r="I87" s="90"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D88" s="124"/>
       <c r="E88" s="62"/>
       <c r="F88" s="124"/>
@@ -19769,7 +19769,7 @@
       <c r="H88" s="90"/>
       <c r="I88" s="90"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D89" s="90"/>
       <c r="E89" s="62"/>
       <c r="F89" s="124"/>
@@ -19779,7 +19779,7 @@
       <c r="L89" s="6"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D90" s="90"/>
       <c r="E90" s="62"/>
       <c r="F90" s="124"/>
@@ -19789,7 +19789,7 @@
       <c r="L90" s="6"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D91" s="90"/>
       <c r="E91" s="121"/>
       <c r="F91" s="124"/>
@@ -19799,7 +19799,7 @@
       <c r="L91" s="7"/>
       <c r="O91" s="7"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D92" s="90"/>
       <c r="E92" s="62"/>
       <c r="F92" s="124"/>
@@ -19809,7 +19809,7 @@
       <c r="L92" s="7"/>
       <c r="O92" s="7"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D93" s="90"/>
       <c r="E93" s="121"/>
       <c r="F93" s="124"/>
@@ -19817,7 +19817,7 @@
       <c r="H93" s="90"/>
       <c r="I93" s="90"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D94" s="90"/>
       <c r="E94" s="121"/>
       <c r="F94" s="124"/>
@@ -19825,7 +19825,7 @@
       <c r="H94" s="90"/>
       <c r="I94" s="90"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D95" s="90"/>
       <c r="E95" s="62"/>
       <c r="F95" s="124"/>
@@ -19833,7 +19833,7 @@
       <c r="H95" s="124"/>
       <c r="I95" s="90"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D96" s="90"/>
       <c r="E96" s="62"/>
       <c r="F96" s="124"/>
@@ -19841,7 +19841,7 @@
       <c r="H96" s="124"/>
       <c r="I96" s="90"/>
     </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D97" s="90"/>
       <c r="E97" s="62"/>
       <c r="F97" s="124"/>
@@ -19849,7 +19849,7 @@
       <c r="H97" s="124"/>
       <c r="I97" s="90"/>
     </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D98" s="90"/>
       <c r="E98" s="62"/>
       <c r="F98" s="90"/>
@@ -19857,7 +19857,7 @@
       <c r="H98" s="124"/>
       <c r="I98" s="90"/>
     </row>
-    <row r="99" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D99" s="90"/>
       <c r="E99" s="62"/>
       <c r="F99" s="90"/>
@@ -19865,7 +19865,7 @@
       <c r="H99" s="124"/>
       <c r="I99" s="90"/>
     </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D100" s="90"/>
       <c r="E100" s="62"/>
       <c r="F100" s="122"/>
@@ -19873,7 +19873,7 @@
       <c r="H100" s="124"/>
       <c r="I100" s="90"/>
     </row>
-    <row r="101" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D101" s="90"/>
       <c r="E101" s="62"/>
       <c r="F101" s="122"/>
@@ -19881,7 +19881,7 @@
       <c r="H101" s="124"/>
       <c r="I101" s="90"/>
     </row>
-    <row r="102" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D102" s="90"/>
       <c r="E102" s="62"/>
       <c r="F102" s="122"/>
@@ -19889,7 +19889,7 @@
       <c r="H102" s="124"/>
       <c r="I102" s="90"/>
     </row>
-    <row r="103" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D103" s="90"/>
       <c r="E103" s="62"/>
       <c r="F103" s="90"/>
@@ -19897,7 +19897,7 @@
       <c r="H103" s="124"/>
       <c r="I103" s="90"/>
     </row>
-    <row r="104" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D104" s="90"/>
       <c r="E104" s="62"/>
       <c r="F104" s="90"/>
@@ -19905,7 +19905,7 @@
       <c r="H104" s="124"/>
       <c r="I104" s="90"/>
     </row>
-    <row r="105" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D105" s="90"/>
       <c r="E105" s="62"/>
       <c r="F105" s="90"/>
@@ -19913,7 +19913,7 @@
       <c r="H105" s="124"/>
       <c r="I105" s="90"/>
     </row>
-    <row r="106" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D106" s="90"/>
       <c r="E106" s="62"/>
       <c r="F106" s="90"/>
@@ -19921,7 +19921,7 @@
       <c r="H106" s="124"/>
       <c r="I106" s="90"/>
     </row>
-    <row r="107" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D107" s="90"/>
       <c r="E107" s="62"/>
       <c r="F107" s="90"/>
@@ -19929,7 +19929,7 @@
       <c r="H107" s="124"/>
       <c r="I107" s="90"/>
     </row>
-    <row r="108" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D108" s="90"/>
       <c r="E108" s="62"/>
       <c r="F108" s="90"/>
@@ -19937,7 +19937,7 @@
       <c r="H108" s="90"/>
       <c r="I108" s="90"/>
     </row>
-    <row r="109" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D109" s="90"/>
       <c r="E109" s="62"/>
       <c r="F109" s="90"/>
@@ -19945,7 +19945,7 @@
       <c r="H109" s="90"/>
       <c r="I109" s="90"/>
     </row>
-    <row r="110" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D110" s="90"/>
       <c r="E110" s="62"/>
       <c r="F110" s="90"/>
@@ -19953,7 +19953,7 @@
       <c r="H110" s="90"/>
       <c r="I110" s="90"/>
     </row>
-    <row r="111" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D111" s="90"/>
       <c r="E111" s="62"/>
       <c r="F111" s="90"/>
@@ -19961,7 +19961,7 @@
       <c r="H111" s="90"/>
       <c r="I111" s="90"/>
     </row>
-    <row r="112" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D112" s="90"/>
       <c r="E112" s="62"/>
       <c r="F112" s="90"/>
@@ -19969,7 +19969,7 @@
       <c r="H112" s="90"/>
       <c r="I112" s="90"/>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D113" s="90"/>
       <c r="E113" s="62"/>
       <c r="F113" s="90"/>
@@ -19977,7 +19977,7 @@
       <c r="H113" s="90"/>
       <c r="I113" s="90"/>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="D114" s="129"/>
       <c r="E114" s="90"/>
       <c r="F114" s="90"/>
@@ -19985,7 +19985,7 @@
       <c r="H114" s="90"/>
       <c r="I114" s="90"/>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="D115" s="129"/>
       <c r="E115" s="90"/>
       <c r="F115" s="90"/>
@@ -19993,7 +19993,7 @@
       <c r="H115" s="90"/>
       <c r="I115" s="90"/>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="D116" s="129"/>
       <c r="E116" s="90"/>
       <c r="F116" s="90"/>
@@ -20001,7 +20001,7 @@
       <c r="H116" s="90"/>
       <c r="I116" s="90"/>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D117" s="90"/>
       <c r="E117" s="90"/>
       <c r="F117" s="90"/>
@@ -20009,7 +20009,7 @@
       <c r="H117" s="90"/>
       <c r="I117" s="90"/>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D118" s="90"/>
       <c r="E118" s="90"/>
       <c r="F118" s="90"/>
@@ -20017,7 +20017,7 @@
       <c r="H118" s="90"/>
       <c r="I118" s="90"/>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D119" s="90"/>
       <c r="E119" s="121"/>
       <c r="F119" s="90"/>
@@ -20025,7 +20025,7 @@
       <c r="H119" s="90"/>
       <c r="I119" s="90"/>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D120" s="90"/>
       <c r="E120" s="121"/>
       <c r="F120" s="90"/>
@@ -20033,7 +20033,7 @@
       <c r="H120" s="90"/>
       <c r="I120" s="90"/>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D121" s="90"/>
       <c r="E121" s="121"/>
       <c r="F121" s="123"/>
@@ -20043,7 +20043,7 @@
       <c r="J121" s="117"/>
       <c r="K121" s="167"/>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D122" s="90"/>
       <c r="E122" s="121"/>
       <c r="F122" s="130"/>
@@ -20051,7 +20051,7 @@
       <c r="H122" s="130"/>
       <c r="I122" s="90"/>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D123" s="90"/>
       <c r="E123" s="121"/>
       <c r="F123" s="130"/>
@@ -20059,7 +20059,7 @@
       <c r="H123" s="130"/>
       <c r="I123" s="90"/>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D124" s="90"/>
       <c r="E124" s="121"/>
       <c r="F124" s="130"/>
@@ -20067,7 +20067,7 @@
       <c r="H124" s="130"/>
       <c r="I124" s="90"/>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D125" s="90"/>
       <c r="E125" s="121"/>
       <c r="F125" s="123"/>
@@ -20075,7 +20075,7 @@
       <c r="H125" s="130"/>
       <c r="I125" s="90"/>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="10"/>
       <c r="C126" s="11"/>
       <c r="D126" s="131"/>
@@ -20085,7 +20085,7 @@
       <c r="H126" s="130"/>
       <c r="I126" s="90"/>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" s="13"/>
       <c r="C127" s="9"/>
       <c r="D127" s="132"/>
@@ -20095,7 +20095,7 @@
       <c r="H127" s="130"/>
       <c r="I127" s="90"/>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128" s="15"/>
       <c r="C128" s="16"/>
       <c r="D128" s="133"/>
@@ -20105,7 +20105,7 @@
       <c r="H128" s="130"/>
       <c r="I128" s="90"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D129" s="90"/>
       <c r="E129" s="3"/>
       <c r="F129" s="130"/>
@@ -20113,7 +20113,7 @@
       <c r="H129" s="130"/>
       <c r="I129" s="90"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D130" s="90"/>
       <c r="E130" s="3"/>
       <c r="F130" s="130"/>
@@ -20121,7 +20121,7 @@
       <c r="H130" s="130"/>
       <c r="I130" s="90"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D131" s="90"/>
       <c r="E131" s="3"/>
       <c r="F131" s="130"/>
@@ -20129,7 +20129,7 @@
       <c r="H131" s="130"/>
       <c r="I131" s="90"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="10"/>
       <c r="C132" s="11"/>
       <c r="D132" s="131"/>
@@ -20139,7 +20139,7 @@
       <c r="H132" s="130"/>
       <c r="I132" s="90"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="13"/>
       <c r="C133" s="9"/>
       <c r="D133" s="132"/>
@@ -20149,7 +20149,7 @@
       <c r="H133" s="130"/>
       <c r="I133" s="90"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="15"/>
       <c r="C134" s="16"/>
       <c r="D134" s="133"/>
@@ -20159,7 +20159,7 @@
       <c r="H134" s="130"/>
       <c r="I134" s="90"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D135" s="90"/>
       <c r="E135" s="3"/>
       <c r="F135" s="130"/>
@@ -20167,7 +20167,7 @@
       <c r="H135" s="130"/>
       <c r="I135" s="90"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D136" s="90"/>
       <c r="E136" s="3"/>
       <c r="F136" s="130"/>
@@ -20175,7 +20175,7 @@
       <c r="H136" s="130"/>
       <c r="I136" s="90"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D137" s="90"/>
       <c r="E137" s="3"/>
       <c r="F137" s="130"/>
@@ -20183,7 +20183,7 @@
       <c r="H137" s="130"/>
       <c r="I137" s="90"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D138" s="90"/>
       <c r="E138" s="90"/>
       <c r="F138" s="90"/>
@@ -20191,7 +20191,7 @@
       <c r="H138" s="90"/>
       <c r="I138" s="90"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D139" s="90"/>
       <c r="E139" s="90"/>
       <c r="F139" s="90"/>
@@ -20199,7 +20199,7 @@
       <c r="H139" s="90"/>
       <c r="I139" s="90"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D140" s="90"/>
       <c r="E140" s="90"/>
       <c r="F140" s="90"/>
@@ -20207,7 +20207,7 @@
       <c r="H140" s="90"/>
       <c r="I140" s="90"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D141" s="90"/>
       <c r="E141" s="90"/>
       <c r="F141" s="90"/>
@@ -20215,7 +20215,7 @@
       <c r="H141" s="90"/>
       <c r="I141" s="90"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D142" s="90"/>
       <c r="E142" s="90"/>
       <c r="F142" s="90"/>
@@ -20223,7 +20223,7 @@
       <c r="H142" s="90"/>
       <c r="I142" s="90"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D143" s="90"/>
       <c r="E143" s="90"/>
       <c r="F143" s="90"/>
@@ -20231,7 +20231,7 @@
       <c r="H143" s="90"/>
       <c r="I143" s="90"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D144" s="90"/>
       <c r="E144" s="90"/>
       <c r="F144" s="90"/>
@@ -20239,7 +20239,7 @@
       <c r="H144" s="90"/>
       <c r="I144" s="90"/>
     </row>
-    <row r="145" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D145" s="90"/>
       <c r="E145" s="62"/>
       <c r="F145" s="124"/>
@@ -20247,7 +20247,7 @@
       <c r="H145" s="124"/>
       <c r="I145" s="90"/>
     </row>
-    <row r="146" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D146" s="90"/>
       <c r="E146" s="62"/>
       <c r="F146" s="124"/>
@@ -20255,7 +20255,7 @@
       <c r="H146" s="124"/>
       <c r="I146" s="90"/>
     </row>
-    <row r="147" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D147" s="90"/>
       <c r="E147" s="62"/>
       <c r="F147" s="90"/>
@@ -20263,7 +20263,7 @@
       <c r="H147" s="124"/>
       <c r="I147" s="90"/>
     </row>
-    <row r="148" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D148" s="90"/>
       <c r="E148" s="90"/>
       <c r="F148" s="90"/>
@@ -20271,7 +20271,7 @@
       <c r="H148" s="90"/>
       <c r="I148" s="90"/>
     </row>
-    <row r="149" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D149" s="90"/>
       <c r="E149" s="90"/>
       <c r="F149" s="90"/>
@@ -20279,7 +20279,7 @@
       <c r="H149" s="90"/>
       <c r="I149" s="90"/>
     </row>
-    <row r="150" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D150" s="90"/>
       <c r="E150" s="90"/>
       <c r="F150" s="90"/>
@@ -20287,7 +20287,7 @@
       <c r="H150" s="90"/>
       <c r="I150" s="90"/>
     </row>
-    <row r="151" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D151" s="90"/>
       <c r="E151" s="90"/>
       <c r="F151" s="90"/>
@@ -20295,7 +20295,7 @@
       <c r="H151" s="90"/>
       <c r="I151" s="90"/>
     </row>
-    <row r="152" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D152" s="90"/>
       <c r="E152" s="90"/>
       <c r="F152" s="90"/>
@@ -20303,7 +20303,7 @@
       <c r="H152" s="90"/>
       <c r="I152" s="90"/>
     </row>
-    <row r="153" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D153" s="90"/>
       <c r="E153" s="90"/>
       <c r="F153" s="90"/>
@@ -20311,7 +20311,7 @@
       <c r="H153" s="90"/>
       <c r="I153" s="90"/>
     </row>
-    <row r="154" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D154" s="90"/>
       <c r="E154" s="90"/>
       <c r="F154" s="90"/>
@@ -20319,7 +20319,7 @@
       <c r="H154" s="90"/>
       <c r="I154" s="90"/>
     </row>
-    <row r="155" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D155" s="90"/>
       <c r="E155" s="90"/>
       <c r="F155" s="90"/>
@@ -20327,7 +20327,7 @@
       <c r="H155" s="90"/>
       <c r="I155" s="90"/>
     </row>
-    <row r="156" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D156" s="90"/>
       <c r="E156" s="90"/>
       <c r="F156" s="90"/>
@@ -20335,7 +20335,7 @@
       <c r="H156" s="90"/>
       <c r="I156" s="90"/>
     </row>
-    <row r="157" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D157" s="90"/>
       <c r="E157" s="90"/>
       <c r="F157" s="90"/>
@@ -20343,7 +20343,7 @@
       <c r="H157" s="90"/>
       <c r="I157" s="90"/>
     </row>
-    <row r="158" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D158" s="90"/>
       <c r="E158" s="90"/>
       <c r="F158" s="90"/>
@@ -20351,7 +20351,7 @@
       <c r="H158" s="90"/>
       <c r="I158" s="90"/>
     </row>
-    <row r="159" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D159" s="90"/>
       <c r="E159" s="90"/>
       <c r="F159" s="90"/>
@@ -20359,7 +20359,7 @@
       <c r="H159" s="90"/>
       <c r="I159" s="90"/>
     </row>
-    <row r="160" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D160" s="90"/>
       <c r="E160" s="90"/>
       <c r="F160" s="90"/>
@@ -20367,7 +20367,7 @@
       <c r="H160" s="90"/>
       <c r="I160" s="90"/>
     </row>
-    <row r="161" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D161" s="90"/>
       <c r="E161" s="90"/>
       <c r="F161" s="90"/>
@@ -20375,7 +20375,7 @@
       <c r="H161" s="90"/>
       <c r="I161" s="90"/>
     </row>
-    <row r="162" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D162" s="90"/>
       <c r="E162" s="90"/>
       <c r="F162" s="90"/>
@@ -20383,7 +20383,7 @@
       <c r="H162" s="90"/>
       <c r="I162" s="90"/>
     </row>
-    <row r="163" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D163" s="90"/>
       <c r="E163" s="90"/>
       <c r="F163" s="90"/>
@@ -20391,7 +20391,7 @@
       <c r="H163" s="90"/>
       <c r="I163" s="90"/>
     </row>
-    <row r="164" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D164" s="90"/>
       <c r="E164" s="90"/>
       <c r="F164" s="90"/>
@@ -20399,7 +20399,7 @@
       <c r="H164" s="90"/>
       <c r="I164" s="90"/>
     </row>
-    <row r="165" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D165" s="90"/>
       <c r="E165" s="90"/>
       <c r="F165" s="90"/>
@@ -20407,45 +20407,45 @@
       <c r="H165" s="90"/>
       <c r="I165" s="90"/>
     </row>
-    <row r="168" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:9" ht="13" x14ac:dyDescent="0.3">
       <c r="C168" s="27"/>
     </row>
-    <row r="169" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E169" s="2"/>
       <c r="F169" s="1"/>
       <c r="G169" s="167"/>
     </row>
-    <row r="170" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E170" s="2"/>
       <c r="F170" s="1"/>
       <c r="G170" s="167"/>
     </row>
-    <row r="171" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E171" s="2"/>
       <c r="F171" s="1"/>
       <c r="G171" s="167"/>
     </row>
-    <row r="173" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E173" s="2"/>
       <c r="F173" s="18"/>
       <c r="G173" s="18"/>
     </row>
-    <row r="174" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E174" s="2"/>
       <c r="F174" s="18"/>
       <c r="G174" s="18"/>
     </row>
-    <row r="175" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E175" s="2"/>
       <c r="F175" s="18"/>
       <c r="G175" s="18"/>
     </row>
-    <row r="177" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E177" s="2"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
     </row>
-    <row r="178" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E178" s="2"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -20453,19 +20453,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E179" s="2"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
     </row>
-    <row r="184" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E184" s="2"/>
       <c r="T184" s="33"/>
     </row>
-    <row r="185" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:27" x14ac:dyDescent="0.25">
       <c r="T185" s="33"/>
     </row>
-    <row r="186" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B186" s="33"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -20486,7 +20486,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D187" s="5"/>
       <c r="E187" s="28"/>
       <c r="F187" s="28"/>
@@ -20507,7 +20507,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="188" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D188" s="5"/>
       <c r="E188" s="28"/>
       <c r="F188" s="28"/>
@@ -20524,7 +20524,7 @@
       <c r="W188" s="28"/>
       <c r="X188" s="28"/>
     </row>
-    <row r="189" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D189" s="5"/>
       <c r="E189" s="28"/>
       <c r="F189" s="28"/>
@@ -20542,7 +20542,7 @@
       <c r="W189" s="28"/>
       <c r="X189" s="28"/>
     </row>
-    <row r="190" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D190" s="5"/>
       <c r="E190" s="28"/>
       <c r="F190" s="28"/>
@@ -20561,7 +20561,7 @@
       <c r="W190" s="28"/>
       <c r="X190" s="28"/>
     </row>
-    <row r="191" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D191" s="5"/>
       <c r="E191" s="28"/>
       <c r="F191" s="28"/>
@@ -20580,7 +20580,7 @@
       <c r="W191" s="28"/>
       <c r="X191" s="28"/>
     </row>
-    <row r="192" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D192" s="5"/>
       <c r="E192" s="28"/>
       <c r="F192" s="28"/>
@@ -20599,7 +20599,7 @@
       <c r="W192" s="28"/>
       <c r="X192" s="28"/>
     </row>
-    <row r="193" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D193" s="5"/>
       <c r="E193" s="28"/>
       <c r="F193" s="28"/>
@@ -20618,7 +20618,7 @@
       <c r="W193" s="28"/>
       <c r="X193" s="28"/>
     </row>
-    <row r="194" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D194" s="5"/>
       <c r="E194" s="28"/>
       <c r="F194" s="28"/>
@@ -20637,7 +20637,7 @@
       <c r="W194" s="28"/>
       <c r="X194" s="28"/>
     </row>
-    <row r="195" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D195" s="5"/>
       <c r="E195" s="28"/>
       <c r="F195" s="28"/>
@@ -20656,7 +20656,7 @@
       <c r="W195" s="28"/>
       <c r="X195" s="28"/>
     </row>
-    <row r="196" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D196" s="5"/>
       <c r="E196" s="28"/>
       <c r="F196" s="28"/>
@@ -20675,7 +20675,7 @@
       <c r="W196" s="28"/>
       <c r="X196" s="28"/>
     </row>
-    <row r="197" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D197" s="5"/>
       <c r="E197" s="28"/>
       <c r="F197" s="28"/>
@@ -20694,7 +20694,7 @@
       <c r="W197" s="28"/>
       <c r="X197" s="28"/>
     </row>
-    <row r="198" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D198" s="5"/>
       <c r="E198" s="28"/>
       <c r="F198" s="28"/>
@@ -20713,7 +20713,7 @@
       <c r="W198" s="28"/>
       <c r="X198" s="28"/>
     </row>
-    <row r="199" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D199" s="5"/>
       <c r="E199" s="28"/>
       <c r="F199" s="28"/>
@@ -20732,7 +20732,7 @@
       <c r="W199" s="28"/>
       <c r="X199" s="28"/>
     </row>
-    <row r="200" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D200" s="5"/>
       <c r="E200" s="28"/>
       <c r="F200" s="28"/>
@@ -20751,7 +20751,7 @@
       <c r="W200" s="28"/>
       <c r="X200" s="28"/>
     </row>
-    <row r="201" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D201" s="5"/>
       <c r="E201" s="28"/>
       <c r="F201" s="28"/>
@@ -20770,7 +20770,7 @@
       <c r="W201" s="28"/>
       <c r="X201" s="28"/>
     </row>
-    <row r="202" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D202" s="5"/>
       <c r="E202" s="28"/>
       <c r="F202" s="28"/>
@@ -20789,7 +20789,7 @@
       <c r="W202" s="28"/>
       <c r="X202" s="28"/>
     </row>
-    <row r="203" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D203" s="5"/>
       <c r="E203" s="28"/>
       <c r="F203" s="28"/>
@@ -20808,7 +20808,7 @@
       <c r="W203" s="28"/>
       <c r="X203" s="28"/>
     </row>
-    <row r="204" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D204" s="5"/>
       <c r="E204" s="28"/>
       <c r="F204" s="28"/>
@@ -20827,7 +20827,7 @@
       <c r="W204" s="28"/>
       <c r="X204" s="28"/>
     </row>
-    <row r="205" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D205" s="5"/>
       <c r="E205" s="28"/>
       <c r="F205" s="28"/>
@@ -20846,7 +20846,7 @@
       <c r="W205" s="28"/>
       <c r="X205" s="28"/>
     </row>
-    <row r="206" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D206" s="5"/>
       <c r="E206" s="28"/>
       <c r="F206" s="28"/>
@@ -20865,7 +20865,7 @@
       <c r="W206" s="28"/>
       <c r="X206" s="28"/>
     </row>
-    <row r="207" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D207" s="5"/>
       <c r="E207" s="28"/>
       <c r="F207" s="28"/>
@@ -20884,7 +20884,7 @@
       <c r="W207" s="28"/>
       <c r="X207" s="28"/>
     </row>
-    <row r="208" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D208" s="5"/>
       <c r="E208" s="28"/>
       <c r="F208" s="28"/>
@@ -20903,7 +20903,7 @@
       <c r="W208" s="28"/>
       <c r="X208" s="28"/>
     </row>
-    <row r="209" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D209" s="5"/>
       <c r="E209" s="28"/>
       <c r="F209" s="28"/>
@@ -20922,7 +20922,7 @@
       <c r="W209" s="28"/>
       <c r="X209" s="28"/>
     </row>
-    <row r="210" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="210" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D210" s="5"/>
       <c r="E210" s="28"/>
       <c r="F210" s="28"/>
@@ -20941,7 +20941,7 @@
       <c r="W210" s="28"/>
       <c r="X210" s="28"/>
     </row>
-    <row r="211" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="211" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D211" s="5"/>
       <c r="E211" s="28"/>
       <c r="F211" s="28"/>
@@ -20958,7 +20958,7 @@
       <c r="W211" s="28"/>
       <c r="X211" s="28"/>
     </row>
-    <row r="212" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D212" s="5"/>
       <c r="E212" s="28"/>
       <c r="F212" s="28"/>
@@ -20975,7 +20975,7 @@
       <c r="W212" s="28"/>
       <c r="X212" s="28"/>
     </row>
-    <row r="213" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D213" s="5"/>
       <c r="E213" s="28"/>
       <c r="F213" s="28"/>
@@ -20992,7 +20992,7 @@
       <c r="W213" s="28"/>
       <c r="X213" s="28"/>
     </row>
-    <row r="214" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D214" s="5"/>
       <c r="E214" s="28"/>
       <c r="F214" s="28"/>
@@ -21009,7 +21009,7 @@
       <c r="W214" s="28"/>
       <c r="X214" s="28"/>
     </row>
-    <row r="215" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D215" s="5"/>
       <c r="E215" s="28"/>
       <c r="F215" s="28"/>
@@ -21026,7 +21026,7 @@
       <c r="W215" s="28"/>
       <c r="X215" s="28"/>
     </row>
-    <row r="216" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="216" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D216" s="5"/>
       <c r="E216" s="28"/>
       <c r="F216" s="28"/>
@@ -21043,7 +21043,7 @@
       <c r="W216" s="28"/>
       <c r="X216" s="28"/>
     </row>
-    <row r="217" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D217" s="5"/>
       <c r="E217" s="28"/>
       <c r="F217" s="28"/>
@@ -21060,7 +21060,7 @@
       <c r="W217" s="28"/>
       <c r="X217" s="28"/>
     </row>
-    <row r="218" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D218" s="5"/>
       <c r="E218" s="28"/>
       <c r="F218" s="28"/>
@@ -21077,7 +21077,7 @@
       <c r="W218" s="28"/>
       <c r="X218" s="28"/>
     </row>
-    <row r="219" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="219" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D219" s="5"/>
       <c r="E219" s="28"/>
       <c r="F219" s="28"/>
@@ -21094,7 +21094,7 @@
       <c r="W219" s="28"/>
       <c r="X219" s="28"/>
     </row>
-    <row r="220" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="220" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D220" s="5"/>
       <c r="E220" s="28"/>
       <c r="F220" s="28"/>
@@ -21111,7 +21111,7 @@
       <c r="W220" s="28"/>
       <c r="X220" s="28"/>
     </row>
-    <row r="221" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D221" s="5"/>
       <c r="E221" s="28"/>
       <c r="F221" s="28"/>
@@ -21128,7 +21128,7 @@
       <c r="W221" s="28"/>
       <c r="X221" s="28"/>
     </row>
-    <row r="222" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="222" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D222" s="5"/>
       <c r="E222" s="28"/>
       <c r="F222" s="28"/>
@@ -21145,7 +21145,7 @@
       <c r="W222" s="28"/>
       <c r="X222" s="28"/>
     </row>
-    <row r="223" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="223" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D223" s="5"/>
       <c r="E223" s="28"/>
       <c r="F223" s="28"/>
@@ -21162,7 +21162,7 @@
       <c r="W223" s="28"/>
       <c r="X223" s="28"/>
     </row>
-    <row r="224" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D224" s="5"/>
       <c r="E224" s="28"/>
       <c r="F224" s="28"/>
@@ -21179,7 +21179,7 @@
       <c r="W224" s="28"/>
       <c r="X224" s="28"/>
     </row>
-    <row r="225" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D225" s="5"/>
       <c r="E225" s="28"/>
       <c r="F225" s="28"/>
@@ -21196,7 +21196,7 @@
       <c r="W225" s="28"/>
       <c r="X225" s="28"/>
     </row>
-    <row r="226" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D226" s="5"/>
       <c r="E226" s="28"/>
       <c r="F226" s="28"/>
@@ -21213,7 +21213,7 @@
       <c r="W226" s="28"/>
       <c r="X226" s="28"/>
     </row>
-    <row r="227" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D227" s="5"/>
       <c r="E227" s="28"/>
       <c r="F227" s="28"/>
@@ -21230,7 +21230,7 @@
       <c r="W227" s="28"/>
       <c r="X227" s="28"/>
     </row>
-    <row r="228" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D228" s="5"/>
       <c r="E228" s="28"/>
       <c r="F228" s="28"/>
@@ -21247,7 +21247,7 @@
       <c r="W228" s="28"/>
       <c r="X228" s="28"/>
     </row>
-    <row r="229" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D229" s="5"/>
       <c r="E229" s="28"/>
       <c r="F229" s="28"/>
@@ -21264,7 +21264,7 @@
       <c r="W229" s="28"/>
       <c r="X229" s="28"/>
     </row>
-    <row r="230" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D230" s="5"/>
       <c r="E230" s="28"/>
       <c r="F230" s="28"/>
@@ -21281,7 +21281,7 @@
       <c r="W230" s="28"/>
       <c r="X230" s="28"/>
     </row>
-    <row r="231" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D231" s="5"/>
       <c r="E231" s="28"/>
       <c r="F231" s="28"/>
@@ -21298,7 +21298,7 @@
       <c r="W231" s="28"/>
       <c r="X231" s="28"/>
     </row>
-    <row r="232" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D232" s="5"/>
       <c r="E232" s="28"/>
       <c r="F232" s="28"/>
@@ -21315,7 +21315,7 @@
       <c r="W232" s="28"/>
       <c r="X232" s="28"/>
     </row>
-    <row r="233" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D233" s="5"/>
       <c r="E233" s="28"/>
       <c r="F233" s="28"/>
@@ -21332,7 +21332,7 @@
       <c r="W233" s="28"/>
       <c r="X233" s="28"/>
     </row>
-    <row r="234" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D234" s="5"/>
       <c r="E234" s="28"/>
       <c r="F234" s="28"/>
@@ -21349,7 +21349,7 @@
       <c r="W234" s="28"/>
       <c r="X234" s="28"/>
     </row>
-    <row r="235" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D235" s="5"/>
       <c r="E235" s="28"/>
       <c r="F235" s="28"/>
@@ -21366,7 +21366,7 @@
       <c r="W235" s="28"/>
       <c r="X235" s="28"/>
     </row>
-    <row r="236" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D236" s="5"/>
       <c r="E236" s="28"/>
       <c r="F236" s="28"/>
@@ -21383,7 +21383,7 @@
       <c r="W236" s="28"/>
       <c r="X236" s="28"/>
     </row>
-    <row r="237" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D237" s="5"/>
       <c r="E237" s="28"/>
       <c r="F237" s="28"/>
@@ -21400,7 +21400,7 @@
       <c r="W237" s="28"/>
       <c r="X237" s="28"/>
     </row>
-    <row r="238" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D238" s="5"/>
       <c r="E238" s="28"/>
       <c r="F238" s="28"/>
@@ -21417,7 +21417,7 @@
       <c r="W238" s="28"/>
       <c r="X238" s="28"/>
     </row>
-    <row r="239" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D239" s="5"/>
       <c r="E239" s="28"/>
       <c r="F239" s="28"/>
@@ -21434,7 +21434,7 @@
       <c r="W239" s="28"/>
       <c r="X239" s="28"/>
     </row>
-    <row r="240" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D240" s="5"/>
       <c r="E240" s="28"/>
       <c r="F240" s="28"/>
@@ -21451,7 +21451,7 @@
       <c r="W240" s="28"/>
       <c r="X240" s="28"/>
     </row>
-    <row r="241" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D241" s="5"/>
       <c r="E241" s="28"/>
       <c r="F241" s="28"/>
@@ -21468,7 +21468,7 @@
       <c r="W241" s="28"/>
       <c r="X241" s="28"/>
     </row>
-    <row r="242" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D242" s="5"/>
       <c r="E242" s="28"/>
       <c r="F242" s="28"/>
@@ -21485,7 +21485,7 @@
       <c r="W242" s="28"/>
       <c r="X242" s="28"/>
     </row>
-    <row r="243" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D243" s="5"/>
       <c r="E243" s="28"/>
       <c r="F243" s="28"/>
@@ -21502,7 +21502,7 @@
       <c r="W243" s="28"/>
       <c r="X243" s="28"/>
     </row>
-    <row r="244" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D244" s="5"/>
       <c r="E244" s="28"/>
       <c r="F244" s="28"/>
@@ -21519,7 +21519,7 @@
       <c r="W244" s="28"/>
       <c r="X244" s="28"/>
     </row>
-    <row r="245" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="245" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D245" s="5"/>
       <c r="E245" s="28"/>
       <c r="F245" s="28"/>
@@ -21536,7 +21536,7 @@
       <c r="W245" s="28"/>
       <c r="X245" s="28"/>
     </row>
-    <row r="246" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="246" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D246" s="5"/>
       <c r="E246" s="28"/>
       <c r="F246" s="28"/>
@@ -21553,7 +21553,7 @@
       <c r="W246" s="28"/>
       <c r="X246" s="28"/>
     </row>
-    <row r="247" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="247" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D247" s="5"/>
       <c r="E247" s="28"/>
       <c r="F247" s="28"/>
@@ -21570,7 +21570,7 @@
       <c r="W247" s="28"/>
       <c r="X247" s="28"/>
     </row>
-    <row r="248" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="248" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D248" s="5"/>
       <c r="E248" s="28"/>
       <c r="F248" s="28"/>
@@ -21587,7 +21587,7 @@
       <c r="W248" s="28"/>
       <c r="X248" s="28"/>
     </row>
-    <row r="249" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="249" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D249" s="5"/>
       <c r="E249" s="28"/>
       <c r="F249" s="28"/>
@@ -21604,7 +21604,7 @@
       <c r="W249" s="28"/>
       <c r="X249" s="28"/>
     </row>
-    <row r="250" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="250" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D250" s="5"/>
       <c r="E250" s="28"/>
       <c r="F250" s="28"/>
@@ -21621,7 +21621,7 @@
       <c r="W250" s="28"/>
       <c r="X250" s="28"/>
     </row>
-    <row r="251" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="251" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D251" s="5"/>
       <c r="E251" s="28"/>
       <c r="F251" s="28"/>
@@ -21638,7 +21638,7 @@
       <c r="W251" s="28"/>
       <c r="X251" s="28"/>
     </row>
-    <row r="252" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="252" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D252" s="5"/>
       <c r="E252" s="28"/>
       <c r="F252" s="28"/>
@@ -21655,7 +21655,7 @@
       <c r="W252" s="28"/>
       <c r="X252" s="28"/>
     </row>
-    <row r="253" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="253" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D253" s="5"/>
       <c r="E253" s="28"/>
       <c r="F253" s="28"/>
@@ -21672,7 +21672,7 @@
       <c r="W253" s="28"/>
       <c r="X253" s="28"/>
     </row>
-    <row r="254" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="254" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D254" s="5"/>
       <c r="E254" s="28"/>
       <c r="F254" s="28"/>
@@ -21689,7 +21689,7 @@
       <c r="W254" s="28"/>
       <c r="X254" s="28"/>
     </row>
-    <row r="255" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="255" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D255" s="5"/>
       <c r="E255" s="28"/>
       <c r="F255" s="28"/>
@@ -21706,7 +21706,7 @@
       <c r="W255" s="28"/>
       <c r="X255" s="28"/>
     </row>
-    <row r="256" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="256" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D256" s="5"/>
       <c r="E256" s="28"/>
       <c r="F256" s="28"/>
@@ -21723,7 +21723,7 @@
       <c r="W256" s="28"/>
       <c r="X256" s="28"/>
     </row>
-    <row r="257" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D257" s="5"/>
       <c r="E257" s="28"/>
       <c r="F257" s="28"/>
@@ -21740,7 +21740,7 @@
       <c r="W257" s="28"/>
       <c r="X257" s="28"/>
     </row>
-    <row r="258" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D258" s="5"/>
       <c r="E258" s="28"/>
       <c r="F258" s="28"/>
@@ -21757,7 +21757,7 @@
       <c r="W258" s="28"/>
       <c r="X258" s="28"/>
     </row>
-    <row r="259" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D259" s="5"/>
       <c r="E259" s="28"/>
       <c r="F259" s="28"/>
@@ -21774,7 +21774,7 @@
       <c r="W259" s="28"/>
       <c r="X259" s="28"/>
     </row>
-    <row r="260" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D260" s="5"/>
       <c r="E260" s="28"/>
       <c r="F260" s="28"/>
@@ -21791,7 +21791,7 @@
       <c r="W260" s="28"/>
       <c r="X260" s="28"/>
     </row>
-    <row r="261" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D261" s="5"/>
       <c r="E261" s="28"/>
       <c r="F261" s="28"/>
@@ -21808,7 +21808,7 @@
       <c r="W261" s="28"/>
       <c r="X261" s="28"/>
     </row>
-    <row r="262" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D262" s="5"/>
       <c r="E262" s="28"/>
       <c r="F262" s="28"/>
@@ -21825,7 +21825,7 @@
       <c r="W262" s="28"/>
       <c r="X262" s="28"/>
     </row>
-    <row r="263" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D263" s="5"/>
       <c r="E263" s="28"/>
       <c r="F263" s="28"/>
@@ -21842,7 +21842,7 @@
       <c r="W263" s="28"/>
       <c r="X263" s="28"/>
     </row>
-    <row r="264" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D264" s="5"/>
       <c r="E264" s="28"/>
       <c r="F264" s="28"/>
@@ -21859,7 +21859,7 @@
       <c r="W264" s="28"/>
       <c r="X264" s="28"/>
     </row>
-    <row r="265" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D265" s="5"/>
       <c r="E265" s="28"/>
       <c r="F265" s="28"/>
@@ -21876,7 +21876,7 @@
       <c r="W265" s="28"/>
       <c r="X265" s="28"/>
     </row>
-    <row r="266" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D266" s="5"/>
       <c r="E266" s="28"/>
       <c r="F266" s="28"/>
@@ -21893,7 +21893,7 @@
       <c r="W266" s="28"/>
       <c r="X266" s="28"/>
     </row>
-    <row r="267" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D267" s="116"/>
       <c r="E267" s="134"/>
       <c r="F267" s="134"/>
@@ -21905,23 +21905,23 @@
       <c r="M267" s="134"/>
       <c r="N267" s="134"/>
     </row>
-    <row r="269" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D269" s="33"/>
     </row>
-    <row r="271" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D271" s="33"/>
     </row>
-    <row r="272" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D272" s="33"/>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D273" s="33"/>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D274" s="33"/>
       <c r="E274" s="92"/>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D276" s="94"/>
     </row>
   </sheetData>
@@ -22051,18 +22051,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22082,6 +22082,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F385080-AA43-47B1-B5FC-DE683234294C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F9DA69-AC46-4980-8991-D5FD33AE93E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -22094,12 +22102,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F385080-AA43-47B1-B5FC-DE683234294C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LM5060 Design_Calculator_REV_C.xlsx
+++ b/LM5060 Design_Calculator_REV_C.xlsx
@@ -3108,27 +3108,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3166,6 +3145,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9606,8 +9606,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9664,21 +9664,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="83" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="287" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
@@ -9721,8 +9721,8 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="289"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="302"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -10085,10 +10085,10 @@
       <c r="A11" s="19"/>
       <c r="B11" s="25"/>
       <c r="C11" s="119"/>
-      <c r="D11" s="296" t="s">
+      <c r="D11" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="297"/>
+      <c r="E11" s="290"/>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
@@ -10128,8 +10128,8 @@
       <c r="A12" s="19"/>
       <c r="B12" s="25"/>
       <c r="C12" s="118"/>
-      <c r="D12" s="296"/>
-      <c r="E12" s="297"/>
+      <c r="D12" s="289"/>
+      <c r="E12" s="290"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="19"/>
@@ -10212,12 +10212,12 @@
         <v>217</v>
       </c>
       <c r="C14" s="263"/>
-      <c r="D14" s="301" t="s">
+      <c r="D14" s="294" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="301"/>
-      <c r="F14" s="301"/>
-      <c r="G14" s="301"/>
+      <c r="E14" s="294"/>
+      <c r="F14" s="294"/>
+      <c r="G14" s="294"/>
       <c r="H14" s="260"/>
       <c r="I14" s="228"/>
       <c r="J14" s="228"/>
@@ -10255,10 +10255,10 @@
       <c r="A15" s="239"/>
       <c r="B15" s="189"/>
       <c r="C15" s="262"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="302"/>
-      <c r="F15" s="302"/>
-      <c r="G15" s="302"/>
+      <c r="D15" s="295"/>
+      <c r="E15" s="295"/>
+      <c r="F15" s="295"/>
+      <c r="G15" s="295"/>
       <c r="H15" s="261"/>
       <c r="I15" s="240"/>
       <c r="J15" s="240"/>
@@ -10295,16 +10295,16 @@
     </row>
     <row r="16" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="239"/>
-      <c r="B16" s="299"/>
+      <c r="B16" s="292"/>
       <c r="C16" s="244"/>
-      <c r="D16" s="290" t="s">
+      <c r="D16" s="303" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
+      <c r="E16" s="303"/>
+      <c r="F16" s="303"/>
+      <c r="G16" s="303"/>
+      <c r="H16" s="303"/>
+      <c r="I16" s="303"/>
       <c r="J16" s="247"/>
       <c r="K16" s="242"/>
       <c r="L16" s="240"/>
@@ -10339,16 +10339,16 @@
     </row>
     <row r="17" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="239"/>
-      <c r="B17" s="299"/>
+      <c r="B17" s="292"/>
       <c r="C17" s="244"/>
-      <c r="D17" s="290" t="s">
+      <c r="D17" s="303" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="290"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="290"/>
-      <c r="H17" s="290"/>
-      <c r="I17" s="290"/>
+      <c r="E17" s="303"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="303"/>
+      <c r="I17" s="303"/>
       <c r="J17" s="240"/>
       <c r="K17" s="240"/>
       <c r="L17" s="240"/>
@@ -10383,16 +10383,16 @@
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
-      <c r="B18" s="299"/>
+      <c r="B18" s="292"/>
       <c r="C18" s="236"/>
-      <c r="D18" s="290" t="s">
+      <c r="D18" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E18" s="290"/>
-      <c r="F18" s="290"/>
-      <c r="G18" s="290"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="290"/>
+      <c r="E18" s="303"/>
+      <c r="F18" s="303"/>
+      <c r="G18" s="303"/>
+      <c r="H18" s="303"/>
+      <c r="I18" s="303"/>
       <c r="J18" s="240"/>
       <c r="K18" s="226"/>
       <c r="L18" s="226"/>
@@ -10426,16 +10426,16 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
-      <c r="B19" s="299"/>
+      <c r="B19" s="292"/>
       <c r="C19" s="236"/>
-      <c r="D19" s="290" t="s">
+      <c r="D19" s="303" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="290"/>
-      <c r="F19" s="290"/>
-      <c r="G19" s="290"/>
-      <c r="H19" s="290"/>
-      <c r="I19" s="290"/>
+      <c r="E19" s="303"/>
+      <c r="F19" s="303"/>
+      <c r="G19" s="303"/>
+      <c r="H19" s="303"/>
+      <c r="I19" s="303"/>
       <c r="J19" s="240"/>
       <c r="K19" s="226"/>
       <c r="L19" s="226"/>
@@ -10555,11 +10555,11 @@
       <c r="A22" s="19"/>
       <c r="B22" s="229"/>
       <c r="C22" s="226"/>
-      <c r="D22" s="303" t="s">
+      <c r="D22" s="296" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="304"/>
-      <c r="F22" s="305"/>
+      <c r="E22" s="297"/>
+      <c r="F22" s="298"/>
       <c r="G22" s="273" t="s">
         <v>214</v>
       </c>
@@ -10603,11 +10603,11 @@
       <c r="A23" s="239"/>
       <c r="B23" s="229"/>
       <c r="C23" s="240"/>
-      <c r="D23" s="291" t="s">
+      <c r="D23" s="304" t="s">
         <v>224</v>
       </c>
-      <c r="E23" s="292"/>
-      <c r="F23" s="293"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="306"/>
       <c r="G23" s="274" t="s">
         <v>214</v>
       </c>
@@ -10649,11 +10649,11 @@
       <c r="A24" s="19"/>
       <c r="B24" s="229"/>
       <c r="C24" s="226"/>
-      <c r="D24" s="306" t="s">
+      <c r="D24" s="299" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="306"/>
-      <c r="F24" s="306"/>
+      <c r="E24" s="299"/>
+      <c r="F24" s="299"/>
       <c r="G24" s="240"/>
       <c r="H24" s="240"/>
       <c r="I24" s="240"/>
@@ -10695,9 +10695,9 @@
       <c r="A25" s="19"/>
       <c r="B25" s="229"/>
       <c r="C25" s="240"/>
-      <c r="D25" s="306"/>
-      <c r="E25" s="306"/>
-      <c r="F25" s="306"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="299"/>
+      <c r="F25" s="299"/>
       <c r="G25" s="253"/>
       <c r="H25" s="240"/>
       <c r="I25" s="240"/>
@@ -11058,7 +11058,7 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="264"/>
-      <c r="B33" s="300" t="s">
+      <c r="B33" s="293" t="s">
         <v>210</v>
       </c>
       <c r="C33" s="240"/>
@@ -11107,7 +11107,7 @@
     </row>
     <row r="34" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="264"/>
-      <c r="B34" s="300"/>
+      <c r="B34" s="293"/>
       <c r="C34" s="240"/>
       <c r="D34" s="240"/>
       <c r="E34" s="78"/>
@@ -11563,7 +11563,7 @@
     </row>
     <row r="44" spans="1:40" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
-      <c r="B44" s="298" t="s">
+      <c r="B44" s="291" t="s">
         <v>210</v>
       </c>
       <c r="C44" s="79"/>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
-      <c r="B45" s="298"/>
+      <c r="B45" s="291"/>
       <c r="C45" s="79"/>
       <c r="D45" s="23"/>
       <c r="E45" s="37" t="s">
@@ -11661,7 +11661,7 @@
     </row>
     <row r="46" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
-      <c r="B46" s="298"/>
+      <c r="B46" s="291"/>
       <c r="C46" s="79"/>
       <c r="D46" s="23"/>
       <c r="E46" s="37" t="s">
@@ -12371,7 +12371,7 @@
         <v>196</v>
       </c>
       <c r="F61" s="209">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G61" s="101" t="s">
         <v>26</v>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="F62" s="210">
         <f>IGATEMAX/(CONE/1000000000)*(COUTMAX/1000000)*1000</f>
-        <v>1878.7878787878792</v>
+        <v>6200</v>
       </c>
       <c r="G62" s="101" t="s">
         <v>192</v>
@@ -12469,7 +12469,7 @@
       </c>
       <c r="F63" s="5">
         <f>IGATEMAX/(CONE/1000000)</f>
-        <v>0.93939393939393934</v>
+        <v>3.1</v>
       </c>
       <c r="G63" s="101" t="s">
         <v>162</v>
@@ -12517,7 +12517,7 @@
       </c>
       <c r="F64" s="28">
         <f>IF(INRUSH="YES",(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMIN*1000+(CONE/1000000000)*(VINMAX+VGATEMAX)/IGATEMAX*1000,(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMIN*1000)</f>
-        <v>37.608159392789368</v>
+        <v>12.011385199240987</v>
       </c>
       <c r="G64" s="101" t="s">
         <v>0</v>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="F65" s="28">
         <f>IF(INRUSH="YES",(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATETYP*1000+(CONE/1000000000)*(VINNOM+VGATETYP)/IGATETYP*1000,(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATETYP*1000)</f>
-        <v>40.499999999999993</v>
+        <v>12.708333333333336</v>
       </c>
       <c r="G65" s="101" t="s">
         <v>0</v>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="F66" s="28">
         <f>IF(INRUSH="YES",(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMAX*1000+(CONE/1000000000)*(VINMIN+VGATEMIN)/IGATEMIN*1000,(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMAX*1000)</f>
-        <v>24.748576850094874</v>
+        <v>7.8368121442125229</v>
       </c>
       <c r="G66" s="101" t="s">
         <v>0</v>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="F67" s="215">
         <f>VDSFLTTMEMIN/1000*(ITMRLMAX)/VTMRHMIN*1000000000</f>
-        <v>131.62855787476278</v>
+        <v>42.03984819734346</v>
       </c>
       <c r="G67" s="101" t="s">
         <v>26</v>
@@ -12708,7 +12708,7 @@
         <v>99</v>
       </c>
       <c r="F68" s="211">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G68" s="101" t="s">
         <v>26</v>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="F69" s="216">
         <f>VTMRHMIN*CTMR/1000000/ITMRLMAX</f>
-        <v>6.2857142857142856</v>
+        <v>13.428571428571429</v>
       </c>
       <c r="G69" s="101" t="s">
         <v>0</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="F70" s="216">
         <f>VTMRHTYP*CTMR/1000000/ITMRLTYP</f>
-        <v>7.333333333333333</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="G70" s="101" t="s">
         <v>0</v>
@@ -12852,7 +12852,7 @@
       </c>
       <c r="F71" s="216">
         <f>VTMRHMAX*CTMR/1000000/ITMRLMIN</f>
-        <v>11</v>
+        <v>23.5</v>
       </c>
       <c r="G71" s="101" t="s">
         <v>0</v>
@@ -12900,7 +12900,7 @@
       </c>
       <c r="F72" s="216">
         <f>VTMRHMIN*CTMR/1000000/ITMRHMAX</f>
-        <v>3.3846153846153846</v>
+        <v>7.2307692307692308</v>
       </c>
       <c r="G72" s="101" t="s">
         <v>0</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="F73" s="216">
         <f>VTMRHTYP*CTMR/1000000/ITMRHTYP</f>
-        <v>4</v>
+        <v>8.545454545454545</v>
       </c>
       <c r="G73" s="101" t="s">
         <v>0</v>
@@ -12996,7 +12996,7 @@
       </c>
       <c r="F74" s="216">
         <f>VTMRHMAX*CTMR/1000000/ITMRHMIN</f>
-        <v>5.1764705882352944</v>
+        <v>11.058823529411764</v>
       </c>
       <c r="G74" s="101" t="s">
         <v>0</v>
@@ -13977,13 +13977,13 @@
     <row r="94" spans="1:39" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="66"/>
-      <c r="C94" s="287" t="s">
+      <c r="C94" s="300" t="s">
         <v>49</v>
       </c>
-      <c r="D94" s="287"/>
-      <c r="E94" s="287"/>
-      <c r="F94" s="287"/>
-      <c r="G94" s="288"/>
+      <c r="D94" s="300"/>
+      <c r="E94" s="300"/>
+      <c r="F94" s="300"/>
+      <c r="G94" s="301"/>
       <c r="H94" s="79"/>
       <c r="I94" s="79"/>
       <c r="J94" s="23"/>
@@ -14020,11 +14020,11 @@
     <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="66"/>
-      <c r="C95" s="287"/>
-      <c r="D95" s="287"/>
-      <c r="E95" s="287"/>
-      <c r="F95" s="287"/>
-      <c r="G95" s="288"/>
+      <c r="C95" s="300"/>
+      <c r="D95" s="300"/>
+      <c r="E95" s="300"/>
+      <c r="F95" s="300"/>
+      <c r="G95" s="301"/>
       <c r="H95" s="79"/>
       <c r="I95" s="79"/>
       <c r="J95" s="23"/>
@@ -14061,11 +14061,11 @@
     <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="66"/>
-      <c r="C96" s="287"/>
-      <c r="D96" s="287"/>
-      <c r="E96" s="287"/>
-      <c r="F96" s="287"/>
-      <c r="G96" s="288"/>
+      <c r="C96" s="300"/>
+      <c r="D96" s="300"/>
+      <c r="E96" s="300"/>
+      <c r="F96" s="300"/>
+      <c r="G96" s="301"/>
       <c r="H96" s="79"/>
       <c r="I96" s="79"/>
       <c r="J96" s="23"/>
@@ -14320,7 +14320,7 @@
       </c>
       <c r="K101" s="89">
         <f>F70</f>
-        <v>7.333333333333333</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="L101" s="163" t="str">
         <f>G70</f>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="K102" s="89">
         <f>F73</f>
-        <v>4</v>
+        <v>8.545454545454545</v>
       </c>
       <c r="L102" s="163" t="str">
         <f>G73</f>
@@ -14640,7 +14640,7 @@
       </c>
       <c r="F107" s="48">
         <f>CTMR</f>
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G107" s="101" t="s">
         <v>26</v>
@@ -14737,7 +14737,7 @@
       </c>
       <c r="F109" s="49">
         <f>CONE</f>
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G109" s="101" t="s">
         <v>26</v>
@@ -18123,6 +18123,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="C94:G96"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="B44:B46"/>
@@ -18131,13 +18138,6 @@
     <mergeCell ref="D14:G15"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D24:F25"/>
-    <mergeCell ref="C94:G96"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D23:F23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G83">
@@ -22051,18 +22051,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22082,14 +22082,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F385080-AA43-47B1-B5FC-DE683234294C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F9DA69-AC46-4980-8991-D5FD33AE93E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -22102,4 +22094,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F385080-AA43-47B1-B5FC-DE683234294C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LM5060 Design_Calculator_REV_C.xlsx
+++ b/LM5060 Design_Calculator_REV_C.xlsx
@@ -3108,6 +3108,27 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3145,27 +3166,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9606,8 +9606,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9664,21 +9664,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="83" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="294" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
@@ -9721,8 +9721,8 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="302"/>
-      <c r="M2" s="302"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="289"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -10085,10 +10085,10 @@
       <c r="A11" s="19"/>
       <c r="B11" s="25"/>
       <c r="C11" s="119"/>
-      <c r="D11" s="289" t="s">
+      <c r="D11" s="296" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="290"/>
+      <c r="E11" s="297"/>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
@@ -10128,8 +10128,8 @@
       <c r="A12" s="19"/>
       <c r="B12" s="25"/>
       <c r="C12" s="118"/>
-      <c r="D12" s="289"/>
-      <c r="E12" s="290"/>
+      <c r="D12" s="296"/>
+      <c r="E12" s="297"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="19"/>
@@ -10212,12 +10212,12 @@
         <v>217</v>
       </c>
       <c r="C14" s="263"/>
-      <c r="D14" s="294" t="s">
+      <c r="D14" s="301" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="294"/>
-      <c r="F14" s="294"/>
-      <c r="G14" s="294"/>
+      <c r="E14" s="301"/>
+      <c r="F14" s="301"/>
+      <c r="G14" s="301"/>
       <c r="H14" s="260"/>
       <c r="I14" s="228"/>
       <c r="J14" s="228"/>
@@ -10255,10 +10255,10 @@
       <c r="A15" s="239"/>
       <c r="B15" s="189"/>
       <c r="C15" s="262"/>
-      <c r="D15" s="295"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="295"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
       <c r="H15" s="261"/>
       <c r="I15" s="240"/>
       <c r="J15" s="240"/>
@@ -10295,16 +10295,16 @@
     </row>
     <row r="16" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="239"/>
-      <c r="B16" s="292"/>
+      <c r="B16" s="299"/>
       <c r="C16" s="244"/>
-      <c r="D16" s="303" t="s">
+      <c r="D16" s="290" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="303"/>
-      <c r="F16" s="303"/>
-      <c r="G16" s="303"/>
-      <c r="H16" s="303"/>
-      <c r="I16" s="303"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
       <c r="J16" s="247"/>
       <c r="K16" s="242"/>
       <c r="L16" s="240"/>
@@ -10339,16 +10339,16 @@
     </row>
     <row r="17" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="239"/>
-      <c r="B17" s="292"/>
+      <c r="B17" s="299"/>
       <c r="C17" s="244"/>
-      <c r="D17" s="303" t="s">
+      <c r="D17" s="290" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="303"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="303"/>
-      <c r="I17" s="303"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="290"/>
       <c r="J17" s="240"/>
       <c r="K17" s="240"/>
       <c r="L17" s="240"/>
@@ -10383,16 +10383,16 @@
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
-      <c r="B18" s="292"/>
+      <c r="B18" s="299"/>
       <c r="C18" s="236"/>
-      <c r="D18" s="303" t="s">
+      <c r="D18" s="290" t="s">
         <v>220</v>
       </c>
-      <c r="E18" s="303"/>
-      <c r="F18" s="303"/>
-      <c r="G18" s="303"/>
-      <c r="H18" s="303"/>
-      <c r="I18" s="303"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="290"/>
       <c r="J18" s="240"/>
       <c r="K18" s="226"/>
       <c r="L18" s="226"/>
@@ -10426,16 +10426,16 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
-      <c r="B19" s="292"/>
+      <c r="B19" s="299"/>
       <c r="C19" s="236"/>
-      <c r="D19" s="303" t="s">
+      <c r="D19" s="290" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="303"/>
-      <c r="F19" s="303"/>
-      <c r="G19" s="303"/>
-      <c r="H19" s="303"/>
-      <c r="I19" s="303"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="290"/>
+      <c r="I19" s="290"/>
       <c r="J19" s="240"/>
       <c r="K19" s="226"/>
       <c r="L19" s="226"/>
@@ -10555,11 +10555,11 @@
       <c r="A22" s="19"/>
       <c r="B22" s="229"/>
       <c r="C22" s="226"/>
-      <c r="D22" s="296" t="s">
+      <c r="D22" s="303" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="297"/>
-      <c r="F22" s="298"/>
+      <c r="E22" s="304"/>
+      <c r="F22" s="305"/>
       <c r="G22" s="273" t="s">
         <v>214</v>
       </c>
@@ -10603,11 +10603,11 @@
       <c r="A23" s="239"/>
       <c r="B23" s="229"/>
       <c r="C23" s="240"/>
-      <c r="D23" s="304" t="s">
+      <c r="D23" s="291" t="s">
         <v>224</v>
       </c>
-      <c r="E23" s="305"/>
-      <c r="F23" s="306"/>
+      <c r="E23" s="292"/>
+      <c r="F23" s="293"/>
       <c r="G23" s="274" t="s">
         <v>214</v>
       </c>
@@ -10649,11 +10649,11 @@
       <c r="A24" s="19"/>
       <c r="B24" s="229"/>
       <c r="C24" s="226"/>
-      <c r="D24" s="299" t="s">
+      <c r="D24" s="306" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
+      <c r="E24" s="306"/>
+      <c r="F24" s="306"/>
       <c r="G24" s="240"/>
       <c r="H24" s="240"/>
       <c r="I24" s="240"/>
@@ -10695,9 +10695,9 @@
       <c r="A25" s="19"/>
       <c r="B25" s="229"/>
       <c r="C25" s="240"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
+      <c r="D25" s="306"/>
+      <c r="E25" s="306"/>
+      <c r="F25" s="306"/>
       <c r="G25" s="253"/>
       <c r="H25" s="240"/>
       <c r="I25" s="240"/>
@@ -11058,7 +11058,7 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="264"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="300" t="s">
         <v>210</v>
       </c>
       <c r="C33" s="240"/>
@@ -11107,7 +11107,7 @@
     </row>
     <row r="34" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="264"/>
-      <c r="B34" s="293"/>
+      <c r="B34" s="300"/>
       <c r="C34" s="240"/>
       <c r="D34" s="240"/>
       <c r="E34" s="78"/>
@@ -11563,7 +11563,7 @@
     </row>
     <row r="44" spans="1:40" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
-      <c r="B44" s="291" t="s">
+      <c r="B44" s="298" t="s">
         <v>210</v>
       </c>
       <c r="C44" s="79"/>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
-      <c r="B45" s="291"/>
+      <c r="B45" s="298"/>
       <c r="C45" s="79"/>
       <c r="D45" s="23"/>
       <c r="E45" s="37" t="s">
@@ -11661,7 +11661,7 @@
     </row>
     <row r="46" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
-      <c r="B46" s="291"/>
+      <c r="B46" s="298"/>
       <c r="C46" s="79"/>
       <c r="D46" s="23"/>
       <c r="E46" s="37" t="s">
@@ -12371,7 +12371,7 @@
         <v>196</v>
       </c>
       <c r="F61" s="209">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="G61" s="101" t="s">
         <v>26</v>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="F62" s="210">
         <f>IGATEMAX/(CONE/1000000000)*(COUTMAX/1000000)*1000</f>
-        <v>6200</v>
+        <v>1319.1489361702129</v>
       </c>
       <c r="G62" s="101" t="s">
         <v>192</v>
@@ -12469,7 +12469,7 @@
       </c>
       <c r="F63" s="5">
         <f>IGATEMAX/(CONE/1000000)</f>
-        <v>3.1</v>
+        <v>0.65957446808510645</v>
       </c>
       <c r="G63" s="101" t="s">
         <v>162</v>
@@ -12517,7 +12517,7 @@
       </c>
       <c r="F64" s="28">
         <f>IF(INRUSH="YES",(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMIN*1000+(CONE/1000000000)*(VINMAX+VGATEMAX)/IGATEMAX*1000,(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMIN*1000)</f>
-        <v>12.011385199240987</v>
+        <v>53.188804554079688</v>
       </c>
       <c r="G64" s="101" t="s">
         <v>0</v>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="F65" s="28">
         <f>IF(INRUSH="YES",(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATETYP*1000+(CONE/1000000000)*(VINNOM+VGATETYP)/IGATETYP*1000,(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATETYP*1000)</f>
-        <v>12.708333333333336</v>
+        <v>57.416666666666664</v>
       </c>
       <c r="G65" s="101" t="s">
         <v>0</v>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="F66" s="28">
         <f>IF(INRUSH="YES",(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMAX*1000+(CONE/1000000000)*(VINMIN+VGATEMIN)/IGATEMIN*1000,(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMAX*1000)</f>
-        <v>7.8368121442125229</v>
+        <v>35.042694497153704</v>
       </c>
       <c r="G66" s="101" t="s">
         <v>0</v>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="F67" s="215">
         <f>VDSFLTTMEMIN/1000*(ITMRLMAX)/VTMRHMIN*1000000000</f>
-        <v>42.03984819734346</v>
+        <v>186.16081593927893</v>
       </c>
       <c r="G67" s="101" t="s">
         <v>26</v>
@@ -12708,7 +12708,7 @@
         <v>99</v>
       </c>
       <c r="F68" s="211">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="G68" s="101" t="s">
         <v>26</v>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="F69" s="216">
         <f>VTMRHMIN*CTMR/1000000/ITMRLMAX</f>
-        <v>13.428571428571429</v>
+        <v>62.857142857142861</v>
       </c>
       <c r="G69" s="101" t="s">
         <v>0</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="F70" s="216">
         <f>VTMRHTYP*CTMR/1000000/ITMRLTYP</f>
-        <v>15.666666666666666</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="G70" s="101" t="s">
         <v>0</v>
@@ -12852,7 +12852,7 @@
       </c>
       <c r="F71" s="216">
         <f>VTMRHMAX*CTMR/1000000/ITMRLMIN</f>
-        <v>23.5</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="G71" s="101" t="s">
         <v>0</v>
@@ -12900,7 +12900,7 @@
       </c>
       <c r="F72" s="216">
         <f>VTMRHMIN*CTMR/1000000/ITMRHMAX</f>
-        <v>7.2307692307692308</v>
+        <v>33.846153846153847</v>
       </c>
       <c r="G72" s="101" t="s">
         <v>0</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="F73" s="216">
         <f>VTMRHTYP*CTMR/1000000/ITMRHTYP</f>
-        <v>8.545454545454545</v>
+        <v>40</v>
       </c>
       <c r="G73" s="101" t="s">
         <v>0</v>
@@ -12996,7 +12996,7 @@
       </c>
       <c r="F74" s="216">
         <f>VTMRHMAX*CTMR/1000000/ITMRHMIN</f>
-        <v>11.058823529411764</v>
+        <v>51.764705882352942</v>
       </c>
       <c r="G74" s="101" t="s">
         <v>0</v>
@@ -13977,13 +13977,13 @@
     <row r="94" spans="1:39" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="66"/>
-      <c r="C94" s="300" t="s">
+      <c r="C94" s="287" t="s">
         <v>49</v>
       </c>
-      <c r="D94" s="300"/>
-      <c r="E94" s="300"/>
-      <c r="F94" s="300"/>
-      <c r="G94" s="301"/>
+      <c r="D94" s="287"/>
+      <c r="E94" s="287"/>
+      <c r="F94" s="287"/>
+      <c r="G94" s="288"/>
       <c r="H94" s="79"/>
       <c r="I94" s="79"/>
       <c r="J94" s="23"/>
@@ -14020,11 +14020,11 @@
     <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="66"/>
-      <c r="C95" s="300"/>
-      <c r="D95" s="300"/>
-      <c r="E95" s="300"/>
-      <c r="F95" s="300"/>
-      <c r="G95" s="301"/>
+      <c r="C95" s="287"/>
+      <c r="D95" s="287"/>
+      <c r="E95" s="287"/>
+      <c r="F95" s="287"/>
+      <c r="G95" s="288"/>
       <c r="H95" s="79"/>
       <c r="I95" s="79"/>
       <c r="J95" s="23"/>
@@ -14061,11 +14061,11 @@
     <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="66"/>
-      <c r="C96" s="300"/>
-      <c r="D96" s="300"/>
-      <c r="E96" s="300"/>
-      <c r="F96" s="300"/>
-      <c r="G96" s="301"/>
+      <c r="C96" s="287"/>
+      <c r="D96" s="287"/>
+      <c r="E96" s="287"/>
+      <c r="F96" s="287"/>
+      <c r="G96" s="288"/>
       <c r="H96" s="79"/>
       <c r="I96" s="79"/>
       <c r="J96" s="23"/>
@@ -14320,7 +14320,7 @@
       </c>
       <c r="K101" s="89">
         <f>F70</f>
-        <v>15.666666666666666</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="L101" s="163" t="str">
         <f>G70</f>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="K102" s="89">
         <f>F73</f>
-        <v>8.545454545454545</v>
+        <v>40</v>
       </c>
       <c r="L102" s="163" t="str">
         <f>G73</f>
@@ -14640,7 +14640,7 @@
       </c>
       <c r="F107" s="48">
         <f>CTMR</f>
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="G107" s="101" t="s">
         <v>26</v>
@@ -14737,7 +14737,7 @@
       </c>
       <c r="F109" s="49">
         <f>CONE</f>
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="G109" s="101" t="s">
         <v>26</v>
@@ -18123,13 +18123,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="C94:G96"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D23:F23"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="B44:B46"/>
@@ -18138,6 +18131,13 @@
     <mergeCell ref="D14:G15"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D24:F25"/>
+    <mergeCell ref="C94:G96"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D23:F23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G83">
@@ -22051,18 +22051,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22082,6 +22082,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F385080-AA43-47B1-B5FC-DE683234294C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F9DA69-AC46-4980-8991-D5FD33AE93E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -22094,12 +22102,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F385080-AA43-47B1-B5FC-DE683234294C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LM5060 Design_Calculator_REV_C.xlsx
+++ b/LM5060 Design_Calculator_REV_C.xlsx
@@ -3108,27 +3108,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3166,6 +3145,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9606,8 +9606,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9664,21 +9664,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="83" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="287" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
@@ -9721,8 +9721,8 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="289"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="302"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -10085,10 +10085,10 @@
       <c r="A11" s="19"/>
       <c r="B11" s="25"/>
       <c r="C11" s="119"/>
-      <c r="D11" s="296" t="s">
+      <c r="D11" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="297"/>
+      <c r="E11" s="290"/>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
@@ -10128,8 +10128,8 @@
       <c r="A12" s="19"/>
       <c r="B12" s="25"/>
       <c r="C12" s="118"/>
-      <c r="D12" s="296"/>
-      <c r="E12" s="297"/>
+      <c r="D12" s="289"/>
+      <c r="E12" s="290"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="19"/>
@@ -10212,12 +10212,12 @@
         <v>217</v>
       </c>
       <c r="C14" s="263"/>
-      <c r="D14" s="301" t="s">
+      <c r="D14" s="294" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="301"/>
-      <c r="F14" s="301"/>
-      <c r="G14" s="301"/>
+      <c r="E14" s="294"/>
+      <c r="F14" s="294"/>
+      <c r="G14" s="294"/>
       <c r="H14" s="260"/>
       <c r="I14" s="228"/>
       <c r="J14" s="228"/>
@@ -10255,10 +10255,10 @@
       <c r="A15" s="239"/>
       <c r="B15" s="189"/>
       <c r="C15" s="262"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="302"/>
-      <c r="F15" s="302"/>
-      <c r="G15" s="302"/>
+      <c r="D15" s="295"/>
+      <c r="E15" s="295"/>
+      <c r="F15" s="295"/>
+      <c r="G15" s="295"/>
       <c r="H15" s="261"/>
       <c r="I15" s="240"/>
       <c r="J15" s="240"/>
@@ -10295,16 +10295,16 @@
     </row>
     <row r="16" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="239"/>
-      <c r="B16" s="299"/>
+      <c r="B16" s="292"/>
       <c r="C16" s="244"/>
-      <c r="D16" s="290" t="s">
+      <c r="D16" s="303" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
+      <c r="E16" s="303"/>
+      <c r="F16" s="303"/>
+      <c r="G16" s="303"/>
+      <c r="H16" s="303"/>
+      <c r="I16" s="303"/>
       <c r="J16" s="247"/>
       <c r="K16" s="242"/>
       <c r="L16" s="240"/>
@@ -10339,16 +10339,16 @@
     </row>
     <row r="17" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="239"/>
-      <c r="B17" s="299"/>
+      <c r="B17" s="292"/>
       <c r="C17" s="244"/>
-      <c r="D17" s="290" t="s">
+      <c r="D17" s="303" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="290"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="290"/>
-      <c r="H17" s="290"/>
-      <c r="I17" s="290"/>
+      <c r="E17" s="303"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="303"/>
+      <c r="I17" s="303"/>
       <c r="J17" s="240"/>
       <c r="K17" s="240"/>
       <c r="L17" s="240"/>
@@ -10383,16 +10383,16 @@
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
-      <c r="B18" s="299"/>
+      <c r="B18" s="292"/>
       <c r="C18" s="236"/>
-      <c r="D18" s="290" t="s">
+      <c r="D18" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E18" s="290"/>
-      <c r="F18" s="290"/>
-      <c r="G18" s="290"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="290"/>
+      <c r="E18" s="303"/>
+      <c r="F18" s="303"/>
+      <c r="G18" s="303"/>
+      <c r="H18" s="303"/>
+      <c r="I18" s="303"/>
       <c r="J18" s="240"/>
       <c r="K18" s="226"/>
       <c r="L18" s="226"/>
@@ -10426,16 +10426,16 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
-      <c r="B19" s="299"/>
+      <c r="B19" s="292"/>
       <c r="C19" s="236"/>
-      <c r="D19" s="290" t="s">
+      <c r="D19" s="303" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="290"/>
-      <c r="F19" s="290"/>
-      <c r="G19" s="290"/>
-      <c r="H19" s="290"/>
-      <c r="I19" s="290"/>
+      <c r="E19" s="303"/>
+      <c r="F19" s="303"/>
+      <c r="G19" s="303"/>
+      <c r="H19" s="303"/>
+      <c r="I19" s="303"/>
       <c r="J19" s="240"/>
       <c r="K19" s="226"/>
       <c r="L19" s="226"/>
@@ -10555,11 +10555,11 @@
       <c r="A22" s="19"/>
       <c r="B22" s="229"/>
       <c r="C22" s="226"/>
-      <c r="D22" s="303" t="s">
+      <c r="D22" s="296" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="304"/>
-      <c r="F22" s="305"/>
+      <c r="E22" s="297"/>
+      <c r="F22" s="298"/>
       <c r="G22" s="273" t="s">
         <v>214</v>
       </c>
@@ -10603,11 +10603,11 @@
       <c r="A23" s="239"/>
       <c r="B23" s="229"/>
       <c r="C23" s="240"/>
-      <c r="D23" s="291" t="s">
+      <c r="D23" s="304" t="s">
         <v>224</v>
       </c>
-      <c r="E23" s="292"/>
-      <c r="F23" s="293"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="306"/>
       <c r="G23" s="274" t="s">
         <v>214</v>
       </c>
@@ -10649,11 +10649,11 @@
       <c r="A24" s="19"/>
       <c r="B24" s="229"/>
       <c r="C24" s="226"/>
-      <c r="D24" s="306" t="s">
+      <c r="D24" s="299" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="306"/>
-      <c r="F24" s="306"/>
+      <c r="E24" s="299"/>
+      <c r="F24" s="299"/>
       <c r="G24" s="240"/>
       <c r="H24" s="240"/>
       <c r="I24" s="240"/>
@@ -10695,9 +10695,9 @@
       <c r="A25" s="19"/>
       <c r="B25" s="229"/>
       <c r="C25" s="240"/>
-      <c r="D25" s="306"/>
-      <c r="E25" s="306"/>
-      <c r="F25" s="306"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="299"/>
+      <c r="F25" s="299"/>
       <c r="G25" s="253"/>
       <c r="H25" s="240"/>
       <c r="I25" s="240"/>
@@ -11058,7 +11058,7 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="264"/>
-      <c r="B33" s="300" t="s">
+      <c r="B33" s="293" t="s">
         <v>210</v>
       </c>
       <c r="C33" s="240"/>
@@ -11107,7 +11107,7 @@
     </row>
     <row r="34" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="264"/>
-      <c r="B34" s="300"/>
+      <c r="B34" s="293"/>
       <c r="C34" s="240"/>
       <c r="D34" s="240"/>
       <c r="E34" s="78"/>
@@ -11523,7 +11523,7 @@
         <v>72</v>
       </c>
       <c r="F43" s="173">
-        <v>1.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G43" s="171" t="s">
         <v>179</v>
@@ -11563,7 +11563,7 @@
     </row>
     <row r="44" spans="1:40" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
-      <c r="B44" s="298" t="s">
+      <c r="B44" s="291" t="s">
         <v>210</v>
       </c>
       <c r="C44" s="79"/>
@@ -11572,7 +11572,7 @@
         <v>73</v>
       </c>
       <c r="F44" s="112">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="G44" s="171" t="s">
         <v>179</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
-      <c r="B45" s="298"/>
+      <c r="B45" s="291"/>
       <c r="C45" s="79"/>
       <c r="D45" s="23"/>
       <c r="E45" s="37" t="s">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F45" s="5">
         <f>(RDSTYP/RDSMAX)*RDSTYP</f>
-        <v>1.5041666666666664</v>
+        <v>0.86428571428571443</v>
       </c>
       <c r="G45" s="171" t="s">
         <v>179</v>
@@ -11661,7 +11661,7 @@
     </row>
     <row r="46" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
-      <c r="B46" s="298"/>
+      <c r="B46" s="291"/>
       <c r="C46" s="79"/>
       <c r="D46" s="23"/>
       <c r="E46" s="37" t="s">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="F48" s="220">
         <f>IF(REVPOL="no",IF(BBFET="no",((RDSMAX/1000)*TRDSMAX/NUMFETS*IOUTMAX+VOFFSETMAX)/ISNSMIN/1000,(((RDSMAX/1000)*TRDSMAX/NUMFETS+(RDSMAX/1000)*TRDSMAX)*IOUTMAX+VOFFSETMAX)/ISNSMIN/1000),IF(BBFET="no",((RDSMAX/1000)*TRDSMAX*IOUTMAX/NUMFETS+VOFFSETMAX)/ISNSMIN/1000+((RO*1000)/IRATIOMIN)/1000,(((RDSMAX/1000)*TRDSMAX/NUMFETS+(RDSMAX/1000)*TRDSMAX)*IOUTMAX+VOFFSETMAX)/ISNSMIN/1000+((RO*1000)/IRATIOMIN)/1000))</f>
-        <v>2.2088235294117644</v>
+        <v>1.5029411764705882</v>
       </c>
       <c r="G48" s="171" t="s">
         <v>180</v>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="F50" s="28">
         <f>IF(REVPOL="no", ((RS*1000)*ISNSMIN-VOFFSETMAX)/((RDSMAX/1000)*TRDSMAX*(1/NUMFETS+IF(BBFET="YES",1,0))),(((RS*1000)-(RO*1000)/IRATIOMIN)*ISNSMIN-VOFFSETMAX)/((RDSMAX/1000)*TRDSMAX*(1/NUMFETS+IF(BBFET="YES",1,0))))</f>
-        <v>3.236111111111112</v>
+        <v>5.5476190476190492</v>
       </c>
       <c r="G50" s="171" t="s">
         <v>7</v>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="F51" s="28">
         <f>IF(REVPOL="no",((RS*1000)*ISNSTYP-VOFFSETTYP)/((RDSTYP/1000)*(1/NUMFETS+IF(BBFET="YES",1,0))),(((RS*1000)-(RO*1000)/IRATIOTYP)*ISNSTYP)/((RDSTYP/1000)*(1/NUMFETS+IF(BBFET="YES",1,0))*1))</f>
-        <v>10.105263157894736</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="G51" s="171" t="s">
         <v>7</v>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="F52" s="28">
         <f>IF(REVPOL="no",((RS*1000)*ISNSMAX-VOFFSETMIN)/((RDSMIN/1000)*TRDSMIN*(1/NUMFETS+IF(BBFET="YES",1,0))),(((RS*1000)-(RO*1000)/IRATIOMAX)*ISNSMAX-VOFFSETMIN)/((RDSMIN/1000)*TRDSMIN*(1/NUMFETS+IF(BBFET="YES",1,0))))</f>
-        <v>21.126500461680518</v>
+        <v>36.767676767676761</v>
       </c>
       <c r="G52" s="171" t="s">
         <v>7</v>
@@ -13977,13 +13977,13 @@
     <row r="94" spans="1:39" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="66"/>
-      <c r="C94" s="287" t="s">
+      <c r="C94" s="300" t="s">
         <v>49</v>
       </c>
-      <c r="D94" s="287"/>
-      <c r="E94" s="287"/>
-      <c r="F94" s="287"/>
-      <c r="G94" s="288"/>
+      <c r="D94" s="300"/>
+      <c r="E94" s="300"/>
+      <c r="F94" s="300"/>
+      <c r="G94" s="301"/>
       <c r="H94" s="79"/>
       <c r="I94" s="79"/>
       <c r="J94" s="23"/>
@@ -14020,11 +14020,11 @@
     <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="66"/>
-      <c r="C95" s="287"/>
-      <c r="D95" s="287"/>
-      <c r="E95" s="287"/>
-      <c r="F95" s="287"/>
-      <c r="G95" s="288"/>
+      <c r="C95" s="300"/>
+      <c r="D95" s="300"/>
+      <c r="E95" s="300"/>
+      <c r="F95" s="300"/>
+      <c r="G95" s="301"/>
       <c r="H95" s="79"/>
       <c r="I95" s="79"/>
       <c r="J95" s="23"/>
@@ -14061,11 +14061,11 @@
     <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="66"/>
-      <c r="C96" s="287"/>
-      <c r="D96" s="287"/>
-      <c r="E96" s="287"/>
-      <c r="F96" s="287"/>
-      <c r="G96" s="288"/>
+      <c r="C96" s="300"/>
+      <c r="D96" s="300"/>
+      <c r="E96" s="300"/>
+      <c r="F96" s="300"/>
+      <c r="G96" s="301"/>
       <c r="H96" s="79"/>
       <c r="I96" s="79"/>
       <c r="J96" s="23"/>
@@ -14264,7 +14264,7 @@
       </c>
       <c r="K100" s="89">
         <f>OCTYP</f>
-        <v>10.105263157894736</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="L100" s="163" t="str">
         <f>G51</f>
@@ -18123,6 +18123,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="C94:G96"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="B44:B46"/>
@@ -18131,13 +18138,6 @@
     <mergeCell ref="D14:G15"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D24:F25"/>
-    <mergeCell ref="C94:G96"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D23:F23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G83">
@@ -22051,18 +22051,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22082,14 +22082,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F385080-AA43-47B1-B5FC-DE683234294C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F9DA69-AC46-4980-8991-D5FD33AE93E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -22102,4 +22094,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F385080-AA43-47B1-B5FC-DE683234294C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LM5060 Design_Calculator_REV_C.xlsx
+++ b/LM5060 Design_Calculator_REV_C.xlsx
@@ -1426,7 +1426,7 @@
     <t>LM5060 Design Tool- Rev. C</t>
   </si>
   <si>
-    <t>IRFR7440</t>
+    <t>IRFH7004TRPBF</t>
   </si>
 </sst>
 </file>
@@ -3108,6 +3108,27 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3145,27 +3166,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9606,8 +9606,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9664,21 +9664,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="83" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="294" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
@@ -9721,8 +9721,8 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="302"/>
-      <c r="M2" s="302"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="289"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -10085,10 +10085,10 @@
       <c r="A11" s="19"/>
       <c r="B11" s="25"/>
       <c r="C11" s="119"/>
-      <c r="D11" s="289" t="s">
+      <c r="D11" s="296" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="290"/>
+      <c r="E11" s="297"/>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
@@ -10128,8 +10128,8 @@
       <c r="A12" s="19"/>
       <c r="B12" s="25"/>
       <c r="C12" s="118"/>
-      <c r="D12" s="289"/>
-      <c r="E12" s="290"/>
+      <c r="D12" s="296"/>
+      <c r="E12" s="297"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="19"/>
@@ -10212,12 +10212,12 @@
         <v>217</v>
       </c>
       <c r="C14" s="263"/>
-      <c r="D14" s="294" t="s">
+      <c r="D14" s="301" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="294"/>
-      <c r="F14" s="294"/>
-      <c r="G14" s="294"/>
+      <c r="E14" s="301"/>
+      <c r="F14" s="301"/>
+      <c r="G14" s="301"/>
       <c r="H14" s="260"/>
       <c r="I14" s="228"/>
       <c r="J14" s="228"/>
@@ -10255,10 +10255,10 @@
       <c r="A15" s="239"/>
       <c r="B15" s="189"/>
       <c r="C15" s="262"/>
-      <c r="D15" s="295"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="295"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
       <c r="H15" s="261"/>
       <c r="I15" s="240"/>
       <c r="J15" s="240"/>
@@ -10295,16 +10295,16 @@
     </row>
     <row r="16" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="239"/>
-      <c r="B16" s="292"/>
+      <c r="B16" s="299"/>
       <c r="C16" s="244"/>
-      <c r="D16" s="303" t="s">
+      <c r="D16" s="290" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="303"/>
-      <c r="F16" s="303"/>
-      <c r="G16" s="303"/>
-      <c r="H16" s="303"/>
-      <c r="I16" s="303"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
       <c r="J16" s="247"/>
       <c r="K16" s="242"/>
       <c r="L16" s="240"/>
@@ -10339,16 +10339,16 @@
     </row>
     <row r="17" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="239"/>
-      <c r="B17" s="292"/>
+      <c r="B17" s="299"/>
       <c r="C17" s="244"/>
-      <c r="D17" s="303" t="s">
+      <c r="D17" s="290" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="303"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="303"/>
-      <c r="I17" s="303"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="290"/>
       <c r="J17" s="240"/>
       <c r="K17" s="240"/>
       <c r="L17" s="240"/>
@@ -10383,16 +10383,16 @@
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
-      <c r="B18" s="292"/>
+      <c r="B18" s="299"/>
       <c r="C18" s="236"/>
-      <c r="D18" s="303" t="s">
+      <c r="D18" s="290" t="s">
         <v>220</v>
       </c>
-      <c r="E18" s="303"/>
-      <c r="F18" s="303"/>
-      <c r="G18" s="303"/>
-      <c r="H18" s="303"/>
-      <c r="I18" s="303"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="290"/>
       <c r="J18" s="240"/>
       <c r="K18" s="226"/>
       <c r="L18" s="226"/>
@@ -10426,16 +10426,16 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
-      <c r="B19" s="292"/>
+      <c r="B19" s="299"/>
       <c r="C19" s="236"/>
-      <c r="D19" s="303" t="s">
+      <c r="D19" s="290" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="303"/>
-      <c r="F19" s="303"/>
-      <c r="G19" s="303"/>
-      <c r="H19" s="303"/>
-      <c r="I19" s="303"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="290"/>
+      <c r="I19" s="290"/>
       <c r="J19" s="240"/>
       <c r="K19" s="226"/>
       <c r="L19" s="226"/>
@@ -10555,11 +10555,11 @@
       <c r="A22" s="19"/>
       <c r="B22" s="229"/>
       <c r="C22" s="226"/>
-      <c r="D22" s="296" t="s">
+      <c r="D22" s="303" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="297"/>
-      <c r="F22" s="298"/>
+      <c r="E22" s="304"/>
+      <c r="F22" s="305"/>
       <c r="G22" s="273" t="s">
         <v>214</v>
       </c>
@@ -10603,11 +10603,11 @@
       <c r="A23" s="239"/>
       <c r="B23" s="229"/>
       <c r="C23" s="240"/>
-      <c r="D23" s="304" t="s">
+      <c r="D23" s="291" t="s">
         <v>224</v>
       </c>
-      <c r="E23" s="305"/>
-      <c r="F23" s="306"/>
+      <c r="E23" s="292"/>
+      <c r="F23" s="293"/>
       <c r="G23" s="274" t="s">
         <v>214</v>
       </c>
@@ -10649,11 +10649,11 @@
       <c r="A24" s="19"/>
       <c r="B24" s="229"/>
       <c r="C24" s="226"/>
-      <c r="D24" s="299" t="s">
+      <c r="D24" s="306" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
+      <c r="E24" s="306"/>
+      <c r="F24" s="306"/>
       <c r="G24" s="240"/>
       <c r="H24" s="240"/>
       <c r="I24" s="240"/>
@@ -10695,9 +10695,9 @@
       <c r="A25" s="19"/>
       <c r="B25" s="229"/>
       <c r="C25" s="240"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
+      <c r="D25" s="306"/>
+      <c r="E25" s="306"/>
+      <c r="F25" s="306"/>
       <c r="G25" s="253"/>
       <c r="H25" s="240"/>
       <c r="I25" s="240"/>
@@ -11058,7 +11058,7 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="264"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="300" t="s">
         <v>210</v>
       </c>
       <c r="C33" s="240"/>
@@ -11107,7 +11107,7 @@
     </row>
     <row r="34" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="264"/>
-      <c r="B34" s="293"/>
+      <c r="B34" s="300"/>
       <c r="C34" s="240"/>
       <c r="D34" s="240"/>
       <c r="E34" s="78"/>
@@ -11563,7 +11563,7 @@
     </row>
     <row r="44" spans="1:40" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
-      <c r="B44" s="291" t="s">
+      <c r="B44" s="298" t="s">
         <v>210</v>
       </c>
       <c r="C44" s="79"/>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
-      <c r="B45" s="291"/>
+      <c r="B45" s="298"/>
       <c r="C45" s="79"/>
       <c r="D45" s="23"/>
       <c r="E45" s="37" t="s">
@@ -11661,7 +11661,7 @@
     </row>
     <row r="46" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
-      <c r="B46" s="291"/>
+      <c r="B46" s="298"/>
       <c r="C46" s="79"/>
       <c r="D46" s="23"/>
       <c r="E46" s="37" t="s">
@@ -12276,7 +12276,7 @@
         <v>197</v>
       </c>
       <c r="F59" s="173">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G59" s="101" t="s">
         <v>192</v>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="F60" s="208">
         <f>IGATEMAX/(DINRUSH/1000)*(COUTMAX/1000000)*1000000000</f>
-        <v>31</v>
+        <v>6.2</v>
       </c>
       <c r="G60" s="101" t="s">
         <v>26</v>
@@ -12371,7 +12371,7 @@
         <v>196</v>
       </c>
       <c r="F61" s="209">
-        <v>47</v>
+        <v>4.7</v>
       </c>
       <c r="G61" s="101" t="s">
         <v>26</v>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="F62" s="210">
         <f>IGATEMAX/(CONE/1000000000)*(COUTMAX/1000000)*1000</f>
-        <v>1319.1489361702129</v>
+        <v>13191.489361702128</v>
       </c>
       <c r="G62" s="101" t="s">
         <v>192</v>
@@ -12469,7 +12469,7 @@
       </c>
       <c r="F63" s="5">
         <f>IGATEMAX/(CONE/1000000)</f>
-        <v>0.65957446808510645</v>
+        <v>6.5957446808510642</v>
       </c>
       <c r="G63" s="101" t="s">
         <v>162</v>
@@ -12517,7 +12517,7 @@
       </c>
       <c r="F64" s="28">
         <f>IF(INRUSH="YES",(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMIN*1000+(CONE/1000000000)*(VINMAX+VGATEMAX)/IGATEMAX*1000,(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMIN*1000)</f>
-        <v>53.188804554079688</v>
+        <v>6.1129981024667934</v>
       </c>
       <c r="G64" s="101" t="s">
         <v>0</v>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="F65" s="28">
         <f>IF(INRUSH="YES",(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATETYP*1000+(CONE/1000000000)*(VINNOM+VGATETYP)/IGATETYP*1000,(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATETYP*1000)</f>
-        <v>57.416666666666664</v>
+        <v>6.3041666666666663</v>
       </c>
       <c r="G65" s="101" t="s">
         <v>0</v>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="F66" s="28">
         <f>IF(INRUSH="YES",(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMAX*1000+(CONE/1000000000)*(VINMIN+VGATEMIN)/IGATEMIN*1000,(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMAX*1000)</f>
-        <v>35.042694497153704</v>
+        <v>3.9397533206831121</v>
       </c>
       <c r="G66" s="101" t="s">
         <v>0</v>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="F67" s="215">
         <f>VDSFLTTMEMIN/1000*(ITMRLMAX)/VTMRHMIN*1000000000</f>
-        <v>186.16081593927893</v>
+        <v>21.395493358633775</v>
       </c>
       <c r="G67" s="101" t="s">
         <v>26</v>
@@ -12708,7 +12708,7 @@
         <v>99</v>
       </c>
       <c r="F68" s="211">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="G68" s="101" t="s">
         <v>26</v>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="F69" s="216">
         <f>VTMRHMIN*CTMR/1000000/ITMRLMAX</f>
-        <v>62.857142857142861</v>
+        <v>13.428571428571429</v>
       </c>
       <c r="G69" s="101" t="s">
         <v>0</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="F70" s="216">
         <f>VTMRHTYP*CTMR/1000000/ITMRLTYP</f>
-        <v>73.333333333333329</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="G70" s="101" t="s">
         <v>0</v>
@@ -12852,7 +12852,7 @@
       </c>
       <c r="F71" s="216">
         <f>VTMRHMAX*CTMR/1000000/ITMRLMIN</f>
-        <v>110.00000000000001</v>
+        <v>23.5</v>
       </c>
       <c r="G71" s="101" t="s">
         <v>0</v>
@@ -12900,7 +12900,7 @@
       </c>
       <c r="F72" s="216">
         <f>VTMRHMIN*CTMR/1000000/ITMRHMAX</f>
-        <v>33.846153846153847</v>
+        <v>7.2307692307692308</v>
       </c>
       <c r="G72" s="101" t="s">
         <v>0</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="F73" s="216">
         <f>VTMRHTYP*CTMR/1000000/ITMRHTYP</f>
-        <v>40</v>
+        <v>8.545454545454545</v>
       </c>
       <c r="G73" s="101" t="s">
         <v>0</v>
@@ -12996,7 +12996,7 @@
       </c>
       <c r="F74" s="216">
         <f>VTMRHMAX*CTMR/1000000/ITMRHMIN</f>
-        <v>51.764705882352942</v>
+        <v>11.058823529411764</v>
       </c>
       <c r="G74" s="101" t="s">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>R1</v>
       </c>
       <c r="F80" s="181">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G80" s="105" t="s">
         <v>16</v>
@@ -13329,7 +13329,7 @@
       </c>
       <c r="F81" s="54">
         <f>IF(F76="Option A",IF(F77="No Hysteresis",RRTWO, RRTWOHYS),IF(F77="No Hysteresis",RRTEN, RRTENHYS))</f>
-        <v>22.545029872312721</v>
+        <v>2.2540971073218263</v>
       </c>
       <c r="G81" s="105" t="s">
         <v>16</v>
@@ -13376,7 +13376,7 @@
         <v>Enter the Resistance for R2</v>
       </c>
       <c r="F82" s="114">
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="G82" s="105" t="s">
         <v>16</v>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="F84" s="54">
         <f>IF(F76="Option A",IF(F77="No Hysteresis",RRTHREE,RRTHREEHYS),IF(F77="No Hysteresis",RREIGHT, RREIGHTHYS))</f>
-        <v>14.927426552762137</v>
+        <v>1.4926591120956076</v>
       </c>
       <c r="G84" s="105" t="s">
         <v>16</v>
@@ -13523,7 +13523,7 @@
         <v>Enter the Resistance for R3</v>
       </c>
       <c r="F85" s="114">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G85" s="105" t="s">
         <v>16</v>
@@ -13659,15 +13659,15 @@
       </c>
       <c r="D88" s="50">
         <f>IF($F$76="Option A",Equations!F23,Equations!J23)</f>
-        <v>23.977999999999998</v>
+        <v>23.293999999999997</v>
       </c>
       <c r="E88" s="51">
         <f>IF($F$76="Option A",Equations!F24,Equations!J24)</f>
-        <v>25.8</v>
+        <v>24.81</v>
       </c>
       <c r="F88" s="52">
         <f>IF($F$76="Option A",Equations!F25,Equations!J25)</f>
-        <v>27.622000000000003</v>
+        <v>26.326000000000004</v>
       </c>
       <c r="G88" s="104" t="s">
         <v>17</v>
@@ -13712,15 +13712,15 @@
       </c>
       <c r="D89" s="53">
         <f>IF($F$76="Option A",Equations!F20,Equations!J20)</f>
-        <v>21.013999999999996</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="E89" s="54">
         <f>IF($F$76="Option A",Equations!F21,Equations!J21)</f>
-        <v>22.836000000000002</v>
+        <v>21.846000000000004</v>
       </c>
       <c r="F89" s="55">
         <f>IF($F$76="Option A",Equations!F22,Equations!J22)</f>
-        <v>24.657999999999998</v>
+        <v>23.362000000000002</v>
       </c>
       <c r="G89" s="104" t="s">
         <v>17</v>
@@ -13874,15 +13874,15 @@
       </c>
       <c r="D92" s="50">
         <f>IF($F$76="Option A",Equations!F29,Equations!J29)</f>
-        <v>8.380212765957447</v>
+        <v>7.6962127659574477</v>
       </c>
       <c r="E92" s="51">
         <f>IF($F$76="Option A",Equations!F30,Equations!J30)</f>
-        <v>9.5085106382978726</v>
+        <v>8.5185106382978724</v>
       </c>
       <c r="F92" s="52">
         <f>IF($F$76="Option A",Equations!F31,Equations!J31)</f>
-        <v>10.636808510638296</v>
+        <v>9.340808510638297</v>
       </c>
       <c r="G92" s="104" t="s">
         <v>17</v>
@@ -13928,15 +13928,15 @@
       </c>
       <c r="D93" s="195">
         <f>IF($F$76="Option A",Equations!F26,Equations!J26)</f>
-        <v>7.4014893617021285</v>
+        <v>6.7174893617021283</v>
       </c>
       <c r="E93" s="196">
         <f>IF($F$76="Option A",Equations!F27,Equations!J27)</f>
-        <v>8.7425531914893622</v>
+        <v>7.752553191489362</v>
       </c>
       <c r="F93" s="197">
         <f>IF($F$76="Option A",Equations!F28,Equations!J28)</f>
-        <v>10.126170212765958</v>
+        <v>8.8301702127659567</v>
       </c>
       <c r="G93" s="104" t="s">
         <v>17</v>
@@ -13977,13 +13977,13 @@
     <row r="94" spans="1:39" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="66"/>
-      <c r="C94" s="300" t="s">
+      <c r="C94" s="287" t="s">
         <v>49</v>
       </c>
-      <c r="D94" s="300"/>
-      <c r="E94" s="300"/>
-      <c r="F94" s="300"/>
-      <c r="G94" s="301"/>
+      <c r="D94" s="287"/>
+      <c r="E94" s="287"/>
+      <c r="F94" s="287"/>
+      <c r="G94" s="288"/>
       <c r="H94" s="79"/>
       <c r="I94" s="79"/>
       <c r="J94" s="23"/>
@@ -14020,11 +14020,11 @@
     <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="66"/>
-      <c r="C95" s="300"/>
-      <c r="D95" s="300"/>
-      <c r="E95" s="300"/>
-      <c r="F95" s="300"/>
-      <c r="G95" s="301"/>
+      <c r="C95" s="287"/>
+      <c r="D95" s="287"/>
+      <c r="E95" s="287"/>
+      <c r="F95" s="287"/>
+      <c r="G95" s="288"/>
       <c r="H95" s="79"/>
       <c r="I95" s="79"/>
       <c r="J95" s="23"/>
@@ -14061,11 +14061,11 @@
     <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="66"/>
-      <c r="C96" s="300"/>
-      <c r="D96" s="300"/>
-      <c r="E96" s="300"/>
-      <c r="F96" s="300"/>
-      <c r="G96" s="301"/>
+      <c r="C96" s="287"/>
+      <c r="D96" s="287"/>
+      <c r="E96" s="287"/>
+      <c r="F96" s="287"/>
+      <c r="G96" s="288"/>
       <c r="H96" s="79"/>
       <c r="I96" s="79"/>
       <c r="J96" s="23"/>
@@ -14152,7 +14152,7 @@
       </c>
       <c r="F98" s="185">
         <f>F80</f>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G98" s="201" t="s">
         <v>16</v>
@@ -14200,7 +14200,7 @@
       </c>
       <c r="F99" s="54">
         <f>F82</f>
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="G99" s="202" t="s">
         <v>16</v>
@@ -14252,7 +14252,7 @@
       </c>
       <c r="F100" s="45">
         <f>F85</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G100" s="202" t="s">
         <v>16</v>
@@ -14320,7 +14320,7 @@
       </c>
       <c r="K101" s="89">
         <f>F70</f>
-        <v>73.333333333333329</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="L101" s="163" t="str">
         <f>G70</f>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="K102" s="89">
         <f>F73</f>
-        <v>40</v>
+        <v>8.545454545454545</v>
       </c>
       <c r="L102" s="163" t="str">
         <f>G73</f>
@@ -14420,7 +14420,7 @@
       </c>
       <c r="F103" s="46">
         <f>F85</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G103" s="202" t="s">
         <v>16</v>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="K103" s="89">
         <f>E88</f>
-        <v>25.8</v>
+        <v>24.81</v>
       </c>
       <c r="L103" s="163" t="s">
         <v>17</v>
@@ -14475,7 +14475,7 @@
       </c>
       <c r="F104" s="47">
         <f>F82</f>
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="G104" s="202" t="s">
         <v>16</v>
@@ -14487,7 +14487,7 @@
       </c>
       <c r="K104" s="89">
         <f>E89</f>
-        <v>22.836000000000002</v>
+        <v>21.846000000000004</v>
       </c>
       <c r="L104" s="163" t="s">
         <v>17</v>
@@ -14530,7 +14530,7 @@
       </c>
       <c r="F105" s="47">
         <f>F82</f>
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="G105" s="202" t="s">
         <v>16</v>
@@ -14542,7 +14542,7 @@
       </c>
       <c r="K105" s="89">
         <f>E92</f>
-        <v>9.5085106382978726</v>
+        <v>8.5185106382978724</v>
       </c>
       <c r="L105" s="163" t="s">
         <v>17</v>
@@ -14585,7 +14585,7 @@
       </c>
       <c r="F106" s="49">
         <f>F85</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G106" s="202" t="s">
         <v>16</v>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="K106" s="217">
         <f>E93</f>
-        <v>8.7425531914893622</v>
+        <v>7.752553191489362</v>
       </c>
       <c r="L106" s="166" t="s">
         <v>17</v>
@@ -14640,7 +14640,7 @@
       </c>
       <c r="F107" s="48">
         <f>CTMR</f>
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="G107" s="101" t="s">
         <v>26</v>
@@ -14737,7 +14737,7 @@
       </c>
       <c r="F109" s="49">
         <f>CONE</f>
-        <v>47</v>
+        <v>4.7</v>
       </c>
       <c r="G109" s="101" t="s">
         <v>26</v>
@@ -14877,7 +14877,7 @@
       </c>
       <c r="F112" s="82" t="str">
         <f>MOSFET</f>
-        <v>IRFR7440</v>
+        <v>IRFH7004TRPBF</v>
       </c>
       <c r="G112" s="202"/>
       <c r="H112" s="23"/>
@@ -18123,13 +18123,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="C94:G96"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D23:F23"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="B44:B46"/>
@@ -18138,6 +18131,13 @@
     <mergeCell ref="D14:G15"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D24:F25"/>
+    <mergeCell ref="C94:G96"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D23:F23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G83">
@@ -18980,15 +18980,15 @@
       </c>
       <c r="D16" s="2">
         <f>'Design Calculator'!F80</f>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2">
         <f>'Design Calculator'!F80</f>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F16">
         <f>'Design Calculator'!F80</f>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G16" s="155" t="s">
         <v>122</v>
@@ -19003,7 +19003,7 @@
       </c>
       <c r="J16">
         <f>'Design Calculator'!F85</f>
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -19012,15 +19012,15 @@
       </c>
       <c r="D17" s="2">
         <f>(RRTHREEHYS*TVINMAX)/(OVPTHTYP-OVPHYSTYP)-RRTHREEHYS-RRONEHYS-(UVLOBIASTYP*RRONEHYS*RRTHREEHYS/(OVPTHTYP-OVPHYSTYP))</f>
-        <v>22.545029872312721</v>
+        <v>2.2540971073218263</v>
       </c>
       <c r="E17" s="2">
         <f>(RRTHREE*TVINMAX)/(OVPTHTYP)-RRTHREE-RRONE-(UVLOBIASTYP*RRONE*RRTHREE/(OVPTHTYP))</f>
-        <v>25.874013044210347</v>
+        <v>2.5869254510444231</v>
       </c>
       <c r="F17" s="4">
         <f>'Design Calculator'!F82</f>
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="G17" s="155" t="s">
         <v>123</v>
@@ -19044,30 +19044,30 @@
       </c>
       <c r="D18">
         <f>(((UVLOTHTYP-UVLOHYSTYP)*RRONEHYS)/(TVINMIN-(UVLOTHTYP-UVLOHYSTYP)-(UVLOBIASTYP*RRONEHYS))+RRONEHYS)/(TVINMAX/(OVPTHTYP-OVPHYSTYP)-UVLOBIASTYP*RRONEHYS/(OVPTHTYP-OVPHYSTYP))</f>
-        <v>14.927426552762137</v>
+        <v>1.4926591120956076</v>
       </c>
       <c r="E18">
         <f>(((UVLOTHTYP)*RRONE)/(TVINMIN-(UVLOTHTYP)-(UVLOBIASTYP*RRONE))+RRONE)/(TVINMAX/(OVPTHTYP)-UVLOBIASTYP*RRONE/(OVPTHTYP))</f>
-        <v>17.375659204367135</v>
+        <v>1.7374631547321489</v>
       </c>
       <c r="F18" s="4">
         <f>'Design Calculator'!F85</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G18" s="155" t="s">
         <v>124</v>
       </c>
       <c r="H18">
         <f>(TVINMIN-(UVLOTHTYP-OVPHYSTYP))/(UVLOBIASTYP+(UVLOTHTYP-UVLOHYSTYP)/RRELEVENHYS)</f>
-        <v>1075.2234184786432</v>
+        <v>107.59729880079709</v>
       </c>
       <c r="I18">
         <f>(TVINMIN-(UVLOTHTYP))/(UVLOBIASTYP+(UVLOTHTYP)/RRELEVEN)</f>
-        <v>924.36449940665796</v>
+        <v>92.493641062176977</v>
       </c>
       <c r="J18">
         <f>'Design Calculator'!F82</f>
-        <v>27</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.3">
@@ -19078,15 +19078,15 @@
       </c>
       <c r="H19" s="4">
         <f>'Design Calculator'!F80</f>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I19" s="4">
         <f>'Design Calculator'!F80</f>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="J19">
         <f>'Design Calculator'!F80</f>
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -19098,11 +19098,11 @@
       </c>
       <c r="F20">
         <f>RONE*((OVPTHMIN-OVPHYSTYP)/RTHREE+UVLOBIASMIN*1000)+RTWO*(OVPTHMIN-OVPHYSTYP)/RTHREE+(OVPTHMIN-OVPHYSTYP)</f>
-        <v>21.013999999999996</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="J20">
         <f>(OVPTHMIN)+(REIGHT*(OVPTHMIN-OVPHYSTYP)/RNINE)</f>
-        <v>4.0666666666666664</v>
+        <v>2.0986666666666665</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -19114,11 +19114,11 @@
       </c>
       <c r="F21">
         <f>RONE*((OVPTHTYP-OVPHYSTYP)/RTHREE+UVLOBIASTYP*1000)+RTWO*(OVPTHTYP-OVPHYSTYP)/RTHREE+(OVPTHTYP-OVPHYSTYP)</f>
-        <v>22.836000000000002</v>
+        <v>21.846000000000004</v>
       </c>
       <c r="J21">
         <f>(OVPTHTYP-OVPHYSTYP)+(REIGHT*(OVPTHTYP-OVPHYSTYP)/RNINE)</f>
-        <v>4.1066666666666665</v>
+        <v>1.9946666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -19130,11 +19130,11 @@
       </c>
       <c r="F22">
         <f>RONE*((OVPTHMAX-OVPHYSTYP)/RTHREE+UVLOBIASMAX*1000)+RTWO*(OVPTHMAX-OVPHYSTYP)/RTHREE+(OVPTHMAX-OVPHYSTYP)</f>
-        <v>24.657999999999998</v>
+        <v>23.362000000000002</v>
       </c>
       <c r="J22">
         <f>(OVPTHMAX-OVPHYSTYP)+(REIGHT*(OVPTHMAX-OVPHYSTYP)/RNINE)</f>
-        <v>4.3866666666666667</v>
+        <v>2.1306666666666669</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -19144,11 +19144,11 @@
       </c>
       <c r="F23">
         <f>RONE*((OVPTHMIN)/RTHREE+UVLOBIASMIN*1000)+RTWO*(OVPTHMIN)/RTHREE+(OVPTHMIN)</f>
-        <v>23.977999999999998</v>
+        <v>23.293999999999997</v>
       </c>
       <c r="J23">
         <f>(OVPTHMIN)+(REIGHT*(OVPTHMIN)/RNINE)</f>
-        <v>4.3866666666666667</v>
+        <v>2.1306666666666665</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -19158,11 +19158,11 @@
       </c>
       <c r="F24">
         <f>RONE*((OVPTHTYP)/RTHREE+UVLOBIASTYP*1000)+RTWO*(OVPTHTYP)/RTHREE+(OVPTHTYP)</f>
-        <v>25.8</v>
+        <v>24.81</v>
       </c>
       <c r="J24">
         <f>(OVPTHTYP)+(REIGHT*(OVPTHTYP)/RNINE)</f>
-        <v>4.6666666666666661</v>
+        <v>2.2666666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -19172,11 +19172,11 @@
       </c>
       <c r="F25">
         <f>RONE*((OVPTHMAX)/RTHREE+UVLOBIASMAX*1000)+RTWO*(OVPTHMAX)/RTHREE+(OVPTHMAX)</f>
-        <v>27.622000000000003</v>
+        <v>26.326000000000004</v>
       </c>
       <c r="J25">
         <f>(OVPTHMAX)+(REIGHT*(OVPTHMAX)/RNINE)</f>
-        <v>4.9466666666666672</v>
+        <v>2.4026666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -19186,11 +19186,11 @@
       </c>
       <c r="F26">
         <f>((UVLOTHMIN-UVLOHYSMAX)/(RTWO+RTHREE)+UVLOBIASMIN*1000)*RONE+UVLOTHMIN</f>
-        <v>7.4014893617021285</v>
+        <v>6.7174893617021283</v>
       </c>
       <c r="J26" s="155">
         <f>(UVLOTHMIN-UVLOHYSMAX)+(RTEN*(UVLOBIASMIN*1000+(UVLOTHMIN-UVLOHYSMAX)/RELEVEN))</f>
-        <v>1.4872999999999998</v>
+        <v>1.39496</v>
       </c>
       <c r="K26" s="155"/>
     </row>
@@ -19201,13 +19201,13 @@
       </c>
       <c r="F27" s="4">
         <f>((UVLOTHTYP-UVLOHYSTYP)/(RTWO+RTHREE)+UVLOBIASTYP*1000)*RONE+UVLOTHTYP</f>
-        <v>8.7425531914893622</v>
+        <v>7.752553191489362</v>
       </c>
       <c r="G27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27">
         <f>(UVLOTHTYP-UVLOHYSTYP)+(RTEN*(UVLOBIASTYP*1000+(UVLOTHTYP-UVLOHYSTYP)/RELEVEN))</f>
-        <v>1.7602000000000002</v>
+        <v>1.6265500000000002</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -19217,11 +19217,11 @@
       </c>
       <c r="F28">
         <f>((UVLOTHMAX-UVLOHYSMIN)/(RTWO+RTHREE)+UVLOBIASMAX*1000)*RONE+UVLOTHMAX</f>
-        <v>10.126170212765958</v>
+        <v>8.8301702127659567</v>
       </c>
       <c r="J28">
         <f>(UVLOTHMAX-UVLOHYSMIN)+(RTEN*(UVLOBIASMAX*1000+(UVLOTHMAX-UVLOHYSMIN)/RELEVEN))</f>
-        <v>2.0444499999999999</v>
+        <v>1.8694899999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -19231,11 +19231,11 @@
       </c>
       <c r="F29">
         <f>((UVLOTHMIN)/(RTWO+RTHREE)+UVLOBIASMIN*1000)*RONE+UVLOTHMIN</f>
-        <v>8.380212765957447</v>
+        <v>7.6962127659574477</v>
       </c>
       <c r="J29" s="155">
         <f>(UVLOTHMIN)+(RTEN*(UVLOBIASMIN*1000+(UVLOTHMIN-UVLOHYSMAX)/RELEVEN))</f>
-        <v>1.7172999999999998</v>
+        <v>1.62496</v>
       </c>
       <c r="K29" s="155"/>
     </row>
@@ -19246,13 +19246,13 @@
       </c>
       <c r="F30" s="4">
         <f>((UVLOTHTYP)/(RTWO+RTHREE)+UVLOBIASTYP*1000)*RONE+UVLOTHTYP</f>
-        <v>9.5085106382978726</v>
+        <v>8.5185106382978724</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30">
         <f>(UVLOTHTYP)+(RTEN*(UVLOBIASTYP*1000+(UVLOTHTYP)/RELEVEN))</f>
-        <v>1.9645000000000001</v>
+        <v>1.8308500000000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -19262,11 +19262,11 @@
       </c>
       <c r="F31">
         <f>((UVLOTHMAX)/(RTWO+RTHREE)+UVLOBIASMAX*1000)*RONE+UVLOTHMAX</f>
-        <v>10.636808510638296</v>
+        <v>9.340808510638297</v>
       </c>
       <c r="J31">
         <f>(UVLOTHMAX)+(RTEN*(UVLOBIASMAX*1000+(UVLOTHMAX)/RELEVEN))</f>
-        <v>2.18065</v>
+        <v>2.00569</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -22051,18 +22051,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22082,6 +22082,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F385080-AA43-47B1-B5FC-DE683234294C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F9DA69-AC46-4980-8991-D5FD33AE93E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -22094,12 +22102,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F385080-AA43-47B1-B5FC-DE683234294C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LM5060 Design_Calculator_REV_C.xlsx
+++ b/LM5060 Design_Calculator_REV_C.xlsx
@@ -9606,8 +9606,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10785,7 +10785,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="111">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="G27" s="100" t="s">
         <v>17</v>
@@ -10925,7 +10925,9 @@
       <c r="E30" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="112"/>
+      <c r="F30" s="112">
+        <v>0</v>
+      </c>
       <c r="G30" s="101" t="s">
         <v>17</v>
       </c>
@@ -11572,7 +11574,7 @@
         <v>73</v>
       </c>
       <c r="F44" s="112">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G44" s="171" t="s">
         <v>179</v>
@@ -11621,7 +11623,7 @@
       </c>
       <c r="F45" s="5">
         <f>(RDSTYP/RDSMAX)*RDSTYP</f>
-        <v>0.86428571428571443</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G45" s="171" t="s">
         <v>179</v>
@@ -11668,7 +11670,7 @@
         <v>75</v>
       </c>
       <c r="F46" s="211">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G46" s="171"/>
       <c r="H46" s="23"/>
@@ -11713,7 +11715,7 @@
         <v>71</v>
       </c>
       <c r="F47" s="211">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G47" s="171"/>
       <c r="H47" s="23"/>
@@ -11759,7 +11761,7 @@
       </c>
       <c r="F48" s="220">
         <f>IF(REVPOL="no",IF(BBFET="no",((RDSMAX/1000)*TRDSMAX/NUMFETS*IOUTMAX+VOFFSETMAX)/ISNSMIN/1000,(((RDSMAX/1000)*TRDSMAX/NUMFETS+(RDSMAX/1000)*TRDSMAX)*IOUTMAX+VOFFSETMAX)/ISNSMIN/1000),IF(BBFET="no",((RDSMAX/1000)*TRDSMAX*IOUTMAX/NUMFETS+VOFFSETMAX)/ISNSMIN/1000+((RO*1000)/IRATIOMIN)/1000,(((RDSMAX/1000)*TRDSMAX/NUMFETS+(RDSMAX/1000)*TRDSMAX)*IOUTMAX+VOFFSETMAX)/ISNSMIN/1000+((RO*1000)/IRATIOMIN)/1000))</f>
-        <v>1.5029411764705882</v>
+        <v>1.2264705882352942</v>
       </c>
       <c r="G48" s="171" t="s">
         <v>180</v>
@@ -11806,7 +11808,7 @@
         <v>77</v>
       </c>
       <c r="F49" s="211">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="G49" s="171" t="s">
         <v>180</v>
@@ -11854,7 +11856,7 @@
       </c>
       <c r="F50" s="28">
         <f>IF(REVPOL="no", ((RS*1000)*ISNSMIN-VOFFSETMAX)/((RDSMAX/1000)*TRDSMAX*(1/NUMFETS+IF(BBFET="YES",1,0))),(((RS*1000)-(RO*1000)/IRATIOMIN)*ISNSMIN-VOFFSETMAX)/((RDSMAX/1000)*TRDSMAX*(1/NUMFETS+IF(BBFET="YES",1,0))))</f>
-        <v>5.5476190476190492</v>
+        <v>27.93388429752066</v>
       </c>
       <c r="G50" s="171" t="s">
         <v>7</v>
@@ -11902,7 +11904,7 @@
       </c>
       <c r="F51" s="28">
         <f>IF(REVPOL="no",((RS*1000)*ISNSTYP-VOFFSETTYP)/((RDSTYP/1000)*(1/NUMFETS+IF(BBFET="YES",1,0))),(((RS*1000)-(RO*1000)/IRATIOTYP)*ISNSTYP)/((RDSTYP/1000)*(1/NUMFETS+IF(BBFET="YES",1,0))*1))</f>
-        <v>17.454545454545453</v>
+        <v>43.636363636363633</v>
       </c>
       <c r="G51" s="171" t="s">
         <v>7</v>
@@ -11952,7 +11954,7 @@
       </c>
       <c r="F52" s="28">
         <f>IF(REVPOL="no",((RS*1000)*ISNSMAX-VOFFSETMIN)/((RDSMIN/1000)*TRDSMIN*(1/NUMFETS+IF(BBFET="YES",1,0))),(((RS*1000)-(RO*1000)/IRATIOMAX)*ISNSMAX-VOFFSETMIN)/((RDSMIN/1000)*TRDSMIN*(1/NUMFETS+IF(BBFET="YES",1,0))))</f>
-        <v>36.767676767676761</v>
+        <v>50.413223140495859</v>
       </c>
       <c r="G52" s="171" t="s">
         <v>7</v>
@@ -12613,7 +12615,7 @@
       </c>
       <c r="F66" s="28">
         <f>IF(INRUSH="YES",(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMAX*1000+(CONE/1000000000)*(VINMIN+VGATEMIN)/IGATEMIN*1000,(GVTHHI*(NUMFETS+IF(BBFET="YES",1,0))/1000000000)/IGATEMAX*1000)</f>
-        <v>3.9397533206831121</v>
+        <v>2.9721062618595826</v>
       </c>
       <c r="G66" s="101" t="s">
         <v>0</v>
@@ -14264,7 +14266,7 @@
       </c>
       <c r="K100" s="89">
         <f>OCTYP</f>
-        <v>17.454545454545453</v>
+        <v>43.636363636363633</v>
       </c>
       <c r="L100" s="163" t="str">
         <f>G51</f>
@@ -14308,7 +14310,7 @@
       </c>
       <c r="F101" s="48">
         <f>RS</f>
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="G101" s="202" t="s">
         <v>16</v>
@@ -22092,12 +22094,12 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F9DA69-AC46-4980-8991-D5FD33AE93E3}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>

--- a/LM5060 Design_Calculator_REV_C.xlsx
+++ b/LM5060 Design_Calculator_REV_C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="12980" tabRatio="685" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="12975" tabRatio="685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="16" r:id="rId1"/>
@@ -168,6 +168,7 @@
     <definedName name="VTMRLTYP">'Device Parameters'!$E$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -7841,9 +7842,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="135"/>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -7861,7 +7862,7 @@
       <c r="O1" s="136"/>
       <c r="P1" s="137"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="138"/>
       <c r="B2" s="139"/>
       <c r="C2" s="139"/>
@@ -7879,7 +7880,7 @@
       <c r="O2" s="139"/>
       <c r="P2" s="140"/>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.4">
       <c r="A3" s="138"/>
       <c r="B3" s="139"/>
       <c r="C3" s="139"/>
@@ -7897,7 +7898,7 @@
       <c r="O3" s="139"/>
       <c r="P3" s="140"/>
     </row>
-    <row r="4" spans="1:16" ht="23" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="138"/>
       <c r="B4" s="139"/>
       <c r="C4" s="139"/>
@@ -7915,7 +7916,7 @@
       <c r="O4" s="139"/>
       <c r="P4" s="140"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="138"/>
       <c r="B5" s="139"/>
       <c r="C5" s="139"/>
@@ -7933,7 +7934,7 @@
       <c r="O5" s="139"/>
       <c r="P5" s="140"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="138"/>
       <c r="B6" s="139"/>
       <c r="C6" s="139"/>
@@ -7951,7 +7952,7 @@
       <c r="O6" s="139"/>
       <c r="P6" s="140"/>
     </row>
-    <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="138"/>
       <c r="B7" s="139"/>
       <c r="C7" s="139"/>
@@ -7971,7 +7972,7 @@
       <c r="O7" s="139"/>
       <c r="P7" s="140"/>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.4">
       <c r="A8" s="138"/>
       <c r="B8" s="141" t="s">
         <v>226</v>
@@ -7991,7 +7992,7 @@
       <c r="O8" s="139"/>
       <c r="P8" s="140"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="138"/>
       <c r="B9" s="139"/>
       <c r="C9" s="139"/>
@@ -8009,7 +8010,7 @@
       <c r="O9" s="139"/>
       <c r="P9" s="140"/>
     </row>
-    <row r="10" spans="1:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="138"/>
       <c r="B10" s="144" t="s">
         <v>51</v>
@@ -8029,7 +8030,7 @@
       <c r="O10" s="139"/>
       <c r="P10" s="140"/>
     </row>
-    <row r="11" spans="1:16" ht="14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="138"/>
       <c r="B11" s="146" t="s">
         <v>52</v>
@@ -8049,7 +8050,7 @@
       <c r="O11" s="139"/>
       <c r="P11" s="140"/>
     </row>
-    <row r="12" spans="1:16" ht="14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="138"/>
       <c r="B12" s="146" t="s">
         <v>53</v>
@@ -8069,7 +8070,7 @@
       <c r="O12" s="139"/>
       <c r="P12" s="140"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="138"/>
       <c r="B13" s="145"/>
       <c r="C13" s="145"/>
@@ -8087,7 +8088,7 @@
       <c r="O13" s="139"/>
       <c r="P13" s="140"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="138"/>
       <c r="B14" s="277" t="s">
         <v>69</v>
@@ -8107,7 +8108,7 @@
       <c r="O14" s="139"/>
       <c r="P14" s="140"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="138"/>
       <c r="B15" s="145"/>
       <c r="C15" s="145"/>
@@ -8125,7 +8126,7 @@
       <c r="O15" s="139"/>
       <c r="P15" s="140"/>
     </row>
-    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="138"/>
       <c r="B16" s="148" t="s">
         <v>54</v>
@@ -8145,7 +8146,7 @@
       <c r="O16" s="139"/>
       <c r="P16" s="140"/>
     </row>
-    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="138"/>
       <c r="B17" s="149" t="s">
         <v>62</v>
@@ -8165,7 +8166,7 @@
       <c r="O17" s="139"/>
       <c r="P17" s="140"/>
     </row>
-    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="138"/>
       <c r="B18" s="149" t="s">
         <v>175</v>
@@ -8185,7 +8186,7 @@
       <c r="O18" s="139"/>
       <c r="P18" s="140"/>
     </row>
-    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="138"/>
       <c r="B19" s="149" t="s">
         <v>176</v>
@@ -8205,7 +8206,7 @@
       <c r="O19" s="139"/>
       <c r="P19" s="140"/>
     </row>
-    <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="138"/>
       <c r="B20" s="149" t="s">
         <v>177</v>
@@ -8225,7 +8226,7 @@
       <c r="O20" s="139"/>
       <c r="P20" s="140"/>
     </row>
-    <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="138"/>
       <c r="B21" s="149"/>
       <c r="C21" s="145"/>
@@ -8243,7 +8244,7 @@
       <c r="O21" s="139"/>
       <c r="P21" s="140"/>
     </row>
-    <row r="22" spans="1:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="138"/>
       <c r="B22" s="144" t="s">
         <v>55</v>
@@ -8263,7 +8264,7 @@
       <c r="O22" s="139"/>
       <c r="P22" s="140"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="138"/>
       <c r="B23" s="153" t="s">
         <v>61</v>
@@ -8283,7 +8284,7 @@
       <c r="O23" s="139"/>
       <c r="P23" s="140"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="138"/>
       <c r="B24" s="139" t="s">
         <v>56</v>
@@ -8303,7 +8304,7 @@
       <c r="O24" s="139"/>
       <c r="P24" s="140"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="138"/>
       <c r="B25" s="139"/>
       <c r="C25" s="139"/>
@@ -8321,7 +8322,7 @@
       <c r="O25" s="139"/>
       <c r="P25" s="140"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="138"/>
       <c r="B26" s="153" t="s">
         <v>60</v>
@@ -8341,7 +8342,7 @@
       <c r="O26" s="139"/>
       <c r="P26" s="140"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="138"/>
       <c r="B27" s="139"/>
       <c r="C27" s="139"/>
@@ -8359,7 +8360,7 @@
       <c r="O27" s="139"/>
       <c r="P27" s="140"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="138"/>
       <c r="B28" s="139" t="s">
         <v>57</v>
@@ -8379,7 +8380,7 @@
       <c r="O28" s="139"/>
       <c r="P28" s="140"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="138"/>
       <c r="B29" s="153"/>
       <c r="C29" s="139"/>
@@ -8397,7 +8398,7 @@
       <c r="O29" s="139"/>
       <c r="P29" s="140"/>
     </row>
-    <row r="30" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="138"/>
       <c r="B30" s="139"/>
       <c r="C30" s="139"/>
@@ -8415,7 +8416,7 @@
       <c r="O30" s="139"/>
       <c r="P30" s="140"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="138"/>
       <c r="B31" s="278" t="s">
         <v>67</v>
@@ -8435,7 +8436,7 @@
       <c r="O31" s="139"/>
       <c r="P31" s="140"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="138"/>
       <c r="B32" s="281"/>
       <c r="C32" s="282"/>
@@ -8453,7 +8454,7 @@
       <c r="O32" s="139"/>
       <c r="P32" s="140"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="138"/>
       <c r="B33" s="281"/>
       <c r="C33" s="282"/>
@@ -8471,7 +8472,7 @@
       <c r="O33" s="139"/>
       <c r="P33" s="140"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="138"/>
       <c r="B34" s="281"/>
       <c r="C34" s="282"/>
@@ -8489,7 +8490,7 @@
       <c r="O34" s="139"/>
       <c r="P34" s="140"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="138"/>
       <c r="B35" s="281"/>
       <c r="C35" s="282"/>
@@ -8507,7 +8508,7 @@
       <c r="O35" s="139"/>
       <c r="P35" s="140"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="138"/>
       <c r="B36" s="281"/>
       <c r="C36" s="282"/>
@@ -8525,7 +8526,7 @@
       <c r="O36" s="139"/>
       <c r="P36" s="140"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="138"/>
       <c r="B37" s="281"/>
       <c r="C37" s="282"/>
@@ -8543,7 +8544,7 @@
       <c r="O37" s="139"/>
       <c r="P37" s="140"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="138"/>
       <c r="B38" s="281"/>
       <c r="C38" s="282"/>
@@ -8561,7 +8562,7 @@
       <c r="O38" s="139"/>
       <c r="P38" s="140"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="138"/>
       <c r="B39" s="281"/>
       <c r="C39" s="282"/>
@@ -8579,7 +8580,7 @@
       <c r="O39" s="139"/>
       <c r="P39" s="140"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="138"/>
       <c r="B40" s="281"/>
       <c r="C40" s="282"/>
@@ -8597,7 +8598,7 @@
       <c r="O40" s="139"/>
       <c r="P40" s="140"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="138"/>
       <c r="B41" s="281"/>
       <c r="C41" s="282"/>
@@ -8615,7 +8616,7 @@
       <c r="O41" s="139"/>
       <c r="P41" s="140"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="138"/>
       <c r="B42" s="281"/>
       <c r="C42" s="282"/>
@@ -8633,7 +8634,7 @@
       <c r="O42" s="139"/>
       <c r="P42" s="140"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="138"/>
       <c r="B43" s="281"/>
       <c r="C43" s="282"/>
@@ -8651,7 +8652,7 @@
       <c r="O43" s="139"/>
       <c r="P43" s="140"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="138"/>
       <c r="B44" s="281"/>
       <c r="C44" s="282"/>
@@ -8669,7 +8670,7 @@
       <c r="O44" s="139"/>
       <c r="P44" s="140"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="138"/>
       <c r="B45" s="281"/>
       <c r="C45" s="282"/>
@@ -8687,7 +8688,7 @@
       <c r="O45" s="139"/>
       <c r="P45" s="140"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="138"/>
       <c r="B46" s="281"/>
       <c r="C46" s="282"/>
@@ -8705,7 +8706,7 @@
       <c r="O46" s="139"/>
       <c r="P46" s="140"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="138"/>
       <c r="B47" s="281"/>
       <c r="C47" s="282"/>
@@ -8723,7 +8724,7 @@
       <c r="O47" s="139"/>
       <c r="P47" s="140"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="138"/>
       <c r="B48" s="281"/>
       <c r="C48" s="282"/>
@@ -8741,7 +8742,7 @@
       <c r="O48" s="139"/>
       <c r="P48" s="140"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="138"/>
       <c r="B49" s="281"/>
       <c r="C49" s="282"/>
@@ -8759,7 +8760,7 @@
       <c r="O49" s="139"/>
       <c r="P49" s="140"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="138"/>
       <c r="B50" s="281"/>
       <c r="C50" s="282"/>
@@ -8777,7 +8778,7 @@
       <c r="O50" s="139"/>
       <c r="P50" s="140"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="138"/>
       <c r="B51" s="281"/>
       <c r="C51" s="282"/>
@@ -8795,7 +8796,7 @@
       <c r="O51" s="139"/>
       <c r="P51" s="140"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="138"/>
       <c r="B52" s="281"/>
       <c r="C52" s="282"/>
@@ -8813,7 +8814,7 @@
       <c r="O52" s="139"/>
       <c r="P52" s="140"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="138"/>
       <c r="B53" s="281"/>
       <c r="C53" s="282"/>
@@ -8831,7 +8832,7 @@
       <c r="O53" s="139"/>
       <c r="P53" s="140"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="138"/>
       <c r="B54" s="281"/>
       <c r="C54" s="282"/>
@@ -8849,7 +8850,7 @@
       <c r="O54" s="139"/>
       <c r="P54" s="140"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="138"/>
       <c r="B55" s="281"/>
       <c r="C55" s="282"/>
@@ -8867,7 +8868,7 @@
       <c r="O55" s="139"/>
       <c r="P55" s="140"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="138"/>
       <c r="B56" s="281"/>
       <c r="C56" s="282"/>
@@ -8885,7 +8886,7 @@
       <c r="O56" s="139"/>
       <c r="P56" s="140"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="138"/>
       <c r="B57" s="281"/>
       <c r="C57" s="282"/>
@@ -8903,7 +8904,7 @@
       <c r="O57" s="139"/>
       <c r="P57" s="140"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="138"/>
       <c r="B58" s="281"/>
       <c r="C58" s="282"/>
@@ -8921,7 +8922,7 @@
       <c r="O58" s="139"/>
       <c r="P58" s="140"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="138"/>
       <c r="B59" s="281"/>
       <c r="C59" s="282"/>
@@ -8939,7 +8940,7 @@
       <c r="O59" s="139"/>
       <c r="P59" s="140"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="138"/>
       <c r="B60" s="281"/>
       <c r="C60" s="282"/>
@@ -8957,7 +8958,7 @@
       <c r="O60" s="139"/>
       <c r="P60" s="140"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="138"/>
       <c r="B61" s="281"/>
       <c r="C61" s="282"/>
@@ -8975,7 +8976,7 @@
       <c r="O61" s="139"/>
       <c r="P61" s="140"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="138"/>
       <c r="B62" s="281"/>
       <c r="C62" s="282"/>
@@ -8993,7 +8994,7 @@
       <c r="O62" s="139"/>
       <c r="P62" s="140"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="138"/>
       <c r="B63" s="281"/>
       <c r="C63" s="282"/>
@@ -9011,7 +9012,7 @@
       <c r="O63" s="139"/>
       <c r="P63" s="140"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="138"/>
       <c r="B64" s="281"/>
       <c r="C64" s="282"/>
@@ -9029,7 +9030,7 @@
       <c r="O64" s="139"/>
       <c r="P64" s="140"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="138"/>
       <c r="B65" s="281"/>
       <c r="C65" s="282"/>
@@ -9047,7 +9048,7 @@
       <c r="O65" s="139"/>
       <c r="P65" s="140"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="138"/>
       <c r="B66" s="281"/>
       <c r="C66" s="282"/>
@@ -9065,7 +9066,7 @@
       <c r="O66" s="139"/>
       <c r="P66" s="140"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="138"/>
       <c r="B67" s="281"/>
       <c r="C67" s="282"/>
@@ -9083,7 +9084,7 @@
       <c r="O67" s="139"/>
       <c r="P67" s="140"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="138"/>
       <c r="B68" s="281"/>
       <c r="C68" s="282"/>
@@ -9101,7 +9102,7 @@
       <c r="O68" s="139"/>
       <c r="P68" s="140"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="138"/>
       <c r="B69" s="281"/>
       <c r="C69" s="282"/>
@@ -9119,7 +9120,7 @@
       <c r="O69" s="139"/>
       <c r="P69" s="140"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="138"/>
       <c r="B70" s="281"/>
       <c r="C70" s="282"/>
@@ -9137,7 +9138,7 @@
       <c r="O70" s="139"/>
       <c r="P70" s="140"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="138"/>
       <c r="B71" s="281"/>
       <c r="C71" s="282"/>
@@ -9155,7 +9156,7 @@
       <c r="O71" s="139"/>
       <c r="P71" s="140"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="138"/>
       <c r="B72" s="281"/>
       <c r="C72" s="282"/>
@@ -9173,7 +9174,7 @@
       <c r="O72" s="139"/>
       <c r="P72" s="140"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="138"/>
       <c r="B73" s="281"/>
       <c r="C73" s="282"/>
@@ -9191,7 +9192,7 @@
       <c r="O73" s="139"/>
       <c r="P73" s="140"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="138"/>
       <c r="B74" s="281"/>
       <c r="C74" s="282"/>
@@ -9209,7 +9210,7 @@
       <c r="O74" s="139"/>
       <c r="P74" s="140"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="138"/>
       <c r="B75" s="281"/>
       <c r="C75" s="282"/>
@@ -9227,7 +9228,7 @@
       <c r="O75" s="139"/>
       <c r="P75" s="140"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="138"/>
       <c r="B76" s="281"/>
       <c r="C76" s="282"/>
@@ -9245,7 +9246,7 @@
       <c r="O76" s="139"/>
       <c r="P76" s="140"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="138"/>
       <c r="B77" s="281"/>
       <c r="C77" s="282"/>
@@ -9263,7 +9264,7 @@
       <c r="O77" s="139"/>
       <c r="P77" s="140"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="138"/>
       <c r="B78" s="281"/>
       <c r="C78" s="282"/>
@@ -9281,7 +9282,7 @@
       <c r="O78" s="139"/>
       <c r="P78" s="140"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="138"/>
       <c r="B79" s="281"/>
       <c r="C79" s="282"/>
@@ -9299,7 +9300,7 @@
       <c r="O79" s="139"/>
       <c r="P79" s="140"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="138"/>
       <c r="B80" s="281"/>
       <c r="C80" s="282"/>
@@ -9317,7 +9318,7 @@
       <c r="O80" s="139"/>
       <c r="P80" s="140"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="138"/>
       <c r="B81" s="281"/>
       <c r="C81" s="282"/>
@@ -9335,7 +9336,7 @@
       <c r="O81" s="139"/>
       <c r="P81" s="140"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="138"/>
       <c r="B82" s="281"/>
       <c r="C82" s="282"/>
@@ -9353,7 +9354,7 @@
       <c r="O82" s="139"/>
       <c r="P82" s="140"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="138"/>
       <c r="B83" s="281"/>
       <c r="C83" s="282"/>
@@ -9371,7 +9372,7 @@
       <c r="O83" s="139"/>
       <c r="P83" s="140"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="138"/>
       <c r="B84" s="281"/>
       <c r="C84" s="282"/>
@@ -9389,7 +9390,7 @@
       <c r="O84" s="139"/>
       <c r="P84" s="140"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="138"/>
       <c r="B85" s="281"/>
       <c r="C85" s="282"/>
@@ -9407,7 +9408,7 @@
       <c r="O85" s="139"/>
       <c r="P85" s="140"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="138"/>
       <c r="B86" s="281"/>
       <c r="C86" s="282"/>
@@ -9425,7 +9426,7 @@
       <c r="O86" s="139"/>
       <c r="P86" s="140"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="138"/>
       <c r="B87" s="281"/>
       <c r="C87" s="282"/>
@@ -9443,7 +9444,7 @@
       <c r="O87" s="139"/>
       <c r="P87" s="140"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="138"/>
       <c r="B88" s="281"/>
       <c r="C88" s="282"/>
@@ -9461,7 +9462,7 @@
       <c r="O88" s="139"/>
       <c r="P88" s="140"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="138"/>
       <c r="B89" s="281"/>
       <c r="C89" s="282"/>
@@ -9479,7 +9480,7 @@
       <c r="O89" s="139"/>
       <c r="P89" s="140"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="138"/>
       <c r="B90" s="281"/>
       <c r="C90" s="282"/>
@@ -9497,7 +9498,7 @@
       <c r="O90" s="139"/>
       <c r="P90" s="140"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="138"/>
       <c r="B91" s="281"/>
       <c r="C91" s="282"/>
@@ -9515,7 +9516,7 @@
       <c r="O91" s="139"/>
       <c r="P91" s="140"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="138"/>
       <c r="B92" s="281"/>
       <c r="C92" s="282"/>
@@ -9533,7 +9534,7 @@
       <c r="O92" s="139"/>
       <c r="P92" s="140"/>
     </row>
-    <row r="93" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="138"/>
       <c r="B93" s="284"/>
       <c r="C93" s="285"/>
@@ -9551,7 +9552,7 @@
       <c r="O93" s="139"/>
       <c r="P93" s="140"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="138"/>
       <c r="B94" s="139"/>
       <c r="C94" s="139"/>
@@ -9569,7 +9570,7 @@
       <c r="O94" s="139"/>
       <c r="P94" s="140"/>
     </row>
-    <row r="95" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="150"/>
       <c r="B95" s="151"/>
       <c r="C95" s="151"/>
@@ -9587,7 +9588,7 @@
       <c r="O95" s="151"/>
       <c r="P95" s="152"/>
     </row>
-    <row r="96" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B14:I14"/>
@@ -9606,64 +9607,64 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.453125" customWidth="1"/>
+    <col min="1" max="1" width="0.42578125" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
-    <col min="7" max="7" width="5.54296875" style="95" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="95" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
     <col min="14" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="2.54296875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="2.5703125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="3" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="1.1796875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="3.54296875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="1.140625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" hidden="1" customWidth="1"/>
     <col min="24" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="11.54296875" customWidth="1"/>
-    <col min="40" max="40" width="7.453125" style="221" customWidth="1"/>
-    <col min="41" max="41" width="9.453125" customWidth="1"/>
-    <col min="42" max="42" width="12.453125" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" customWidth="1"/>
+    <col min="40" max="40" width="7.42578125" style="221" customWidth="1"/>
+    <col min="41" max="41" width="9.42578125" customWidth="1"/>
+    <col min="42" max="42" width="12.42578125" customWidth="1"/>
     <col min="43" max="43" width="12" customWidth="1"/>
-    <col min="44" max="44" width="13.453125" customWidth="1"/>
-    <col min="45" max="46" width="14.54296875" customWidth="1"/>
-    <col min="47" max="47" width="11.453125" customWidth="1"/>
+    <col min="44" max="44" width="13.42578125" customWidth="1"/>
+    <col min="45" max="46" width="14.5703125" customWidth="1"/>
+    <col min="47" max="47" width="11.42578125" customWidth="1"/>
     <col min="48" max="48" width="13" customWidth="1"/>
-    <col min="49" max="49" width="13.453125" customWidth="1"/>
-    <col min="50" max="50" width="14.54296875" customWidth="1"/>
-    <col min="51" max="51" width="14.1796875" customWidth="1"/>
-    <col min="52" max="52" width="12.81640625" customWidth="1"/>
-    <col min="53" max="53" width="12.54296875" customWidth="1"/>
-    <col min="54" max="54" width="9.81640625" customWidth="1"/>
-    <col min="55" max="55" width="12.54296875" customWidth="1"/>
-    <col min="56" max="56" width="13.54296875" customWidth="1"/>
-    <col min="57" max="57" width="13.81640625" customWidth="1"/>
-    <col min="58" max="59" width="14.453125" customWidth="1"/>
-    <col min="60" max="61" width="15.453125" customWidth="1"/>
-    <col min="62" max="62" width="15.54296875" customWidth="1"/>
-    <col min="63" max="63" width="12.54296875" customWidth="1"/>
-    <col min="64" max="64" width="16.81640625" customWidth="1"/>
-    <col min="65" max="65" width="15.453125" customWidth="1"/>
-    <col min="66" max="66" width="14.54296875" customWidth="1"/>
+    <col min="49" max="49" width="13.42578125" customWidth="1"/>
+    <col min="50" max="50" width="14.5703125" customWidth="1"/>
+    <col min="51" max="51" width="14.140625" customWidth="1"/>
+    <col min="52" max="52" width="12.85546875" customWidth="1"/>
+    <col min="53" max="53" width="12.5703125" customWidth="1"/>
+    <col min="54" max="54" width="9.85546875" customWidth="1"/>
+    <col min="55" max="55" width="12.5703125" customWidth="1"/>
+    <col min="56" max="56" width="13.5703125" customWidth="1"/>
+    <col min="57" max="57" width="13.85546875" customWidth="1"/>
+    <col min="58" max="59" width="14.42578125" customWidth="1"/>
+    <col min="60" max="61" width="15.42578125" customWidth="1"/>
+    <col min="62" max="62" width="15.5703125" customWidth="1"/>
+    <col min="63" max="63" width="12.5703125" customWidth="1"/>
+    <col min="64" max="64" width="16.85546875" customWidth="1"/>
+    <col min="65" max="65" width="15.42578125" customWidth="1"/>
+    <col min="66" max="66" width="14.5703125" customWidth="1"/>
     <col min="67" max="67" width="10" customWidth="1"/>
-    <col min="68" max="68" width="6.1796875" customWidth="1"/>
-    <col min="69" max="69" width="7.1796875" customWidth="1"/>
-    <col min="70" max="70" width="8.453125" customWidth="1"/>
-    <col min="71" max="71" width="4.54296875" customWidth="1"/>
+    <col min="68" max="68" width="6.140625" customWidth="1"/>
+    <col min="69" max="69" width="7.140625" customWidth="1"/>
+    <col min="70" max="70" width="8.42578125" customWidth="1"/>
+    <col min="71" max="71" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="83" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="83" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="294" t="s">
         <v>68</v>
       </c>
@@ -9707,7 +9708,7 @@
       <c r="AM1" s="39"/>
       <c r="AN1" s="223"/>
     </row>
-    <row r="2" spans="1:40" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="B2" s="38" t="s">
         <v>22</v>
@@ -9750,7 +9751,7 @@
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -9791,7 +9792,7 @@
       <c r="AL3" s="19"/>
       <c r="AM3" s="19"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -9832,7 +9833,7 @@
       <c r="AL4" s="19"/>
       <c r="AM4" s="19"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -9872,7 +9873,7 @@
       <c r="AL5" s="19"/>
       <c r="AM5" s="19"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -9913,7 +9914,7 @@
       <c r="AL6" s="19"/>
       <c r="AM6" s="19"/>
     </row>
-    <row r="7" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -9954,7 +9955,7 @@
       <c r="AL7" s="19"/>
       <c r="AM7" s="19"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -9995,7 +9996,7 @@
       <c r="AL8" s="19"/>
       <c r="AM8" s="19"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="24"/>
       <c r="C9" s="115"/>
@@ -10038,7 +10039,7 @@
       <c r="AL9" s="239"/>
       <c r="AM9" s="239"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="25"/>
       <c r="C10" s="21"/>
@@ -10081,7 +10082,7 @@
       <c r="AL10" s="239"/>
       <c r="AM10" s="239"/>
     </row>
-    <row r="11" spans="1:40" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="25"/>
       <c r="C11" s="119"/>
@@ -10124,7 +10125,7 @@
       <c r="AL11" s="239"/>
       <c r="AM11" s="239"/>
     </row>
-    <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="25"/>
       <c r="C12" s="118"/>
@@ -10165,7 +10166,7 @@
       <c r="AL12" s="239"/>
       <c r="AM12" s="239"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -10206,7 +10207,7 @@
       <c r="AL13" s="19"/>
       <c r="AM13" s="19"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="235" t="s">
         <v>217</v>
@@ -10251,7 +10252,7 @@
       <c r="AL14" s="228"/>
       <c r="AM14" s="234"/>
     </row>
-    <row r="15" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="239"/>
       <c r="B15" s="189"/>
       <c r="C15" s="262"/>
@@ -10293,7 +10294,7 @@
       <c r="AM15" s="241"/>
       <c r="AN15" s="243"/>
     </row>
-    <row r="16" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="239"/>
       <c r="B16" s="299"/>
       <c r="C16" s="244"/>
@@ -10337,7 +10338,7 @@
       <c r="AM16" s="241"/>
       <c r="AN16" s="243"/>
     </row>
-    <row r="17" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="239"/>
       <c r="B17" s="299"/>
       <c r="C17" s="244"/>
@@ -10381,7 +10382,7 @@
       <c r="AM17" s="241"/>
       <c r="AN17" s="243"/>
     </row>
-    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="299"/>
       <c r="C18" s="236"/>
@@ -10424,7 +10425,7 @@
       <c r="AL18" s="226"/>
       <c r="AM18" s="232"/>
     </row>
-    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="299"/>
       <c r="C19" s="236"/>
@@ -10467,7 +10468,7 @@
       <c r="AL19" s="226"/>
       <c r="AM19" s="232"/>
     </row>
-    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="251"/>
       <c r="C20" s="236"/>
@@ -10510,7 +10511,7 @@
       <c r="AL20" s="226"/>
       <c r="AM20" s="232"/>
     </row>
-    <row r="21" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="229"/>
       <c r="C21" s="226"/>
@@ -10551,7 +10552,7 @@
       <c r="AL21" s="226"/>
       <c r="AM21" s="232"/>
     </row>
-    <row r="22" spans="1:40" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="229"/>
       <c r="C22" s="226"/>
@@ -10599,7 +10600,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="238" customFormat="1" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" s="238" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="239"/>
       <c r="B23" s="229"/>
       <c r="C23" s="240"/>
@@ -10645,7 +10646,7 @@
       <c r="AM23" s="241"/>
       <c r="AN23" s="243"/>
     </row>
-    <row r="24" spans="1:40" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="229"/>
       <c r="C24" s="226"/>
@@ -10691,7 +10692,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="229"/>
       <c r="C25" s="240"/>
@@ -10732,7 +10733,7 @@
       <c r="AL25" s="240"/>
       <c r="AM25" s="241"/>
     </row>
-    <row r="26" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="239"/>
       <c r="B26" s="230"/>
       <c r="C26" s="231"/>
@@ -10774,7 +10775,7 @@
       <c r="AM26" s="233"/>
       <c r="AN26" s="243"/>
     </row>
-    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="91" t="s">
         <v>31</v>
@@ -10823,7 +10824,7 @@
       <c r="AL27" s="64"/>
       <c r="AM27" s="84"/>
     </row>
-    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="264"/>
       <c r="B28" s="265"/>
       <c r="C28" s="23"/>
@@ -10870,7 +10871,7 @@
       <c r="AL28" s="23"/>
       <c r="AM28" s="71"/>
     </row>
-    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="264"/>
       <c r="B29" s="266"/>
       <c r="C29" s="23"/>
@@ -10917,7 +10918,7 @@
       <c r="AL29" s="23"/>
       <c r="AM29" s="71"/>
     </row>
-    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="264"/>
       <c r="B30" s="266"/>
       <c r="C30" s="23"/>
@@ -10964,7 +10965,7 @@
       <c r="AL30" s="23"/>
       <c r="AM30" s="71"/>
     </row>
-    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="264"/>
       <c r="B31" s="266"/>
       <c r="C31" s="23"/>
@@ -11011,7 +11012,7 @@
       <c r="AL31" s="23"/>
       <c r="AM31" s="71"/>
     </row>
-    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="264"/>
       <c r="B32" s="266"/>
       <c r="C32" s="23"/>
@@ -11058,7 +11059,7 @@
       <c r="AL32" s="23"/>
       <c r="AM32" s="71"/>
     </row>
-    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="264"/>
       <c r="B33" s="300" t="s">
         <v>210</v>
@@ -11107,7 +11108,7 @@
       <c r="AL33" s="240"/>
       <c r="AM33" s="241"/>
     </row>
-    <row r="34" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="264"/>
       <c r="B34" s="300"/>
       <c r="C34" s="240"/>
@@ -11149,7 +11150,7 @@
       <c r="AM34" s="241"/>
       <c r="AN34" s="243"/>
     </row>
-    <row r="35" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="239"/>
       <c r="B35" s="254"/>
       <c r="C35" s="240"/>
@@ -11191,7 +11192,7 @@
       <c r="AM35" s="241"/>
       <c r="AN35" s="243"/>
     </row>
-    <row r="36" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="239"/>
       <c r="B36" s="255"/>
       <c r="C36" s="240"/>
@@ -11233,7 +11234,7 @@
       <c r="AM36" s="241"/>
       <c r="AN36" s="243"/>
     </row>
-    <row r="37" spans="1:40" ht="14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="203" t="s">
         <v>70</v>
@@ -11283,7 +11284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="267"/>
       <c r="C38" s="79"/>
@@ -11331,7 +11332,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="267"/>
       <c r="C39" s="79"/>
@@ -11376,7 +11377,7 @@
       <c r="AL39" s="23"/>
       <c r="AM39" s="71"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="267"/>
       <c r="C40" s="79"/>
@@ -11421,7 +11422,7 @@
       <c r="AL40" s="23"/>
       <c r="AM40" s="71"/>
     </row>
-    <row r="41" spans="1:40" ht="13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="267"/>
       <c r="C41" s="79"/>
@@ -11469,7 +11470,7 @@
       <c r="AL41" s="23"/>
       <c r="AM41" s="71"/>
     </row>
-    <row r="42" spans="1:40" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="268"/>
       <c r="C42" s="79"/>
@@ -11516,7 +11517,7 @@
       <c r="AL42" s="23"/>
       <c r="AM42" s="71"/>
     </row>
-    <row r="43" spans="1:40" ht="13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="266"/>
       <c r="C43" s="79"/>
@@ -11563,7 +11564,7 @@
       <c r="AL43" s="23"/>
       <c r="AM43" s="71"/>
     </row>
-    <row r="44" spans="1:40" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="298" t="s">
         <v>210</v>
@@ -11613,7 +11614,7 @@
       <c r="AM44" s="71"/>
       <c r="AN44" s="224"/>
     </row>
-    <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="298"/>
       <c r="C45" s="79"/>
@@ -11661,7 +11662,7 @@
       <c r="AL45" s="23"/>
       <c r="AM45" s="71"/>
     </row>
-    <row r="46" spans="1:40" ht="13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="298"/>
       <c r="C46" s="79"/>
@@ -11706,7 +11707,7 @@
       <c r="AL46" s="23"/>
       <c r="AM46" s="71"/>
     </row>
-    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="269"/>
       <c r="C47" s="79"/>
@@ -11751,7 +11752,7 @@
       <c r="AL47" s="23"/>
       <c r="AM47" s="71"/>
     </row>
-    <row r="48" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="269"/>
       <c r="C48" s="79"/>
@@ -11799,7 +11800,7 @@
       <c r="AL48" s="23"/>
       <c r="AM48" s="71"/>
     </row>
-    <row r="49" spans="1:40" ht="13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="269"/>
       <c r="C49" s="79"/>
@@ -11846,7 +11847,7 @@
       <c r="AL49" s="23"/>
       <c r="AM49" s="71"/>
     </row>
-    <row r="50" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="269"/>
       <c r="C50" s="79"/>
@@ -11894,7 +11895,7 @@
       <c r="AL50" s="23"/>
       <c r="AM50" s="71"/>
     </row>
-    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="269"/>
       <c r="C51" s="79"/>
@@ -11942,7 +11943,7 @@
       <c r="AL51" s="23"/>
       <c r="AM51" s="71"/>
     </row>
-    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="276" t="s">
         <v>211</v>
@@ -11992,7 +11993,7 @@
       <c r="AL52" s="23"/>
       <c r="AM52" s="71"/>
     </row>
-    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="229"/>
       <c r="C53" s="240"/>
@@ -12033,7 +12034,7 @@
       <c r="AL53" s="240"/>
       <c r="AM53" s="241"/>
     </row>
-    <row r="54" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" s="238" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="239"/>
       <c r="B54" s="229"/>
       <c r="C54" s="240"/>
@@ -12075,7 +12076,7 @@
       <c r="AM54" s="241"/>
       <c r="AN54" s="243"/>
     </row>
-    <row r="55" spans="1:40" ht="14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="203" t="s">
         <v>81</v>
@@ -12128,7 +12129,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="267"/>
       <c r="C56" s="270"/>
@@ -12176,7 +12177,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="267"/>
       <c r="C57" s="270"/>
@@ -12224,7 +12225,7 @@
       <c r="AL57" s="23"/>
       <c r="AM57" s="71"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="267"/>
       <c r="C58" s="79"/>
@@ -12269,7 +12270,7 @@
       <c r="AL58" s="23"/>
       <c r="AM58" s="71"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="267"/>
       <c r="C59" s="79"/>
@@ -12316,7 +12317,7 @@
       <c r="AL59" s="23"/>
       <c r="AM59" s="71"/>
     </row>
-    <row r="60" spans="1:40" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:40" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
       <c r="B60" s="267"/>
       <c r="C60" s="79"/>
@@ -12364,7 +12365,7 @@
       <c r="AL60" s="23"/>
       <c r="AM60" s="71"/>
     </row>
-    <row r="61" spans="1:40" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:40" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A61" s="19"/>
       <c r="B61" s="267"/>
       <c r="C61" s="79"/>
@@ -12411,7 +12412,7 @@
       <c r="AL61" s="23"/>
       <c r="AM61" s="71"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="271"/>
       <c r="C62" s="79"/>
@@ -12459,7 +12460,7 @@
       <c r="AL62" s="23"/>
       <c r="AM62" s="71"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="276" t="s">
         <v>212</v>
@@ -12509,7 +12510,7 @@
       <c r="AL63" s="23"/>
       <c r="AM63" s="71"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="194"/>
       <c r="C64" s="23"/>
@@ -12557,7 +12558,7 @@
       <c r="AL64" s="23"/>
       <c r="AM64" s="71"/>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="194"/>
       <c r="C65" s="23"/>
@@ -12605,7 +12606,7 @@
       <c r="AL65" s="23"/>
       <c r="AM65" s="71"/>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="194"/>
       <c r="C66" s="23"/>
@@ -12653,7 +12654,7 @@
       <c r="AL66" s="23"/>
       <c r="AM66" s="71"/>
     </row>
-    <row r="67" spans="1:40" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="66"/>
       <c r="C67" s="23"/>
@@ -12701,7 +12702,7 @@
       <c r="AL67" s="23"/>
       <c r="AM67" s="71"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="66"/>
       <c r="C68" s="23"/>
@@ -12748,7 +12749,7 @@
       <c r="AL68" s="23"/>
       <c r="AM68" s="71"/>
     </row>
-    <row r="69" spans="1:40" ht="13.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="69"/>
       <c r="C69" s="23"/>
@@ -12796,7 +12797,7 @@
       <c r="AL69" s="23"/>
       <c r="AM69" s="71"/>
     </row>
-    <row r="70" spans="1:40" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="66"/>
       <c r="C70" s="23"/>
@@ -12844,7 +12845,7 @@
       <c r="AL70" s="23"/>
       <c r="AM70" s="71"/>
     </row>
-    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="66"/>
       <c r="C71" s="23"/>
@@ -12892,7 +12893,7 @@
       <c r="AL71" s="23"/>
       <c r="AM71" s="71"/>
     </row>
-    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="66"/>
       <c r="C72" s="23"/>
@@ -12940,7 +12941,7 @@
       <c r="AL72" s="23"/>
       <c r="AM72" s="71"/>
     </row>
-    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="66"/>
       <c r="C73" s="23"/>
@@ -12988,7 +12989,7 @@
       <c r="AL73" s="23"/>
       <c r="AM73" s="71"/>
     </row>
-    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="66"/>
       <c r="C74" s="23"/>
@@ -13036,7 +13037,7 @@
       <c r="AL74" s="23"/>
       <c r="AM74" s="71"/>
     </row>
-    <row r="75" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="66"/>
       <c r="C75" s="23"/>
@@ -13077,7 +13078,7 @@
       <c r="AL75" s="23"/>
       <c r="AM75" s="71"/>
     </row>
-    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="91" t="s">
         <v>167</v>
@@ -13127,7 +13128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="194"/>
       <c r="C77" s="192"/>
@@ -13173,7 +13174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="189"/>
       <c r="C78" s="79"/>
@@ -13222,7 +13223,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="189"/>
       <c r="C79" s="79"/>
@@ -13272,7 +13273,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="66"/>
       <c r="C80" s="23"/>
@@ -13320,7 +13321,7 @@
       <c r="AL80" s="23"/>
       <c r="AM80" s="71"/>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="66"/>
       <c r="C81" s="23"/>
@@ -13369,7 +13370,7 @@
       <c r="AL81" s="23"/>
       <c r="AM81" s="71"/>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="66"/>
       <c r="C82" s="23"/>
@@ -13416,7 +13417,7 @@
       <c r="AL82" s="23"/>
       <c r="AM82" s="71"/>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="276" t="s">
         <v>213</v>
@@ -13466,7 +13467,7 @@
       <c r="AL83" s="23"/>
       <c r="AM83" s="71"/>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="66"/>
       <c r="C84" s="23"/>
@@ -13515,7 +13516,7 @@
       <c r="AL84" s="23"/>
       <c r="AM84" s="71"/>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="66"/>
       <c r="C85" s="23"/>
@@ -13525,7 +13526,7 @@
         <v>Enter the Resistance for R3</v>
       </c>
       <c r="F85" s="114">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G85" s="105" t="s">
         <v>16</v>
@@ -13562,7 +13563,7 @@
       <c r="AL85" s="23"/>
       <c r="AM85" s="71"/>
     </row>
-    <row r="86" spans="1:39" ht="13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B86" s="194"/>
       <c r="C86" s="192"/>
       <c r="D86" s="192"/>
@@ -13604,7 +13605,7 @@
       <c r="AL86" s="192"/>
       <c r="AM86" s="200"/>
     </row>
-    <row r="87" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="66"/>
       <c r="C87" s="72" t="s">
@@ -13653,7 +13654,7 @@
       <c r="AL87" s="23"/>
       <c r="AM87" s="71"/>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="66"/>
       <c r="C88" s="37" t="s">
@@ -13661,15 +13662,15 @@
       </c>
       <c r="D88" s="50">
         <f>IF($F$76="Option A",Equations!F23,Equations!J23)</f>
-        <v>23.293999999999997</v>
+        <v>25.664888888888886</v>
       </c>
       <c r="E88" s="51">
         <f>IF($F$76="Option A",Equations!F24,Equations!J24)</f>
-        <v>24.81</v>
+        <v>27.332222222222224</v>
       </c>
       <c r="F88" s="52">
         <f>IF($F$76="Option A",Equations!F25,Equations!J25)</f>
-        <v>26.326000000000004</v>
+        <v>28.99955555555556</v>
       </c>
       <c r="G88" s="104" t="s">
         <v>17</v>
@@ -13706,7 +13707,7 @@
       <c r="AL88" s="23"/>
       <c r="AM88" s="71"/>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="66"/>
       <c r="C89" s="37" t="s">
@@ -13714,15 +13715,15 @@
       </c>
       <c r="D89" s="53">
         <f>IF($F$76="Option A",Equations!F20,Equations!J20)</f>
-        <v>20.329999999999998</v>
+        <v>22.398222222222223</v>
       </c>
       <c r="E89" s="54">
         <f>IF($F$76="Option A",Equations!F21,Equations!J21)</f>
-        <v>21.846000000000004</v>
+        <v>24.065555555555555</v>
       </c>
       <c r="F89" s="55">
         <f>IF($F$76="Option A",Equations!F22,Equations!J22)</f>
-        <v>23.362000000000002</v>
+        <v>25.73288888888889</v>
       </c>
       <c r="G89" s="104" t="s">
         <v>17</v>
@@ -13760,7 +13761,7 @@
       <c r="AL89" s="23"/>
       <c r="AM89" s="71"/>
     </row>
-    <row r="90" spans="1:39" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="66"/>
       <c r="C90" s="37" t="s">
@@ -13814,7 +13815,7 @@
       <c r="AL90" s="23"/>
       <c r="AM90" s="71"/>
     </row>
-    <row r="91" spans="1:39" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:39" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="66"/>
       <c r="C91" s="37" t="s">
@@ -13868,7 +13869,7 @@
       <c r="AL91" s="23"/>
       <c r="AM91" s="71"/>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="66"/>
       <c r="C92" s="37" t="s">
@@ -13876,15 +13877,15 @@
       </c>
       <c r="D92" s="50">
         <f>IF($F$76="Option A",Equations!F29,Equations!J29)</f>
-        <v>7.6962127659574477</v>
+        <v>7.9704444444444444</v>
       </c>
       <c r="E92" s="51">
         <f>IF($F$76="Option A",Equations!F30,Equations!J30)</f>
-        <v>8.5185106382978724</v>
+        <v>8.8211111111111116</v>
       </c>
       <c r="F92" s="52">
         <f>IF($F$76="Option A",Equations!F31,Equations!J31)</f>
-        <v>9.340808510638297</v>
+        <v>9.6717777777777769</v>
       </c>
       <c r="G92" s="104" t="s">
         <v>17</v>
@@ -13922,7 +13923,7 @@
       <c r="AL92" s="23"/>
       <c r="AM92" s="71"/>
     </row>
-    <row r="93" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="66"/>
       <c r="C93" s="37" t="s">
@@ -13930,15 +13931,15 @@
       </c>
       <c r="D93" s="195">
         <f>IF($F$76="Option A",Equations!F26,Equations!J26)</f>
-        <v>6.7174893617021283</v>
+        <v>6.9482222222222223</v>
       </c>
       <c r="E93" s="196">
         <f>IF($F$76="Option A",Equations!F27,Equations!J27)</f>
-        <v>7.752553191489362</v>
+        <v>8.0211111111111126</v>
       </c>
       <c r="F93" s="197">
         <f>IF($F$76="Option A",Equations!F28,Equations!J28)</f>
-        <v>8.8301702127659567</v>
+        <v>9.1384444444444437</v>
       </c>
       <c r="G93" s="104" t="s">
         <v>17</v>
@@ -13976,7 +13977,7 @@
       <c r="AL93" s="23"/>
       <c r="AM93" s="71"/>
     </row>
-    <row r="94" spans="1:39" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:39" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="66"/>
       <c r="C94" s="287" t="s">
@@ -14019,7 +14020,7 @@
       <c r="AL94" s="23"/>
       <c r="AM94" s="71"/>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="66"/>
       <c r="C95" s="287"/>
@@ -14060,7 +14061,7 @@
       <c r="AL95" s="23"/>
       <c r="AM95" s="71"/>
     </row>
-    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="66"/>
       <c r="C96" s="287"/>
@@ -14101,7 +14102,7 @@
       <c r="AL96" s="23"/>
       <c r="AM96" s="71"/>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="66"/>
       <c r="C97" s="68"/>
@@ -14142,7 +14143,7 @@
       <c r="AL97" s="68"/>
       <c r="AM97" s="75"/>
     </row>
-    <row r="98" spans="1:39" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:39" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
       <c r="B98" s="91" t="s">
         <v>39</v>
@@ -14192,7 +14193,7 @@
       <c r="AL98" s="64"/>
       <c r="AM98" s="84"/>
     </row>
-    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="66"/>
       <c r="C99" s="23"/>
@@ -14244,7 +14245,7 @@
       <c r="AL99" s="23"/>
       <c r="AM99" s="76"/>
     </row>
-    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="66"/>
       <c r="C100" s="23"/>
@@ -14254,7 +14255,7 @@
       </c>
       <c r="F100" s="45">
         <f>F85</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G100" s="202" t="s">
         <v>16</v>
@@ -14300,7 +14301,7 @@
       <c r="AL100" s="23"/>
       <c r="AM100" s="76"/>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="66"/>
       <c r="C101" s="23"/>
@@ -14356,7 +14357,7 @@
       <c r="AL101" s="23"/>
       <c r="AM101" s="76"/>
     </row>
-    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="66"/>
       <c r="C102" s="23"/>
@@ -14412,7 +14413,7 @@
       <c r="AL102" s="23"/>
       <c r="AM102" s="76"/>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="66"/>
       <c r="C103" s="23"/>
@@ -14422,7 +14423,7 @@
       </c>
       <c r="F103" s="46">
         <f>F85</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G103" s="202" t="s">
         <v>16</v>
@@ -14434,7 +14435,7 @@
       </c>
       <c r="K103" s="89">
         <f>E88</f>
-        <v>24.81</v>
+        <v>27.332222222222224</v>
       </c>
       <c r="L103" s="163" t="s">
         <v>17</v>
@@ -14467,7 +14468,7 @@
       <c r="AL103" s="23"/>
       <c r="AM103" s="76"/>
     </row>
-    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="66"/>
       <c r="C104" s="23"/>
@@ -14489,7 +14490,7 @@
       </c>
       <c r="K104" s="89">
         <f>E89</f>
-        <v>21.846000000000004</v>
+        <v>24.065555555555555</v>
       </c>
       <c r="L104" s="163" t="s">
         <v>17</v>
@@ -14522,7 +14523,7 @@
       <c r="AL104" s="23"/>
       <c r="AM104" s="76"/>
     </row>
-    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="66"/>
       <c r="C105" s="23"/>
@@ -14544,7 +14545,7 @@
       </c>
       <c r="K105" s="89">
         <f>E92</f>
-        <v>8.5185106382978724</v>
+        <v>8.8211111111111116</v>
       </c>
       <c r="L105" s="163" t="s">
         <v>17</v>
@@ -14577,7 +14578,7 @@
       <c r="AL105" s="23"/>
       <c r="AM105" s="76"/>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="66"/>
       <c r="C106" s="23"/>
@@ -14587,7 +14588,7 @@
       </c>
       <c r="F106" s="49">
         <f>F85</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G106" s="202" t="s">
         <v>16</v>
@@ -14599,7 +14600,7 @@
       </c>
       <c r="K106" s="217">
         <f>E93</f>
-        <v>7.752553191489362</v>
+        <v>8.0211111111111126</v>
       </c>
       <c r="L106" s="166" t="s">
         <v>17</v>
@@ -14632,7 +14633,7 @@
       <c r="AL106" s="23"/>
       <c r="AM106" s="76"/>
     </row>
-    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="66"/>
       <c r="C107" s="23"/>
@@ -14682,7 +14683,7 @@
       <c r="AL107" s="23"/>
       <c r="AM107" s="76"/>
     </row>
-    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="66"/>
       <c r="C108" s="23"/>
@@ -14729,7 +14730,7 @@
       <c r="AL108" s="23"/>
       <c r="AM108" s="76"/>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="66"/>
       <c r="C109" s="23"/>
@@ -14776,7 +14777,7 @@
       <c r="AL109" s="23"/>
       <c r="AM109" s="76"/>
     </row>
-    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="66"/>
       <c r="C110" s="23"/>
@@ -14824,7 +14825,7 @@
       <c r="AL110" s="23"/>
       <c r="AM110" s="76"/>
     </row>
-    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="66"/>
       <c r="C111" s="23"/>
@@ -14869,7 +14870,7 @@
       <c r="AL111" s="23"/>
       <c r="AM111" s="76"/>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="66"/>
       <c r="C112" s="23"/>
@@ -14915,7 +14916,7 @@
       <c r="AL112" s="23"/>
       <c r="AM112" s="76"/>
     </row>
-    <row r="113" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="66"/>
       <c r="C113" s="23"/>
@@ -14956,7 +14957,7 @@
       <c r="AL113" s="23"/>
       <c r="AM113" s="76"/>
     </row>
-    <row r="114" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="66"/>
       <c r="C114" s="23"/>
@@ -14997,7 +14998,7 @@
       <c r="AL114" s="23"/>
       <c r="AM114" s="76"/>
     </row>
-    <row r="115" spans="1:41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="66"/>
       <c r="C115" s="23"/>
@@ -15042,7 +15043,7 @@
       <c r="AL115" s="23"/>
       <c r="AM115" s="76"/>
     </row>
-    <row r="116" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="66"/>
       <c r="C116" s="23"/>
@@ -15083,7 +15084,7 @@
       <c r="AL116" s="23"/>
       <c r="AM116" s="76"/>
     </row>
-    <row r="117" spans="1:41" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A117" s="19"/>
       <c r="B117" s="154" t="s">
         <v>4</v>
@@ -15128,7 +15129,7 @@
       <c r="AL117" s="23"/>
       <c r="AM117" s="71"/>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="66"/>
       <c r="C118" s="35" t="s">
@@ -15171,7 +15172,7 @@
       <c r="AL118" s="23"/>
       <c r="AM118" s="71"/>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="66"/>
       <c r="C119" s="35" t="s">
@@ -15214,7 +15215,7 @@
       <c r="AL119" s="23"/>
       <c r="AM119" s="71"/>
     </row>
-    <row r="120" spans="1:41" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="67"/>
       <c r="C120" s="68"/>
@@ -15255,7 +15256,7 @@
       <c r="AL120" s="68"/>
       <c r="AM120" s="75"/>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
@@ -15293,7 +15294,7 @@
       <c r="AM121" s="23"/>
       <c r="AN121" s="225"/>
     </row>
-    <row r="122" spans="1:41" ht="14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="43"/>
       <c r="C122" s="19"/>
@@ -15332,7 +15333,7 @@
       <c r="AN122" s="225"/>
       <c r="AO122" s="9"/>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -15371,7 +15372,7 @@
       <c r="AN123" s="225"/>
       <c r="AO123" s="9"/>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
@@ -15410,7 +15411,7 @@
       <c r="AN124" s="225"/>
       <c r="AO124" s="9"/>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -15449,7 +15450,7 @@
       <c r="AN125" s="225"/>
       <c r="AO125" s="9"/>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -15488,7 +15489,7 @@
       <c r="AN126" s="225"/>
       <c r="AO126" s="9"/>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
@@ -15527,7 +15528,7 @@
       <c r="AN127" s="225"/>
       <c r="AO127" s="9"/>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -15566,7 +15567,7 @@
       <c r="AN128" s="225"/>
       <c r="AO128" s="9"/>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
@@ -15605,7 +15606,7 @@
       <c r="AN129" s="225"/>
       <c r="AO129" s="9"/>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
@@ -15644,7 +15645,7 @@
       <c r="AN130" s="225"/>
       <c r="AO130" s="9"/>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -15682,7 +15683,7 @@
       <c r="AM131" s="23"/>
       <c r="AN131" s="225"/>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -15719,7 +15720,7 @@
       <c r="AM132" s="23"/>
       <c r="AN132" s="225"/>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -15756,7 +15757,7 @@
       <c r="AL133" s="19"/>
       <c r="AM133" s="19"/>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A134" s="19"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -15793,7 +15794,7 @@
       <c r="AL134" s="19"/>
       <c r="AM134" s="19"/>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A135" s="19"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -15830,7 +15831,7 @@
       <c r="AL135" s="19"/>
       <c r="AM135" s="19"/>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A136" s="19"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
@@ -15867,7 +15868,7 @@
       <c r="AL136" s="19"/>
       <c r="AM136" s="19"/>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A137" s="19"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
@@ -15904,7 +15905,7 @@
       <c r="AL137" s="19"/>
       <c r="AM137" s="19"/>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A138" s="19"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
@@ -15941,7 +15942,7 @@
       <c r="AL138" s="19"/>
       <c r="AM138" s="19"/>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A139" s="19"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
@@ -15978,7 +15979,7 @@
       <c r="AL139" s="19"/>
       <c r="AM139" s="19"/>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A140" s="19"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
@@ -16015,7 +16016,7 @@
       <c r="AL140" s="19"/>
       <c r="AM140" s="19"/>
     </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A141" s="19"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
@@ -16052,7 +16053,7 @@
       <c r="AL141" s="19"/>
       <c r="AM141" s="19"/>
     </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A142" s="19"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -16092,7 +16093,7 @@
       <c r="AL142" s="19"/>
       <c r="AM142" s="19"/>
     </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A143" s="19"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -16132,7 +16133,7 @@
       <c r="AL143" s="19"/>
       <c r="AM143" s="19"/>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A144" s="19"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
@@ -16172,7 +16173,7 @@
       <c r="AL144" s="19"/>
       <c r="AM144" s="19"/>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A145" s="19"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -16212,7 +16213,7 @@
       <c r="AL145" s="19"/>
       <c r="AM145" s="19"/>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A146" s="19"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -16253,7 +16254,7 @@
       <c r="AL146" s="19"/>
       <c r="AM146" s="19"/>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A147" s="19"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -16294,7 +16295,7 @@
       <c r="AL147" s="19"/>
       <c r="AM147" s="19"/>
     </row>
-    <row r="148" spans="1:39" ht="14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="19"/>
       <c r="B148" s="44"/>
       <c r="C148" s="19"/>
@@ -16335,7 +16336,7 @@
       <c r="AL148" s="19"/>
       <c r="AM148" s="19"/>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A149" s="19"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -16376,7 +16377,7 @@
       <c r="AL149" s="19"/>
       <c r="AM149" s="19"/>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A150" s="19"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -16417,7 +16418,7 @@
       <c r="AL150" s="19"/>
       <c r="AM150" s="19"/>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A151" s="19"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -16458,7 +16459,7 @@
       <c r="AL151" s="19"/>
       <c r="AM151" s="19"/>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A152" s="19"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
@@ -16499,7 +16500,7 @@
       <c r="AL152" s="19"/>
       <c r="AM152" s="19"/>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A153" s="19"/>
       <c r="B153" s="19"/>
       <c r="D153" s="19"/>
@@ -16539,7 +16540,7 @@
       <c r="AL153" s="19"/>
       <c r="AM153" s="19"/>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A154" s="19"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
@@ -16580,7 +16581,7 @@
       <c r="AL154" s="19"/>
       <c r="AM154" s="19"/>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A155" s="19"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
@@ -16621,7 +16622,7 @@
       <c r="AL155" s="19"/>
       <c r="AM155" s="19"/>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A156" s="19"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
@@ -16662,7 +16663,7 @@
       <c r="AL156" s="19"/>
       <c r="AM156" s="19"/>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A157" s="19"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
@@ -16703,7 +16704,7 @@
       <c r="AL157" s="19"/>
       <c r="AM157" s="19"/>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A158" s="19"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
@@ -16744,7 +16745,7 @@
       <c r="AL158" s="19"/>
       <c r="AM158" s="19"/>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A159" s="19"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -16785,7 +16786,7 @@
       <c r="AL159" s="19"/>
       <c r="AM159" s="19"/>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A160" s="19"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
@@ -16826,7 +16827,7 @@
       <c r="AL160" s="19"/>
       <c r="AM160" s="19"/>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A161" s="19"/>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
@@ -16867,7 +16868,7 @@
       <c r="AL161" s="19"/>
       <c r="AM161" s="19"/>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A162" s="19"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
@@ -16908,7 +16909,7 @@
       <c r="AL162" s="19"/>
       <c r="AM162" s="19"/>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A163" s="19"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
@@ -16949,7 +16950,7 @@
       <c r="AL163" s="19"/>
       <c r="AM163" s="19"/>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
@@ -16990,7 +16991,7 @@
       <c r="AL164" s="19"/>
       <c r="AM164" s="19"/>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A165" s="19"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
@@ -17031,7 +17032,7 @@
       <c r="AL165" s="19"/>
       <c r="AM165" s="19"/>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A166" s="19"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
@@ -17072,7 +17073,7 @@
       <c r="AL166" s="19"/>
       <c r="AM166" s="19"/>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A167" s="19"/>
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
@@ -17113,7 +17114,7 @@
       <c r="AL167" s="19"/>
       <c r="AM167" s="19"/>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A168" s="19"/>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
@@ -17154,7 +17155,7 @@
       <c r="AL168" s="19"/>
       <c r="AM168" s="19"/>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A169" s="19"/>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
@@ -17195,7 +17196,7 @@
       <c r="AL169" s="19"/>
       <c r="AM169" s="19"/>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A170" s="19"/>
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
@@ -17236,7 +17237,7 @@
       <c r="AL170" s="19"/>
       <c r="AM170" s="19"/>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A171" s="19"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
@@ -17277,7 +17278,7 @@
       <c r="AL171" s="19"/>
       <c r="AM171" s="19"/>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A172" s="19"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -17318,7 +17319,7 @@
       <c r="AL172" s="19"/>
       <c r="AM172" s="19"/>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A173" s="19"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
@@ -17359,7 +17360,7 @@
       <c r="AL173" s="19"/>
       <c r="AM173" s="19"/>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A174" s="19"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -17400,7 +17401,7 @@
       <c r="AL174" s="19"/>
       <c r="AM174" s="19"/>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A175" s="19"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
@@ -17441,7 +17442,7 @@
       <c r="AL175" s="19"/>
       <c r="AM175" s="19"/>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A176" s="19"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
@@ -17482,7 +17483,7 @@
       <c r="AL176" s="19"/>
       <c r="AM176" s="19"/>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A177" s="19"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
@@ -17523,7 +17524,7 @@
       <c r="AL177" s="19"/>
       <c r="AM177" s="19"/>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A178" s="19"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
@@ -17564,7 +17565,7 @@
       <c r="AL178" s="19"/>
       <c r="AM178" s="19"/>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A179" s="19"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -17605,7 +17606,7 @@
       <c r="AL179" s="19"/>
       <c r="AM179" s="19"/>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A180" s="19"/>
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
@@ -17646,7 +17647,7 @@
       <c r="AL180" s="19"/>
       <c r="AM180" s="19"/>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A181" s="19"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
@@ -17687,7 +17688,7 @@
       <c r="AL181" s="19"/>
       <c r="AM181" s="19"/>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A182" s="19"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
@@ -17728,7 +17729,7 @@
       <c r="AL182" s="19"/>
       <c r="AM182" s="19"/>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A183" s="19"/>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
@@ -17769,7 +17770,7 @@
       <c r="AL183" s="19"/>
       <c r="AM183" s="19"/>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A184" s="19"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
@@ -17810,7 +17811,7 @@
       <c r="AL184" s="19"/>
       <c r="AM184" s="19"/>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A185" s="19"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
@@ -17851,7 +17852,7 @@
       <c r="AL185" s="19"/>
       <c r="AM185" s="19"/>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A186" s="19"/>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
@@ -17892,7 +17893,7 @@
       <c r="AL186" s="19"/>
       <c r="AM186" s="19"/>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A187" s="19"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -17933,7 +17934,7 @@
       <c r="AL187" s="19"/>
       <c r="AM187" s="19"/>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A188" s="19"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -17974,7 +17975,7 @@
       <c r="AL188" s="19"/>
       <c r="AM188" s="19"/>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A189" s="19"/>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
@@ -18011,7 +18012,7 @@
       <c r="AL189" s="19"/>
       <c r="AM189" s="19"/>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A190" s="19"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
@@ -18048,7 +18049,7 @@
       <c r="AL190" s="19"/>
       <c r="AM190" s="19"/>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A191" s="19"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -18085,7 +18086,7 @@
       <c r="AL191" s="19"/>
       <c r="AM191" s="19"/>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A192" s="19"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
@@ -18384,16 +18385,16 @@
       <selection activeCell="D32" activeCellId="1" sqref="F36 D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
+    <col min="1" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
       <c r="B2" s="155"/>
       <c r="D2" s="33" t="s">
@@ -18409,7 +18410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
@@ -18418,7 +18419,7 @@
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
     </row>
-    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="33" t="s">
@@ -18432,7 +18433,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="34" t="s">
         <v>33</v>
       </c>
@@ -18448,12 +18449,12 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>110</v>
       </c>
@@ -18462,7 +18463,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="155" t="s">
         <v>111</v>
       </c>
@@ -18482,7 +18483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="155" t="s">
         <v>113</v>
       </c>
@@ -18498,7 +18499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="155" t="s">
         <v>117</v>
       </c>
@@ -18514,7 +18515,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="155" t="s">
         <v>115</v>
       </c>
@@ -18532,12 +18533,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="167"/>
       <c r="E12" s="167"/>
       <c r="F12" s="167"/>
     </row>
-    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>100</v>
       </c>
@@ -18546,7 +18547,7 @@
       <c r="E13" s="167"/>
       <c r="F13" s="167"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="155" t="s">
         <v>119</v>
       </c>
@@ -18566,7 +18567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="155" t="s">
         <v>120</v>
       </c>
@@ -18586,7 +18587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="155" t="s">
         <v>121</v>
       </c>
@@ -18606,13 +18607,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>37</v>
       </c>
@@ -18622,7 +18623,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="155" t="s">
         <v>126</v>
       </c>
@@ -18642,7 +18643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="155" t="s">
         <v>127</v>
       </c>
@@ -18658,7 +18659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="155" t="s">
         <v>128</v>
       </c>
@@ -18674,7 +18675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="155" t="s">
         <v>129</v>
       </c>
@@ -18694,7 +18695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="155" t="s">
         <v>130</v>
       </c>
@@ -18711,20 +18712,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="155" t="s">
         <v>131</v>
       </c>
@@ -18744,7 +18745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="155" t="s">
         <v>132</v>
       </c>
@@ -18755,7 +18756,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="155" t="s">
         <v>133</v>
       </c>
@@ -18775,7 +18776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="155" t="s">
         <v>134</v>
       </c>
@@ -18795,7 +18796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="155" t="s">
         <v>135</v>
       </c>
@@ -18815,7 +18816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="155" t="s">
         <v>136</v>
       </c>
@@ -18829,16 +18830,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C32" s="34"/>
     </row>
-    <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="27"/>
     </row>
-    <row r="34" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="155" t="s">
         <v>137</v>
@@ -18859,7 +18860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="155" t="s">
         <v>138</v>
@@ -18880,7 +18881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="155" t="s">
         <v>139</v>
@@ -18901,7 +18902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G40" s="33"/>
       <c r="I40" s="33"/>
     </row>
@@ -18920,40 +18921,40 @@
       <selection activeCell="D32" activeCellId="1" sqref="F36 D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="155"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="155"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="155"/>
     </row>
-    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="177" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="D13" s="90"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" s="121" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" s="155" t="s">
         <v>161</v>
       </c>
@@ -18976,7 +18977,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="62" t="s">
         <v>107</v>
       </c>
@@ -19005,10 +19006,10 @@
       </c>
       <c r="J16">
         <f>'Design Calculator'!F85</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C17" s="121" t="s">
         <v>108</v>
       </c>
@@ -19040,7 +19041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C18" s="121" t="s">
         <v>109</v>
       </c>
@@ -19054,7 +19055,7 @@
       </c>
       <c r="F18" s="4">
         <f>'Design Calculator'!F85</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G18" s="155" t="s">
         <v>124</v>
@@ -19072,7 +19073,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="C19" s="121"/>
       <c r="G19" s="155" t="s">
@@ -19091,7 +19092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="131"/>
@@ -19100,14 +19101,14 @@
       </c>
       <c r="F20">
         <f>RONE*((OVPTHMIN-OVPHYSTYP)/RTHREE+UVLOBIASMIN*1000)+RTWO*(OVPTHMIN-OVPHYSTYP)/RTHREE+(OVPTHMIN-OVPHYSTYP)</f>
-        <v>20.329999999999998</v>
+        <v>22.398222222222223</v>
       </c>
       <c r="J20">
         <f>(OVPTHMIN)+(REIGHT*(OVPTHMIN-OVPHYSTYP)/RNINE)</f>
-        <v>2.0986666666666665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.0768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="9"/>
       <c r="D21" s="132"/>
@@ -19116,14 +19117,14 @@
       </c>
       <c r="F21">
         <f>RONE*((OVPTHTYP-OVPHYSTYP)/RTHREE+UVLOBIASTYP*1000)+RTWO*(OVPTHTYP-OVPHYSTYP)/RTHREE+(OVPTHTYP-OVPHYSTYP)</f>
-        <v>21.846000000000004</v>
+        <v>24.065555555555555</v>
       </c>
       <c r="J21">
         <f>(OVPTHTYP-OVPHYSTYP)+(REIGHT*(OVPTHTYP-OVPHYSTYP)/RNINE)</f>
-        <v>1.9946666666666666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.9712000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="133"/>
@@ -19132,63 +19133,63 @@
       </c>
       <c r="F22">
         <f>RONE*((OVPTHMAX-OVPHYSTYP)/RTHREE+UVLOBIASMAX*1000)+RTWO*(OVPTHMAX-OVPHYSTYP)/RTHREE+(OVPTHMAX-OVPHYSTYP)</f>
-        <v>23.362000000000002</v>
+        <v>25.73288888888889</v>
       </c>
       <c r="J22">
         <f>(OVPTHMAX-OVPHYSTYP)+(REIGHT*(OVPTHMAX-OVPHYSTYP)/RNINE)</f>
-        <v>2.1306666666666669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.1055999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D23" s="90"/>
       <c r="E23" s="182" t="s">
         <v>146</v>
       </c>
       <c r="F23">
         <f>RONE*((OVPTHMIN)/RTHREE+UVLOBIASMIN*1000)+RTWO*(OVPTHMIN)/RTHREE+(OVPTHMIN)</f>
-        <v>23.293999999999997</v>
+        <v>25.664888888888886</v>
       </c>
       <c r="J23">
         <f>(OVPTHMIN)+(REIGHT*(OVPTHMIN)/RNINE)</f>
-        <v>2.1306666666666665</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.1055999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D24" s="90"/>
       <c r="E24" s="183" t="s">
         <v>147</v>
       </c>
       <c r="F24">
         <f>RONE*((OVPTHTYP)/RTHREE+UVLOBIASTYP*1000)+RTWO*(OVPTHTYP)/RTHREE+(OVPTHTYP)</f>
-        <v>24.81</v>
+        <v>27.332222222222224</v>
       </c>
       <c r="J24">
         <f>(OVPTHTYP)+(REIGHT*(OVPTHTYP)/RNINE)</f>
-        <v>2.2666666666666666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D25" s="90"/>
       <c r="E25" s="184" t="s">
         <v>154</v>
       </c>
       <c r="F25">
         <f>RONE*((OVPTHMAX)/RTHREE+UVLOBIASMAX*1000)+RTWO*(OVPTHMAX)/RTHREE+(OVPTHMAX)</f>
-        <v>26.326000000000004</v>
+        <v>28.99955555555556</v>
       </c>
       <c r="J25">
         <f>(OVPTHMAX)+(REIGHT*(OVPTHMAX)/RNINE)</f>
-        <v>2.4026666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.3744000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="E26" s="110" t="s">
         <v>148</v>
       </c>
       <c r="F26">
         <f>((UVLOTHMIN-UVLOHYSMAX)/(RTWO+RTHREE)+UVLOBIASMIN*1000)*RONE+UVLOTHMIN</f>
-        <v>6.7174893617021283</v>
+        <v>6.9482222222222223</v>
       </c>
       <c r="J26" s="155">
         <f>(UVLOTHMIN-UVLOHYSMAX)+(RTEN*(UVLOBIASMIN*1000+(UVLOTHMIN-UVLOHYSMAX)/RELEVEN))</f>
@@ -19196,14 +19197,14 @@
       </c>
       <c r="K26" s="155"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="E27" s="110" t="s">
         <v>149</v>
       </c>
       <c r="F27" s="4">
         <f>((UVLOTHTYP-UVLOHYSTYP)/(RTWO+RTHREE)+UVLOBIASTYP*1000)*RONE+UVLOTHTYP</f>
-        <v>7.752553191489362</v>
+        <v>8.0211111111111126</v>
       </c>
       <c r="G27" s="4"/>
       <c r="I27" s="4"/>
@@ -19212,28 +19213,28 @@
         <v>1.6265500000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="E28" s="110" t="s">
         <v>150</v>
       </c>
       <c r="F28">
         <f>((UVLOTHMAX-UVLOHYSMIN)/(RTWO+RTHREE)+UVLOBIASMAX*1000)*RONE+UVLOTHMAX</f>
-        <v>8.8301702127659567</v>
+        <v>9.1384444444444437</v>
       </c>
       <c r="J28">
         <f>(UVLOTHMAX-UVLOHYSMIN)+(RTEN*(UVLOBIASMAX*1000+(UVLOTHMAX-UVLOHYSMIN)/RELEVEN))</f>
         <v>1.8694899999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="E29" s="110" t="s">
         <v>151</v>
       </c>
       <c r="F29">
         <f>((UVLOTHMIN)/(RTWO+RTHREE)+UVLOBIASMIN*1000)*RONE+UVLOTHMIN</f>
-        <v>7.6962127659574477</v>
+        <v>7.9704444444444444</v>
       </c>
       <c r="J29" s="155">
         <f>(UVLOTHMIN)+(RTEN*(UVLOBIASMIN*1000+(UVLOTHMIN-UVLOHYSMAX)/RELEVEN))</f>
@@ -19241,14 +19242,14 @@
       </c>
       <c r="K29" s="155"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="E30" s="110" t="s">
         <v>152</v>
       </c>
       <c r="F30" s="4">
         <f>((UVLOTHTYP)/(RTWO+RTHREE)+UVLOBIASTYP*1000)*RONE+UVLOTHTYP</f>
-        <v>8.5185106382978724</v>
+        <v>8.8211111111111116</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30" s="4"/>
@@ -19257,36 +19258,36 @@
         <v>1.8308500000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="E31" s="110" t="s">
         <v>153</v>
       </c>
       <c r="F31">
         <f>((UVLOTHMAX)/(RTWO+RTHREE)+UVLOBIASMAX*1000)*RONE+UVLOTHMAX</f>
-        <v>9.340808510638297</v>
+        <v>9.6717777777777769</v>
       </c>
       <c r="J31">
         <f>(UVLOTHMAX)+(RTEN*(UVLOBIASMAX*1000+(UVLOTHMAX)/RELEVEN))</f>
         <v>2.00569</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="I33" s="90"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="I34" s="90"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="I35" s="90"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="D36" s="90"/>
       <c r="E36" s="62"/>
@@ -19295,7 +19296,7 @@
       <c r="H36" s="61"/>
       <c r="I36" s="90"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="D37" s="90"/>
       <c r="E37" s="62"/>
@@ -19304,7 +19305,7 @@
       <c r="H37" s="61"/>
       <c r="I37" s="90"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="D38" s="90"/>
       <c r="E38" s="62"/>
@@ -19313,7 +19314,7 @@
       <c r="H38" s="61"/>
       <c r="I38" s="90"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="D39" s="90"/>
       <c r="E39" s="62"/>
@@ -19322,7 +19323,7 @@
       <c r="H39" s="61"/>
       <c r="I39" s="90"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D40" s="90"/>
       <c r="E40" s="121"/>
       <c r="F40" s="122"/>
@@ -19330,7 +19331,7 @@
       <c r="H40" s="90"/>
       <c r="I40" s="90"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D41" s="90"/>
       <c r="E41" s="121"/>
       <c r="F41" s="122"/>
@@ -19338,7 +19339,7 @@
       <c r="H41" s="90"/>
       <c r="I41" s="90"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D42" s="90"/>
       <c r="E42" s="121"/>
       <c r="F42" s="122"/>
@@ -19346,7 +19347,7 @@
       <c r="H42" s="90"/>
       <c r="I42" s="90"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D43" s="90"/>
       <c r="E43" s="121"/>
       <c r="F43" s="123"/>
@@ -19358,7 +19359,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D44" s="90"/>
       <c r="E44" s="121"/>
       <c r="F44" s="123"/>
@@ -19370,7 +19371,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="D45" s="90"/>
       <c r="E45" s="90"/>
@@ -19379,7 +19380,7 @@
       <c r="H45" s="90"/>
       <c r="I45" s="90"/>
     </row>
-    <row r="46" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="D46" s="307"/>
       <c r="E46" s="308"/>
@@ -19388,7 +19389,7 @@
       <c r="H46" s="308"/>
       <c r="I46" s="90"/>
     </row>
-    <row r="47" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="D47" s="90"/>
       <c r="E47" s="62"/>
@@ -19397,7 +19398,7 @@
       <c r="H47" s="124"/>
       <c r="I47" s="90"/>
     </row>
-    <row r="48" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="D48" s="90"/>
       <c r="E48" s="62"/>
@@ -19406,7 +19407,7 @@
       <c r="H48" s="90"/>
       <c r="I48" s="90"/>
     </row>
-    <row r="49" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="D49" s="90"/>
       <c r="E49" s="62"/>
@@ -19415,7 +19416,7 @@
       <c r="H49" s="124"/>
       <c r="I49" s="90"/>
     </row>
-    <row r="50" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="D50" s="90"/>
       <c r="E50" s="62"/>
@@ -19424,7 +19425,7 @@
       <c r="H50" s="124"/>
       <c r="I50" s="90"/>
     </row>
-    <row r="51" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="D51" s="90"/>
       <c r="E51" s="62"/>
@@ -19433,7 +19434,7 @@
       <c r="H51" s="124"/>
       <c r="I51" s="90"/>
     </row>
-    <row r="52" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="D52" s="90"/>
       <c r="E52" s="62"/>
@@ -19442,7 +19443,7 @@
       <c r="H52" s="124"/>
       <c r="I52" s="90"/>
     </row>
-    <row r="53" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="D53" s="90"/>
       <c r="E53" s="62"/>
@@ -19451,7 +19452,7 @@
       <c r="H53" s="124"/>
       <c r="I53" s="90"/>
     </row>
-    <row r="54" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="D54" s="307"/>
       <c r="E54" s="308"/>
@@ -19460,7 +19461,7 @@
       <c r="H54" s="308"/>
       <c r="I54" s="90"/>
     </row>
-    <row r="55" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="C55" s="33"/>
       <c r="D55" s="125"/>
@@ -19470,7 +19471,7 @@
       <c r="H55" s="126"/>
       <c r="I55" s="90"/>
     </row>
-    <row r="56" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="C56" s="33"/>
       <c r="D56" s="125"/>
@@ -19480,7 +19481,7 @@
       <c r="H56" s="124"/>
       <c r="I56" s="90"/>
     </row>
-    <row r="57" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="C57" s="33"/>
       <c r="D57" s="125"/>
@@ -19490,7 +19491,7 @@
       <c r="H57" s="124"/>
       <c r="I57" s="90"/>
     </row>
-    <row r="58" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="C58" s="33"/>
       <c r="D58" s="125"/>
@@ -19500,7 +19501,7 @@
       <c r="H58" s="124"/>
       <c r="I58" s="90"/>
     </row>
-    <row r="59" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="C59" s="33"/>
       <c r="D59" s="125"/>
@@ -19510,7 +19511,7 @@
       <c r="H59" s="126"/>
       <c r="I59" s="90"/>
     </row>
-    <row r="60" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="C60" s="33"/>
       <c r="D60" s="125"/>
@@ -19520,7 +19521,7 @@
       <c r="H60" s="126"/>
       <c r="I60" s="90"/>
     </row>
-    <row r="61" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="C61" s="33"/>
       <c r="D61" s="125"/>
@@ -19530,7 +19531,7 @@
       <c r="H61" s="126"/>
       <c r="I61" s="90"/>
     </row>
-    <row r="62" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="C62" s="33"/>
       <c r="D62" s="125"/>
@@ -19540,7 +19541,7 @@
       <c r="H62" s="126"/>
       <c r="I62" s="90"/>
     </row>
-    <row r="63" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="D63" s="127"/>
       <c r="E63" s="62"/>
@@ -19549,7 +19550,7 @@
       <c r="H63" s="126"/>
       <c r="I63" s="90"/>
     </row>
-    <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="D64" s="90"/>
       <c r="E64" s="62"/>
@@ -19558,7 +19559,7 @@
       <c r="H64" s="126"/>
       <c r="I64" s="90"/>
     </row>
-    <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="D65" s="90"/>
       <c r="E65" s="62"/>
@@ -19567,7 +19568,7 @@
       <c r="H65" s="124"/>
       <c r="I65" s="90"/>
     </row>
-    <row r="66" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="D66" s="90"/>
       <c r="E66" s="62"/>
@@ -19576,7 +19577,7 @@
       <c r="H66" s="124"/>
       <c r="I66" s="90"/>
     </row>
-    <row r="67" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="D67" s="90"/>
       <c r="E67" s="62"/>
@@ -19585,7 +19586,7 @@
       <c r="H67" s="126"/>
       <c r="I67" s="90"/>
     </row>
-    <row r="68" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="D68" s="309"/>
       <c r="E68" s="309"/>
@@ -19594,7 +19595,7 @@
       <c r="H68" s="309"/>
       <c r="I68" s="309"/>
     </row>
-    <row r="69" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="D69" s="90"/>
       <c r="E69" s="62"/>
@@ -19603,7 +19604,7 @@
       <c r="H69" s="124"/>
       <c r="I69" s="90"/>
     </row>
-    <row r="70" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="D70" s="90"/>
       <c r="E70" s="62"/>
@@ -19612,7 +19613,7 @@
       <c r="H70" s="124"/>
       <c r="I70" s="90"/>
     </row>
-    <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="D71" s="90"/>
       <c r="E71" s="110"/>
@@ -19621,7 +19622,7 @@
       <c r="H71" s="124"/>
       <c r="I71" s="90"/>
     </row>
-    <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="D72" s="90"/>
       <c r="E72" s="62"/>
@@ -19630,7 +19631,7 @@
       <c r="H72" s="124"/>
       <c r="I72" s="90"/>
     </row>
-    <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="D73" s="90"/>
       <c r="E73" s="110"/>
@@ -19639,7 +19640,7 @@
       <c r="H73" s="124"/>
       <c r="I73" s="90"/>
     </row>
-    <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="D74" s="90"/>
       <c r="E74" s="62"/>
@@ -19648,7 +19649,7 @@
       <c r="H74" s="124"/>
       <c r="I74" s="90"/>
     </row>
-    <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="D75" s="90"/>
       <c r="E75" s="62"/>
@@ -19657,7 +19658,7 @@
       <c r="H75" s="124"/>
       <c r="I75" s="90"/>
     </row>
-    <row r="76" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="D76" s="90"/>
       <c r="E76" s="62"/>
@@ -19666,7 +19667,7 @@
       <c r="H76" s="124"/>
       <c r="I76" s="90"/>
     </row>
-    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="D77" s="90"/>
       <c r="E77" s="62"/>
@@ -19675,7 +19676,7 @@
       <c r="H77" s="124"/>
       <c r="I77" s="90"/>
     </row>
-    <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="D78" s="90"/>
       <c r="E78" s="62"/>
@@ -19684,7 +19685,7 @@
       <c r="H78" s="124"/>
       <c r="I78" s="90"/>
     </row>
-    <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="D79" s="90"/>
       <c r="E79" s="62"/>
@@ -19693,7 +19694,7 @@
       <c r="H79" s="124"/>
       <c r="I79" s="90"/>
     </row>
-    <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="D80" s="90"/>
       <c r="E80" s="62"/>
@@ -19702,7 +19703,7 @@
       <c r="H80" s="124"/>
       <c r="I80" s="90"/>
     </row>
-    <row r="81" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="D81" s="90"/>
       <c r="E81" s="62"/>
@@ -19711,7 +19712,7 @@
       <c r="H81" s="124"/>
       <c r="I81" s="90"/>
     </row>
-    <row r="82" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="D82" s="90"/>
       <c r="E82" s="62"/>
@@ -19720,7 +19721,7 @@
       <c r="H82" s="124"/>
       <c r="I82" s="90"/>
     </row>
-    <row r="83" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="D83" s="90"/>
       <c r="E83" s="90"/>
@@ -19729,7 +19730,7 @@
       <c r="H83" s="90"/>
       <c r="I83" s="90"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="D84" s="90"/>
       <c r="E84" s="62"/>
@@ -19738,7 +19739,7 @@
       <c r="H84" s="90"/>
       <c r="I84" s="90"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="33"/>
       <c r="D85" s="90"/>
       <c r="E85" s="62"/>
@@ -19747,7 +19748,7 @@
       <c r="H85" s="90"/>
       <c r="I85" s="90"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D86" s="124"/>
       <c r="E86" s="62"/>
       <c r="F86" s="124"/>
@@ -19755,7 +19756,7 @@
       <c r="H86" s="90"/>
       <c r="I86" s="90"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D87" s="124"/>
       <c r="E87" s="62"/>
       <c r="F87" s="124"/>
@@ -19763,7 +19764,7 @@
       <c r="H87" s="90"/>
       <c r="I87" s="90"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D88" s="124"/>
       <c r="E88" s="62"/>
       <c r="F88" s="124"/>
@@ -19771,7 +19772,7 @@
       <c r="H88" s="90"/>
       <c r="I88" s="90"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D89" s="90"/>
       <c r="E89" s="62"/>
       <c r="F89" s="124"/>
@@ -19781,7 +19782,7 @@
       <c r="L89" s="6"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D90" s="90"/>
       <c r="E90" s="62"/>
       <c r="F90" s="124"/>
@@ -19791,7 +19792,7 @@
       <c r="L90" s="6"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D91" s="90"/>
       <c r="E91" s="121"/>
       <c r="F91" s="124"/>
@@ -19801,7 +19802,7 @@
       <c r="L91" s="7"/>
       <c r="O91" s="7"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D92" s="90"/>
       <c r="E92" s="62"/>
       <c r="F92" s="124"/>
@@ -19811,7 +19812,7 @@
       <c r="L92" s="7"/>
       <c r="O92" s="7"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D93" s="90"/>
       <c r="E93" s="121"/>
       <c r="F93" s="124"/>
@@ -19819,7 +19820,7 @@
       <c r="H93" s="90"/>
       <c r="I93" s="90"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D94" s="90"/>
       <c r="E94" s="121"/>
       <c r="F94" s="124"/>
@@ -19827,7 +19828,7 @@
       <c r="H94" s="90"/>
       <c r="I94" s="90"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D95" s="90"/>
       <c r="E95" s="62"/>
       <c r="F95" s="124"/>
@@ -19835,7 +19836,7 @@
       <c r="H95" s="124"/>
       <c r="I95" s="90"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D96" s="90"/>
       <c r="E96" s="62"/>
       <c r="F96" s="124"/>
@@ -19843,7 +19844,7 @@
       <c r="H96" s="124"/>
       <c r="I96" s="90"/>
     </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D97" s="90"/>
       <c r="E97" s="62"/>
       <c r="F97" s="124"/>
@@ -19851,7 +19852,7 @@
       <c r="H97" s="124"/>
       <c r="I97" s="90"/>
     </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D98" s="90"/>
       <c r="E98" s="62"/>
       <c r="F98" s="90"/>
@@ -19859,7 +19860,7 @@
       <c r="H98" s="124"/>
       <c r="I98" s="90"/>
     </row>
-    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D99" s="90"/>
       <c r="E99" s="62"/>
       <c r="F99" s="90"/>
@@ -19867,7 +19868,7 @@
       <c r="H99" s="124"/>
       <c r="I99" s="90"/>
     </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D100" s="90"/>
       <c r="E100" s="62"/>
       <c r="F100" s="122"/>
@@ -19875,7 +19876,7 @@
       <c r="H100" s="124"/>
       <c r="I100" s="90"/>
     </row>
-    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D101" s="90"/>
       <c r="E101" s="62"/>
       <c r="F101" s="122"/>
@@ -19883,7 +19884,7 @@
       <c r="H101" s="124"/>
       <c r="I101" s="90"/>
     </row>
-    <row r="102" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D102" s="90"/>
       <c r="E102" s="62"/>
       <c r="F102" s="122"/>
@@ -19891,7 +19892,7 @@
       <c r="H102" s="124"/>
       <c r="I102" s="90"/>
     </row>
-    <row r="103" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D103" s="90"/>
       <c r="E103" s="62"/>
       <c r="F103" s="90"/>
@@ -19899,7 +19900,7 @@
       <c r="H103" s="124"/>
       <c r="I103" s="90"/>
     </row>
-    <row r="104" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D104" s="90"/>
       <c r="E104" s="62"/>
       <c r="F104" s="90"/>
@@ -19907,7 +19908,7 @@
       <c r="H104" s="124"/>
       <c r="I104" s="90"/>
     </row>
-    <row r="105" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D105" s="90"/>
       <c r="E105" s="62"/>
       <c r="F105" s="90"/>
@@ -19915,7 +19916,7 @@
       <c r="H105" s="124"/>
       <c r="I105" s="90"/>
     </row>
-    <row r="106" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D106" s="90"/>
       <c r="E106" s="62"/>
       <c r="F106" s="90"/>
@@ -19923,7 +19924,7 @@
       <c r="H106" s="124"/>
       <c r="I106" s="90"/>
     </row>
-    <row r="107" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D107" s="90"/>
       <c r="E107" s="62"/>
       <c r="F107" s="90"/>
@@ -19931,7 +19932,7 @@
       <c r="H107" s="124"/>
       <c r="I107" s="90"/>
     </row>
-    <row r="108" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D108" s="90"/>
       <c r="E108" s="62"/>
       <c r="F108" s="90"/>
@@ -19939,7 +19940,7 @@
       <c r="H108" s="90"/>
       <c r="I108" s="90"/>
     </row>
-    <row r="109" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D109" s="90"/>
       <c r="E109" s="62"/>
       <c r="F109" s="90"/>
@@ -19947,7 +19948,7 @@
       <c r="H109" s="90"/>
       <c r="I109" s="90"/>
     </row>
-    <row r="110" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D110" s="90"/>
       <c r="E110" s="62"/>
       <c r="F110" s="90"/>
@@ -19955,7 +19956,7 @@
       <c r="H110" s="90"/>
       <c r="I110" s="90"/>
     </row>
-    <row r="111" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D111" s="90"/>
       <c r="E111" s="62"/>
       <c r="F111" s="90"/>
@@ -19963,7 +19964,7 @@
       <c r="H111" s="90"/>
       <c r="I111" s="90"/>
     </row>
-    <row r="112" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D112" s="90"/>
       <c r="E112" s="62"/>
       <c r="F112" s="90"/>
@@ -19971,7 +19972,7 @@
       <c r="H112" s="90"/>
       <c r="I112" s="90"/>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D113" s="90"/>
       <c r="E113" s="62"/>
       <c r="F113" s="90"/>
@@ -19979,7 +19980,7 @@
       <c r="H113" s="90"/>
       <c r="I113" s="90"/>
     </row>
-    <row r="114" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D114" s="129"/>
       <c r="E114" s="90"/>
       <c r="F114" s="90"/>
@@ -19987,7 +19988,7 @@
       <c r="H114" s="90"/>
       <c r="I114" s="90"/>
     </row>
-    <row r="115" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D115" s="129"/>
       <c r="E115" s="90"/>
       <c r="F115" s="90"/>
@@ -19995,7 +19996,7 @@
       <c r="H115" s="90"/>
       <c r="I115" s="90"/>
     </row>
-    <row r="116" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D116" s="129"/>
       <c r="E116" s="90"/>
       <c r="F116" s="90"/>
@@ -20003,7 +20004,7 @@
       <c r="H116" s="90"/>
       <c r="I116" s="90"/>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D117" s="90"/>
       <c r="E117" s="90"/>
       <c r="F117" s="90"/>
@@ -20011,7 +20012,7 @@
       <c r="H117" s="90"/>
       <c r="I117" s="90"/>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D118" s="90"/>
       <c r="E118" s="90"/>
       <c r="F118" s="90"/>
@@ -20019,7 +20020,7 @@
       <c r="H118" s="90"/>
       <c r="I118" s="90"/>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D119" s="90"/>
       <c r="E119" s="121"/>
       <c r="F119" s="90"/>
@@ -20027,7 +20028,7 @@
       <c r="H119" s="90"/>
       <c r="I119" s="90"/>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D120" s="90"/>
       <c r="E120" s="121"/>
       <c r="F120" s="90"/>
@@ -20035,7 +20036,7 @@
       <c r="H120" s="90"/>
       <c r="I120" s="90"/>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D121" s="90"/>
       <c r="E121" s="121"/>
       <c r="F121" s="123"/>
@@ -20045,7 +20046,7 @@
       <c r="J121" s="117"/>
       <c r="K121" s="167"/>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D122" s="90"/>
       <c r="E122" s="121"/>
       <c r="F122" s="130"/>
@@ -20053,7 +20054,7 @@
       <c r="H122" s="130"/>
       <c r="I122" s="90"/>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D123" s="90"/>
       <c r="E123" s="121"/>
       <c r="F123" s="130"/>
@@ -20061,7 +20062,7 @@
       <c r="H123" s="130"/>
       <c r="I123" s="90"/>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D124" s="90"/>
       <c r="E124" s="121"/>
       <c r="F124" s="130"/>
@@ -20069,7 +20070,7 @@
       <c r="H124" s="130"/>
       <c r="I124" s="90"/>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D125" s="90"/>
       <c r="E125" s="121"/>
       <c r="F125" s="123"/>
@@ -20077,7 +20078,7 @@
       <c r="H125" s="130"/>
       <c r="I125" s="90"/>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="10"/>
       <c r="C126" s="11"/>
       <c r="D126" s="131"/>
@@ -20087,7 +20088,7 @@
       <c r="H126" s="130"/>
       <c r="I126" s="90"/>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="13"/>
       <c r="C127" s="9"/>
       <c r="D127" s="132"/>
@@ -20097,7 +20098,7 @@
       <c r="H127" s="130"/>
       <c r="I127" s="90"/>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="15"/>
       <c r="C128" s="16"/>
       <c r="D128" s="133"/>
@@ -20107,7 +20108,7 @@
       <c r="H128" s="130"/>
       <c r="I128" s="90"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D129" s="90"/>
       <c r="E129" s="3"/>
       <c r="F129" s="130"/>
@@ -20115,7 +20116,7 @@
       <c r="H129" s="130"/>
       <c r="I129" s="90"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D130" s="90"/>
       <c r="E130" s="3"/>
       <c r="F130" s="130"/>
@@ -20123,7 +20124,7 @@
       <c r="H130" s="130"/>
       <c r="I130" s="90"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D131" s="90"/>
       <c r="E131" s="3"/>
       <c r="F131" s="130"/>
@@ -20131,7 +20132,7 @@
       <c r="H131" s="130"/>
       <c r="I131" s="90"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" s="10"/>
       <c r="C132" s="11"/>
       <c r="D132" s="131"/>
@@ -20141,7 +20142,7 @@
       <c r="H132" s="130"/>
       <c r="I132" s="90"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B133" s="13"/>
       <c r="C133" s="9"/>
       <c r="D133" s="132"/>
@@ -20151,7 +20152,7 @@
       <c r="H133" s="130"/>
       <c r="I133" s="90"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B134" s="15"/>
       <c r="C134" s="16"/>
       <c r="D134" s="133"/>
@@ -20161,7 +20162,7 @@
       <c r="H134" s="130"/>
       <c r="I134" s="90"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D135" s="90"/>
       <c r="E135" s="3"/>
       <c r="F135" s="130"/>
@@ -20169,7 +20170,7 @@
       <c r="H135" s="130"/>
       <c r="I135" s="90"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D136" s="90"/>
       <c r="E136" s="3"/>
       <c r="F136" s="130"/>
@@ -20177,7 +20178,7 @@
       <c r="H136" s="130"/>
       <c r="I136" s="90"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D137" s="90"/>
       <c r="E137" s="3"/>
       <c r="F137" s="130"/>
@@ -20185,7 +20186,7 @@
       <c r="H137" s="130"/>
       <c r="I137" s="90"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D138" s="90"/>
       <c r="E138" s="90"/>
       <c r="F138" s="90"/>
@@ -20193,7 +20194,7 @@
       <c r="H138" s="90"/>
       <c r="I138" s="90"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D139" s="90"/>
       <c r="E139" s="90"/>
       <c r="F139" s="90"/>
@@ -20201,7 +20202,7 @@
       <c r="H139" s="90"/>
       <c r="I139" s="90"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D140" s="90"/>
       <c r="E140" s="90"/>
       <c r="F140" s="90"/>
@@ -20209,7 +20210,7 @@
       <c r="H140" s="90"/>
       <c r="I140" s="90"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D141" s="90"/>
       <c r="E141" s="90"/>
       <c r="F141" s="90"/>
@@ -20217,7 +20218,7 @@
       <c r="H141" s="90"/>
       <c r="I141" s="90"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D142" s="90"/>
       <c r="E142" s="90"/>
       <c r="F142" s="90"/>
@@ -20225,7 +20226,7 @@
       <c r="H142" s="90"/>
       <c r="I142" s="90"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D143" s="90"/>
       <c r="E143" s="90"/>
       <c r="F143" s="90"/>
@@ -20233,7 +20234,7 @@
       <c r="H143" s="90"/>
       <c r="I143" s="90"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D144" s="90"/>
       <c r="E144" s="90"/>
       <c r="F144" s="90"/>
@@ -20241,7 +20242,7 @@
       <c r="H144" s="90"/>
       <c r="I144" s="90"/>
     </row>
-    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D145" s="90"/>
       <c r="E145" s="62"/>
       <c r="F145" s="124"/>
@@ -20249,7 +20250,7 @@
       <c r="H145" s="124"/>
       <c r="I145" s="90"/>
     </row>
-    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D146" s="90"/>
       <c r="E146" s="62"/>
       <c r="F146" s="124"/>
@@ -20257,7 +20258,7 @@
       <c r="H146" s="124"/>
       <c r="I146" s="90"/>
     </row>
-    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D147" s="90"/>
       <c r="E147" s="62"/>
       <c r="F147" s="90"/>
@@ -20265,7 +20266,7 @@
       <c r="H147" s="124"/>
       <c r="I147" s="90"/>
     </row>
-    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D148" s="90"/>
       <c r="E148" s="90"/>
       <c r="F148" s="90"/>
@@ -20273,7 +20274,7 @@
       <c r="H148" s="90"/>
       <c r="I148" s="90"/>
     </row>
-    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D149" s="90"/>
       <c r="E149" s="90"/>
       <c r="F149" s="90"/>
@@ -20281,7 +20282,7 @@
       <c r="H149" s="90"/>
       <c r="I149" s="90"/>
     </row>
-    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D150" s="90"/>
       <c r="E150" s="90"/>
       <c r="F150" s="90"/>
@@ -20289,7 +20290,7 @@
       <c r="H150" s="90"/>
       <c r="I150" s="90"/>
     </row>
-    <row r="151" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D151" s="90"/>
       <c r="E151" s="90"/>
       <c r="F151" s="90"/>
@@ -20297,7 +20298,7 @@
       <c r="H151" s="90"/>
       <c r="I151" s="90"/>
     </row>
-    <row r="152" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D152" s="90"/>
       <c r="E152" s="90"/>
       <c r="F152" s="90"/>
@@ -20305,7 +20306,7 @@
       <c r="H152" s="90"/>
       <c r="I152" s="90"/>
     </row>
-    <row r="153" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D153" s="90"/>
       <c r="E153" s="90"/>
       <c r="F153" s="90"/>
@@ -20313,7 +20314,7 @@
       <c r="H153" s="90"/>
       <c r="I153" s="90"/>
     </row>
-    <row r="154" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D154" s="90"/>
       <c r="E154" s="90"/>
       <c r="F154" s="90"/>
@@ -20321,7 +20322,7 @@
       <c r="H154" s="90"/>
       <c r="I154" s="90"/>
     </row>
-    <row r="155" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D155" s="90"/>
       <c r="E155" s="90"/>
       <c r="F155" s="90"/>
@@ -20329,7 +20330,7 @@
       <c r="H155" s="90"/>
       <c r="I155" s="90"/>
     </row>
-    <row r="156" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D156" s="90"/>
       <c r="E156" s="90"/>
       <c r="F156" s="90"/>
@@ -20337,7 +20338,7 @@
       <c r="H156" s="90"/>
       <c r="I156" s="90"/>
     </row>
-    <row r="157" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D157" s="90"/>
       <c r="E157" s="90"/>
       <c r="F157" s="90"/>
@@ -20345,7 +20346,7 @@
       <c r="H157" s="90"/>
       <c r="I157" s="90"/>
     </row>
-    <row r="158" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D158" s="90"/>
       <c r="E158" s="90"/>
       <c r="F158" s="90"/>
@@ -20353,7 +20354,7 @@
       <c r="H158" s="90"/>
       <c r="I158" s="90"/>
     </row>
-    <row r="159" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D159" s="90"/>
       <c r="E159" s="90"/>
       <c r="F159" s="90"/>
@@ -20361,7 +20362,7 @@
       <c r="H159" s="90"/>
       <c r="I159" s="90"/>
     </row>
-    <row r="160" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D160" s="90"/>
       <c r="E160" s="90"/>
       <c r="F160" s="90"/>
@@ -20369,7 +20370,7 @@
       <c r="H160" s="90"/>
       <c r="I160" s="90"/>
     </row>
-    <row r="161" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D161" s="90"/>
       <c r="E161" s="90"/>
       <c r="F161" s="90"/>
@@ -20377,7 +20378,7 @@
       <c r="H161" s="90"/>
       <c r="I161" s="90"/>
     </row>
-    <row r="162" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D162" s="90"/>
       <c r="E162" s="90"/>
       <c r="F162" s="90"/>
@@ -20385,7 +20386,7 @@
       <c r="H162" s="90"/>
       <c r="I162" s="90"/>
     </row>
-    <row r="163" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D163" s="90"/>
       <c r="E163" s="90"/>
       <c r="F163" s="90"/>
@@ -20393,7 +20394,7 @@
       <c r="H163" s="90"/>
       <c r="I163" s="90"/>
     </row>
-    <row r="164" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D164" s="90"/>
       <c r="E164" s="90"/>
       <c r="F164" s="90"/>
@@ -20401,7 +20402,7 @@
       <c r="H164" s="90"/>
       <c r="I164" s="90"/>
     </row>
-    <row r="165" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D165" s="90"/>
       <c r="E165" s="90"/>
       <c r="F165" s="90"/>
@@ -20409,45 +20410,45 @@
       <c r="H165" s="90"/>
       <c r="I165" s="90"/>
     </row>
-    <row r="168" spans="3:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C168" s="27"/>
     </row>
-    <row r="169" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E169" s="2"/>
       <c r="F169" s="1"/>
       <c r="G169" s="167"/>
     </row>
-    <row r="170" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E170" s="2"/>
       <c r="F170" s="1"/>
       <c r="G170" s="167"/>
     </row>
-    <row r="171" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E171" s="2"/>
       <c r="F171" s="1"/>
       <c r="G171" s="167"/>
     </row>
-    <row r="173" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E173" s="2"/>
       <c r="F173" s="18"/>
       <c r="G173" s="18"/>
     </row>
-    <row r="174" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E174" s="2"/>
       <c r="F174" s="18"/>
       <c r="G174" s="18"/>
     </row>
-    <row r="175" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E175" s="2"/>
       <c r="F175" s="18"/>
       <c r="G175" s="18"/>
     </row>
-    <row r="177" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:27" x14ac:dyDescent="0.2">
       <c r="E177" s="2"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
     </row>
-    <row r="178" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:27" x14ac:dyDescent="0.2">
       <c r="E178" s="2"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -20455,19 +20456,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:27" x14ac:dyDescent="0.2">
       <c r="E179" s="2"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
     </row>
-    <row r="184" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:27" x14ac:dyDescent="0.2">
       <c r="E184" s="2"/>
       <c r="T184" s="33"/>
     </row>
-    <row r="185" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:27" x14ac:dyDescent="0.2">
       <c r="T185" s="33"/>
     </row>
-    <row r="186" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B186" s="33"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -20488,7 +20489,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D187" s="5"/>
       <c r="E187" s="28"/>
       <c r="F187" s="28"/>
@@ -20509,7 +20510,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="188" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D188" s="5"/>
       <c r="E188" s="28"/>
       <c r="F188" s="28"/>
@@ -20526,7 +20527,7 @@
       <c r="W188" s="28"/>
       <c r="X188" s="28"/>
     </row>
-    <row r="189" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D189" s="5"/>
       <c r="E189" s="28"/>
       <c r="F189" s="28"/>
@@ -20544,7 +20545,7 @@
       <c r="W189" s="28"/>
       <c r="X189" s="28"/>
     </row>
-    <row r="190" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D190" s="5"/>
       <c r="E190" s="28"/>
       <c r="F190" s="28"/>
@@ -20563,7 +20564,7 @@
       <c r="W190" s="28"/>
       <c r="X190" s="28"/>
     </row>
-    <row r="191" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D191" s="5"/>
       <c r="E191" s="28"/>
       <c r="F191" s="28"/>
@@ -20582,7 +20583,7 @@
       <c r="W191" s="28"/>
       <c r="X191" s="28"/>
     </row>
-    <row r="192" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D192" s="5"/>
       <c r="E192" s="28"/>
       <c r="F192" s="28"/>
@@ -20601,7 +20602,7 @@
       <c r="W192" s="28"/>
       <c r="X192" s="28"/>
     </row>
-    <row r="193" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D193" s="5"/>
       <c r="E193" s="28"/>
       <c r="F193" s="28"/>
@@ -20620,7 +20621,7 @@
       <c r="W193" s="28"/>
       <c r="X193" s="28"/>
     </row>
-    <row r="194" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D194" s="5"/>
       <c r="E194" s="28"/>
       <c r="F194" s="28"/>
@@ -20639,7 +20640,7 @@
       <c r="W194" s="28"/>
       <c r="X194" s="28"/>
     </row>
-    <row r="195" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D195" s="5"/>
       <c r="E195" s="28"/>
       <c r="F195" s="28"/>
@@ -20658,7 +20659,7 @@
       <c r="W195" s="28"/>
       <c r="X195" s="28"/>
     </row>
-    <row r="196" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D196" s="5"/>
       <c r="E196" s="28"/>
       <c r="F196" s="28"/>
@@ -20677,7 +20678,7 @@
       <c r="W196" s="28"/>
       <c r="X196" s="28"/>
     </row>
-    <row r="197" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D197" s="5"/>
       <c r="E197" s="28"/>
       <c r="F197" s="28"/>
@@ -20696,7 +20697,7 @@
       <c r="W197" s="28"/>
       <c r="X197" s="28"/>
     </row>
-    <row r="198" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D198" s="5"/>
       <c r="E198" s="28"/>
       <c r="F198" s="28"/>
@@ -20715,7 +20716,7 @@
       <c r="W198" s="28"/>
       <c r="X198" s="28"/>
     </row>
-    <row r="199" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D199" s="5"/>
       <c r="E199" s="28"/>
       <c r="F199" s="28"/>
@@ -20734,7 +20735,7 @@
       <c r="W199" s="28"/>
       <c r="X199" s="28"/>
     </row>
-    <row r="200" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D200" s="5"/>
       <c r="E200" s="28"/>
       <c r="F200" s="28"/>
@@ -20753,7 +20754,7 @@
       <c r="W200" s="28"/>
       <c r="X200" s="28"/>
     </row>
-    <row r="201" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D201" s="5"/>
       <c r="E201" s="28"/>
       <c r="F201" s="28"/>
@@ -20772,7 +20773,7 @@
       <c r="W201" s="28"/>
       <c r="X201" s="28"/>
     </row>
-    <row r="202" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D202" s="5"/>
       <c r="E202" s="28"/>
       <c r="F202" s="28"/>
@@ -20791,7 +20792,7 @@
       <c r="W202" s="28"/>
       <c r="X202" s="28"/>
     </row>
-    <row r="203" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D203" s="5"/>
       <c r="E203" s="28"/>
       <c r="F203" s="28"/>
@@ -20810,7 +20811,7 @@
       <c r="W203" s="28"/>
       <c r="X203" s="28"/>
     </row>
-    <row r="204" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D204" s="5"/>
       <c r="E204" s="28"/>
       <c r="F204" s="28"/>
@@ -20829,7 +20830,7 @@
       <c r="W204" s="28"/>
       <c r="X204" s="28"/>
     </row>
-    <row r="205" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D205" s="5"/>
       <c r="E205" s="28"/>
       <c r="F205" s="28"/>
@@ -20848,7 +20849,7 @@
       <c r="W205" s="28"/>
       <c r="X205" s="28"/>
     </row>
-    <row r="206" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D206" s="5"/>
       <c r="E206" s="28"/>
       <c r="F206" s="28"/>
@@ -20867,7 +20868,7 @@
       <c r="W206" s="28"/>
       <c r="X206" s="28"/>
     </row>
-    <row r="207" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D207" s="5"/>
       <c r="E207" s="28"/>
       <c r="F207" s="28"/>
@@ -20886,7 +20887,7 @@
       <c r="W207" s="28"/>
       <c r="X207" s="28"/>
     </row>
-    <row r="208" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D208" s="5"/>
       <c r="E208" s="28"/>
       <c r="F208" s="28"/>
@@ -20905,7 +20906,7 @@
       <c r="W208" s="28"/>
       <c r="X208" s="28"/>
     </row>
-    <row r="209" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D209" s="5"/>
       <c r="E209" s="28"/>
       <c r="F209" s="28"/>
@@ -20924,7 +20925,7 @@
       <c r="W209" s="28"/>
       <c r="X209" s="28"/>
     </row>
-    <row r="210" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D210" s="5"/>
       <c r="E210" s="28"/>
       <c r="F210" s="28"/>
@@ -20943,7 +20944,7 @@
       <c r="W210" s="28"/>
       <c r="X210" s="28"/>
     </row>
-    <row r="211" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D211" s="5"/>
       <c r="E211" s="28"/>
       <c r="F211" s="28"/>
@@ -20960,7 +20961,7 @@
       <c r="W211" s="28"/>
       <c r="X211" s="28"/>
     </row>
-    <row r="212" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D212" s="5"/>
       <c r="E212" s="28"/>
       <c r="F212" s="28"/>
@@ -20977,7 +20978,7 @@
       <c r="W212" s="28"/>
       <c r="X212" s="28"/>
     </row>
-    <row r="213" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D213" s="5"/>
       <c r="E213" s="28"/>
       <c r="F213" s="28"/>
@@ -20994,7 +20995,7 @@
       <c r="W213" s="28"/>
       <c r="X213" s="28"/>
     </row>
-    <row r="214" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D214" s="5"/>
       <c r="E214" s="28"/>
       <c r="F214" s="28"/>
@@ -21011,7 +21012,7 @@
       <c r="W214" s="28"/>
       <c r="X214" s="28"/>
     </row>
-    <row r="215" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D215" s="5"/>
       <c r="E215" s="28"/>
       <c r="F215" s="28"/>
@@ -21028,7 +21029,7 @@
       <c r="W215" s="28"/>
       <c r="X215" s="28"/>
     </row>
-    <row r="216" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D216" s="5"/>
       <c r="E216" s="28"/>
       <c r="F216" s="28"/>
@@ -21045,7 +21046,7 @@
       <c r="W216" s="28"/>
       <c r="X216" s="28"/>
     </row>
-    <row r="217" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D217" s="5"/>
       <c r="E217" s="28"/>
       <c r="F217" s="28"/>
@@ -21062,7 +21063,7 @@
       <c r="W217" s="28"/>
       <c r="X217" s="28"/>
     </row>
-    <row r="218" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D218" s="5"/>
       <c r="E218" s="28"/>
       <c r="F218" s="28"/>
@@ -21079,7 +21080,7 @@
       <c r="W218" s="28"/>
       <c r="X218" s="28"/>
     </row>
-    <row r="219" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D219" s="5"/>
       <c r="E219" s="28"/>
       <c r="F219" s="28"/>
@@ -21096,7 +21097,7 @@
       <c r="W219" s="28"/>
       <c r="X219" s="28"/>
     </row>
-    <row r="220" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D220" s="5"/>
       <c r="E220" s="28"/>
       <c r="F220" s="28"/>
@@ -21113,7 +21114,7 @@
       <c r="W220" s="28"/>
       <c r="X220" s="28"/>
     </row>
-    <row r="221" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D221" s="5"/>
       <c r="E221" s="28"/>
       <c r="F221" s="28"/>
@@ -21130,7 +21131,7 @@
       <c r="W221" s="28"/>
       <c r="X221" s="28"/>
     </row>
-    <row r="222" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D222" s="5"/>
       <c r="E222" s="28"/>
       <c r="F222" s="28"/>
@@ -21147,7 +21148,7 @@
       <c r="W222" s="28"/>
       <c r="X222" s="28"/>
     </row>
-    <row r="223" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D223" s="5"/>
       <c r="E223" s="28"/>
       <c r="F223" s="28"/>
@@ -21164,7 +21165,7 @@
       <c r="W223" s="28"/>
       <c r="X223" s="28"/>
     </row>
-    <row r="224" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D224" s="5"/>
       <c r="E224" s="28"/>
       <c r="F224" s="28"/>
@@ -21181,7 +21182,7 @@
       <c r="W224" s="28"/>
       <c r="X224" s="28"/>
     </row>
-    <row r="225" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D225" s="5"/>
       <c r="E225" s="28"/>
       <c r="F225" s="28"/>
@@ -21198,7 +21199,7 @@
       <c r="W225" s="28"/>
       <c r="X225" s="28"/>
     </row>
-    <row r="226" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D226" s="5"/>
       <c r="E226" s="28"/>
       <c r="F226" s="28"/>
@@ -21215,7 +21216,7 @@
       <c r="W226" s="28"/>
       <c r="X226" s="28"/>
     </row>
-    <row r="227" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D227" s="5"/>
       <c r="E227" s="28"/>
       <c r="F227" s="28"/>
@@ -21232,7 +21233,7 @@
       <c r="W227" s="28"/>
       <c r="X227" s="28"/>
     </row>
-    <row r="228" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D228" s="5"/>
       <c r="E228" s="28"/>
       <c r="F228" s="28"/>
@@ -21249,7 +21250,7 @@
       <c r="W228" s="28"/>
       <c r="X228" s="28"/>
     </row>
-    <row r="229" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D229" s="5"/>
       <c r="E229" s="28"/>
       <c r="F229" s="28"/>
@@ -21266,7 +21267,7 @@
       <c r="W229" s="28"/>
       <c r="X229" s="28"/>
     </row>
-    <row r="230" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D230" s="5"/>
       <c r="E230" s="28"/>
       <c r="F230" s="28"/>
@@ -21283,7 +21284,7 @@
       <c r="W230" s="28"/>
       <c r="X230" s="28"/>
     </row>
-    <row r="231" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D231" s="5"/>
       <c r="E231" s="28"/>
       <c r="F231" s="28"/>
@@ -21300,7 +21301,7 @@
       <c r="W231" s="28"/>
       <c r="X231" s="28"/>
     </row>
-    <row r="232" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D232" s="5"/>
       <c r="E232" s="28"/>
       <c r="F232" s="28"/>
@@ -21317,7 +21318,7 @@
       <c r="W232" s="28"/>
       <c r="X232" s="28"/>
     </row>
-    <row r="233" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D233" s="5"/>
       <c r="E233" s="28"/>
       <c r="F233" s="28"/>
@@ -21334,7 +21335,7 @@
       <c r="W233" s="28"/>
       <c r="X233" s="28"/>
     </row>
-    <row r="234" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D234" s="5"/>
       <c r="E234" s="28"/>
       <c r="F234" s="28"/>
@@ -21351,7 +21352,7 @@
       <c r="W234" s="28"/>
       <c r="X234" s="28"/>
     </row>
-    <row r="235" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D235" s="5"/>
       <c r="E235" s="28"/>
       <c r="F235" s="28"/>
@@ -21368,7 +21369,7 @@
       <c r="W235" s="28"/>
       <c r="X235" s="28"/>
     </row>
-    <row r="236" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D236" s="5"/>
       <c r="E236" s="28"/>
       <c r="F236" s="28"/>
@@ -21385,7 +21386,7 @@
       <c r="W236" s="28"/>
       <c r="X236" s="28"/>
     </row>
-    <row r="237" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D237" s="5"/>
       <c r="E237" s="28"/>
       <c r="F237" s="28"/>
@@ -21402,7 +21403,7 @@
       <c r="W237" s="28"/>
       <c r="X237" s="28"/>
     </row>
-    <row r="238" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D238" s="5"/>
       <c r="E238" s="28"/>
       <c r="F238" s="28"/>
@@ -21419,7 +21420,7 @@
       <c r="W238" s="28"/>
       <c r="X238" s="28"/>
     </row>
-    <row r="239" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D239" s="5"/>
       <c r="E239" s="28"/>
       <c r="F239" s="28"/>
@@ -21436,7 +21437,7 @@
       <c r="W239" s="28"/>
       <c r="X239" s="28"/>
     </row>
-    <row r="240" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D240" s="5"/>
       <c r="E240" s="28"/>
       <c r="F240" s="28"/>
@@ -21453,7 +21454,7 @@
       <c r="W240" s="28"/>
       <c r="X240" s="28"/>
     </row>
-    <row r="241" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D241" s="5"/>
       <c r="E241" s="28"/>
       <c r="F241" s="28"/>
@@ -21470,7 +21471,7 @@
       <c r="W241" s="28"/>
       <c r="X241" s="28"/>
     </row>
-    <row r="242" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D242" s="5"/>
       <c r="E242" s="28"/>
       <c r="F242" s="28"/>
@@ -21487,7 +21488,7 @@
       <c r="W242" s="28"/>
       <c r="X242" s="28"/>
     </row>
-    <row r="243" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D243" s="5"/>
       <c r="E243" s="28"/>
       <c r="F243" s="28"/>
@@ -21504,7 +21505,7 @@
       <c r="W243" s="28"/>
       <c r="X243" s="28"/>
     </row>
-    <row r="244" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D244" s="5"/>
       <c r="E244" s="28"/>
       <c r="F244" s="28"/>
@@ -21521,7 +21522,7 @@
       <c r="W244" s="28"/>
       <c r="X244" s="28"/>
     </row>
-    <row r="245" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D245" s="5"/>
       <c r="E245" s="28"/>
       <c r="F245" s="28"/>
@@ -21538,7 +21539,7 @@
       <c r="W245" s="28"/>
       <c r="X245" s="28"/>
     </row>
-    <row r="246" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D246" s="5"/>
       <c r="E246" s="28"/>
       <c r="F246" s="28"/>
@@ -21555,7 +21556,7 @@
       <c r="W246" s="28"/>
       <c r="X246" s="28"/>
     </row>
-    <row r="247" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D247" s="5"/>
       <c r="E247" s="28"/>
       <c r="F247" s="28"/>
@@ -21572,7 +21573,7 @@
       <c r="W247" s="28"/>
       <c r="X247" s="28"/>
     </row>
-    <row r="248" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D248" s="5"/>
       <c r="E248" s="28"/>
       <c r="F248" s="28"/>
@@ -21589,7 +21590,7 @@
       <c r="W248" s="28"/>
       <c r="X248" s="28"/>
     </row>
-    <row r="249" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D249" s="5"/>
       <c r="E249" s="28"/>
       <c r="F249" s="28"/>
@@ -21606,7 +21607,7 @@
       <c r="W249" s="28"/>
       <c r="X249" s="28"/>
     </row>
-    <row r="250" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D250" s="5"/>
       <c r="E250" s="28"/>
       <c r="F250" s="28"/>
@@ -21623,7 +21624,7 @@
       <c r="W250" s="28"/>
       <c r="X250" s="28"/>
     </row>
-    <row r="251" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D251" s="5"/>
       <c r="E251" s="28"/>
       <c r="F251" s="28"/>
@@ -21640,7 +21641,7 @@
       <c r="W251" s="28"/>
       <c r="X251" s="28"/>
     </row>
-    <row r="252" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D252" s="5"/>
       <c r="E252" s="28"/>
       <c r="F252" s="28"/>
@@ -21657,7 +21658,7 @@
       <c r="W252" s="28"/>
       <c r="X252" s="28"/>
     </row>
-    <row r="253" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D253" s="5"/>
       <c r="E253" s="28"/>
       <c r="F253" s="28"/>
@@ -21674,7 +21675,7 @@
       <c r="W253" s="28"/>
       <c r="X253" s="28"/>
     </row>
-    <row r="254" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D254" s="5"/>
       <c r="E254" s="28"/>
       <c r="F254" s="28"/>
@@ -21691,7 +21692,7 @@
       <c r="W254" s="28"/>
       <c r="X254" s="28"/>
     </row>
-    <row r="255" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D255" s="5"/>
       <c r="E255" s="28"/>
       <c r="F255" s="28"/>
@@ -21708,7 +21709,7 @@
       <c r="W255" s="28"/>
       <c r="X255" s="28"/>
     </row>
-    <row r="256" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D256" s="5"/>
       <c r="E256" s="28"/>
       <c r="F256" s="28"/>
@@ -21725,7 +21726,7 @@
       <c r="W256" s="28"/>
       <c r="X256" s="28"/>
     </row>
-    <row r="257" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D257" s="5"/>
       <c r="E257" s="28"/>
       <c r="F257" s="28"/>
@@ -21742,7 +21743,7 @@
       <c r="W257" s="28"/>
       <c r="X257" s="28"/>
     </row>
-    <row r="258" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D258" s="5"/>
       <c r="E258" s="28"/>
       <c r="F258" s="28"/>
@@ -21759,7 +21760,7 @@
       <c r="W258" s="28"/>
       <c r="X258" s="28"/>
     </row>
-    <row r="259" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D259" s="5"/>
       <c r="E259" s="28"/>
       <c r="F259" s="28"/>
@@ -21776,7 +21777,7 @@
       <c r="W259" s="28"/>
       <c r="X259" s="28"/>
     </row>
-    <row r="260" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D260" s="5"/>
       <c r="E260" s="28"/>
       <c r="F260" s="28"/>
@@ -21793,7 +21794,7 @@
       <c r="W260" s="28"/>
       <c r="X260" s="28"/>
     </row>
-    <row r="261" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D261" s="5"/>
       <c r="E261" s="28"/>
       <c r="F261" s="28"/>
@@ -21810,7 +21811,7 @@
       <c r="W261" s="28"/>
       <c r="X261" s="28"/>
     </row>
-    <row r="262" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D262" s="5"/>
       <c r="E262" s="28"/>
       <c r="F262" s="28"/>
@@ -21827,7 +21828,7 @@
       <c r="W262" s="28"/>
       <c r="X262" s="28"/>
     </row>
-    <row r="263" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D263" s="5"/>
       <c r="E263" s="28"/>
       <c r="F263" s="28"/>
@@ -21844,7 +21845,7 @@
       <c r="W263" s="28"/>
       <c r="X263" s="28"/>
     </row>
-    <row r="264" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D264" s="5"/>
       <c r="E264" s="28"/>
       <c r="F264" s="28"/>
@@ -21861,7 +21862,7 @@
       <c r="W264" s="28"/>
       <c r="X264" s="28"/>
     </row>
-    <row r="265" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D265" s="5"/>
       <c r="E265" s="28"/>
       <c r="F265" s="28"/>
@@ -21878,7 +21879,7 @@
       <c r="W265" s="28"/>
       <c r="X265" s="28"/>
     </row>
-    <row r="266" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D266" s="5"/>
       <c r="E266" s="28"/>
       <c r="F266" s="28"/>
@@ -21895,7 +21896,7 @@
       <c r="W266" s="28"/>
       <c r="X266" s="28"/>
     </row>
-    <row r="267" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D267" s="116"/>
       <c r="E267" s="134"/>
       <c r="F267" s="134"/>
@@ -21907,23 +21908,23 @@
       <c r="M267" s="134"/>
       <c r="N267" s="134"/>
     </row>
-    <row r="269" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D269" s="33"/>
     </row>
-    <row r="271" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D271" s="33"/>
     </row>
-    <row r="272" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D272" s="33"/>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D273" s="33"/>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D274" s="33"/>
       <c r="E274" s="92"/>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D276" s="94"/>
     </row>
   </sheetData>
@@ -21939,6 +21940,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF72F43736E84F41BD4B3E7ABAD1B9F8" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d41e9362d2f52e62f002b8bc1f10a2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -22052,22 +22068,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F385080-AA43-47B1-B5FC-DE683234294C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F9DA69-AC46-4980-8991-D5FD33AE93E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19CAC59-AF7B-4667-A9DE-B61697C5549A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22081,27 +22105,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F385080-AA43-47B1-B5FC-DE683234294C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F9DA69-AC46-4980-8991-D5FD33AE93E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>